--- a/uploadfolder/12_-_Copy.xlsx
+++ b/uploadfolder/12_-_Copy.xlsx
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>CAS-01622-Q2T5</t>
-  </si>
-  <si>
-    <t>FRLB RTWP Delta between Ant1 &amp; Ant2</t>
   </si>
   <si>
     <t>FRLB RTWP Delta between Ant1 &amp; Ant2_x000D_
@@ -2381,52 +2378,6 @@
   </si>
   <si>
     <t>Airscale Web-Browsing issue (FL16AMP4.0)</t>
-  </si>
-  <si>
-    <t>Problem Description_x000D_
-[1. Test Scenario Steps] _x000D_
-Step 1. Customer setup a new Airscale eNB._x000D_
-Step 2. There are some issue in Web-browse._x000D_
-_x000D_
-[2. Fault Description] _x000D_
-some issue in Web-browse_x000D_
-_x000D_
-[3. Tester Analysis] _x000D_
-many package with Bad length in Wireshark._x000D_
-_x000D_
-[4. Fault Repeatability]_x000D_
-How many times Test Scenario was run? 1_x000D_
-How many times fault was reproduced? 1_x000D_
-_x000D_
-_x000D_
-_x000D_
-[5. Test Scenario History of Execution]_x000D_
-Was Test Scenario passing before? N/A_x000D_
-What was the last SW version Test Scenario was passing? NA_x000D_
-Were there any differences between test-lines since last time Test Scenario was passing? N?A._x000D_
-Were there any changes in Test Scenario since last run it passed? N/A_x000D_
-._x000D_
-_x000D_
-[6. Test-Line Reference / Info]_x000D_
-_x000D_
-FDD HW: ASIA + 3*ABIA + FRPA +3*FXEB + 3*FRHF _x000D_
-FDD SW: FL16A_ENB_0000_004115_000000_x000D_
-_x000D_
-[7. Testcase ID (QC or RP link)]_x000D_
-N/A _x000D_
-_x000D_
-_x000D_
-[8. Log File Contents]_x000D_
-RNCTS FTP Server: _x000D_
-/mnt/array1/rncts/Customers/Optus/PittStreet-WebBrowser/_x000D_
-_x000D_
-_x000D_
-[9. Customer impact analysis]_x000D_
-issue in Web-browsering._x000D_
-_x000D_
-_x000D_
-cPronto_x000D_
-Hi,\n\nFR unit power levels same before &amp; after\nFRPA – 60 W (L7)\nFXEB – 40 W (L18)\nFRFH – 40 W (L26)\n\nWeb browsing issue was merely intermitted sometime browsing stalling totally &amp; sometimes working fine. I would say CA was active all the time, but this can be checked from emil logs.\n\nThe other calls were fine apart of occasional Volte call failures. Some VoLTE MO calls failed before/during/after migration. I believe this is a core issue. However making call again it worked.\n\nCounter values available on snapshots &amp; Netact, but as briefly seen on emil perhaps 30-50 active users so should not be a issue\n\nXml file was prebuild. \n\nEnclosed similar xml file what is the output from migration tool. Here need manually inactivate L26 inter CA.\n\nWe collected Snapshots, mactti &amp; emil logs\n\nVolte, throughput, CSFB\n\nRegarding a fan. I did heard occasionally a mechanical sound so most likely fan issue as before experienced.</t>
   </si>
   <si>
     <t>TOP_FL16A_4.0.2, TOP_FL16A_7.0</t>
@@ -4749,38 +4700,6 @@
   </si>
   <si>
     <t>EE SRAN Testbed: LTE2206. CqiRlf not counted correctly</t>
-  </si>
-  <si>
-    <t>Kindly attach to the existing Pronto case ID : PR245445_x000D_
-_x000D_
-[1. Problem Description] : The cqiRepType 3, which is RI and UL PHY do not write the cqiResult into cqiQualityResult. Instead, it writes into riQualityResult._x000D_
-So the cqiQualityResult reported as 0 value. Also it is not-attempted and subsequently stops all consecutive counting and clears the count, which is incorrect. _x000D_
-This issue casues the counting of continious CQI DTX on PUCCH and PUSCH not to trigger CqiRfl_ON indication from MAC._x000D_
-_x000D_
-       What are the Operator/End User visible symptoms?  : Reported by Orange PCS, GBR_x000D_
-       What is the Scope of Impact/Customer Expectation? : Expecting to receive a SW patch._x000D_
-       What is the frequency of occurrence of a problem? : Permanent._x000D_
-[2. Problem Preconditions] : Noraml traffic_x000D_
-       What was the state of the system before a problem manifested? NA_x000D_
-       What operations were performed on a system before a problem manifestation? NA_x000D_
-       What was the call load on a site in the moment of a problem manifestation? NA_x000D_
- [3. Problem Post conditions]_x000D_
-       What has been done after problem occurred? : Conflict in KPI reports._x000D_
-       Which recovery actions have been done and when? NA_x000D_
-       Describe Workaround if available. NA_x000D_
-[4. Site info]_x000D_
-       Site HW details : FL16A_ENB_0000_0041156_000001_x000D_
-       Site installed SW version and Site configuration : FL16A_ENB_0000_0041156_000001_x000D_
-       When was the last time SW upgraded on a site and what was previously used SW version? NA_x000D_
-       Site neighborhood details - details of multi-vendor Network: NA_x000D_
-[5. Symptoms/logs]_x000D_
-       Do all attached sets of logs come from the same Site, as described in site info? : Yes, uploaded in NCT/Pronto. _x000D_
-       Was the log collected manually via BTS EM/NetAct or in automated way (EMIL tool)? : Logs were collected manually_x000D_
-       What is the time span between the problem occurrence and log collection? : Immediate _x000D_
-[6. Analysis / reasoning behind dispatch ]_x000D_
-       Why fault is dispatched to selected Pronto Group? : It is accepted as a SW Bug._x000D_
-[7. Reproduction]_x000D_
-        Were there any reproduction attempts at Nokia labs performed? NA</t>
   </si>
   <si>
     <t>FL16A_ENB_0000_0041156_000001</t>
@@ -6707,6 +6626,90 @@
   </si>
   <si>
     <t>FA297957</t>
+  </si>
+  <si>
+    <t>[OPTUS]FRLB RTWP Delta between Ant1 &amp; Ant2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Problem Description_x000D_
+[1. Test Scenario Steps] _x000D_
+Step 1. Customer setup a new Airscale eNB._x000D_
+Step 2. There are some issue in Web-browse._x000D_
+_x000D_
+[2. Fault Description] _x000D_
+some issue in Web-browse_x000D_
+_x000D_
+[3. Tester Analysis] _x000D_
+many package with Bad length in Wireshark._x000D_
+_x000D_
+[4. Fault Repeatability]_x000D_
+How many times Test Scenario was run? 1_x000D_
+How many times fault was reproduced? 1_x000D_
+_x000D_
+_x000D_
+_x000D_
+[5. Test Scenario History of Execution]_x000D_
+Was Test Scenario passing before? N/A_x000D_
+What was the last SW version Test Scenario was passing? NA_x000D_
+Were there any differences between test-lines since last time Test Scenario was passing? N?A._x000D_
+Were there any changes in Test Scenario since last run it passed? N/A_x000D_
+._x000D_
+_x000D_
+[6. Test-Line Reference / Info]_x000D_
+_x000D_
+FDD HW: ASIA + 3*ABIA + FRPA +3*FXEB + 3*FRHF _x000D_
+FDD SW: FL16A_ENB_0000_004115_000000_x000D_
+_x000D_
+[7. Testcase ID (QC or RP link)]_x000D_
+N/A _x000D_
+_x000D_
+_x000D_
+[8. Log File Contents]_x000D_
+RNCTS FTP Server: _x000D_
+/mnt/array1/rncts/Customers/Optus/PittStreet-WebBrowser/_x000D_
+_x000D_
+_x000D_
+[9. Customer impact analysis]_x000D_
+issue in Web-browsering._x000D_
+_x000D_
+_x000D_
+cPronto_x000D_
+Hi,\n\nFR unit power levels same before &amp; after\nFRPA – 60 W (L7)\nFXEB – 40 W (L18)\nFRFH – 40 W (L26)\n\nWeb browsing issue was merely intermitted sometime browsing stalling totally &amp; sometimes working fine. I would say CA was active all the time, but this can be checked from emil logs.\n\nThe other calls were fine apart of occasional Volte call failures. Some VoLTE MO calls failed before/during/after migration. I believe this is a core issue. However making call again it worked.\n\nCounter values available on snapshots &amp; Netact, but as briefly seen on emil perhaps 30-50 active users so should not be a issue\n\nXml file was prebuild. \n\nEnclosed similar xml file what is the output from migration tool. Here need manually inactivate L26 inter CA.\n\nWe collected Snapshots, mactti &amp; emil logs\n\nVolte, throughput, CSFB\n\nRegarding a fan. I did heard occasionally a mechanical sound so most likely fan issue as before experienced.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTPUSKindly attach to the existing Pronto case ID : PR245445_x000D_
+_x000D_
+[1. Problem Description] : The cqiRepType 3, which is RI and UL PHY do not write the cqiResult into cqiQualityResult. Instead, it writes into riQualityResult._x000D_
+So the cqiQualityResult reported as 0 value. Also it is not-attempted and subsequently stops all consecutive counting and clears the count, which is incorrect. _x000D_
+This issue casues the counting of continious CQI DTX on PUCCH and PUSCH not to trigger CqiRfl_ON indication from MAC._x000D_
+_x000D_
+       What are the Operator/End User visible symptoms?  : Reported by Orange PCS, GBR_x000D_
+       What is the Scope of Impact/Customer Expectation? : Expecting to receive a SW patch._x000D_
+       What is the frequency of occurrence of a problem? : Permanent._x000D_
+[2. Problem Preconditions] : Noraml traffic_x000D_
+       What was the state of the system before a problem manifested? NA_x000D_
+       What operations were performed on a system before a problem manifestation? NA_x000D_
+       What was the call load on a site in the moment of a problem manifestation? NA_x000D_
+ [3. Problem Post conditions]_x000D_
+       What has been done after problem occurred? : Conflict in KPI reports._x000D_
+       Which recovery actions have been done and when? NA_x000D_
+       Describe Workaround if available. NA_x000D_
+[4. Site info]_x000D_
+       Site HW details : FL16A_ENB_0000_0041156_000001_x000D_
+       Site installed SW version and Site configuration : FL16A_ENB_0000_0041156_000001_x000D_
+       When was the last time SW upgraded on a site and what was previously used SW version? NA_x000D_
+       Site neighborhood details - details of multi-vendor Network: NA_x000D_
+[5. Symptoms/logs]_x000D_
+       Do all attached sets of logs come from the same Site, as described in site info? : Yes, uploaded in NCT/Pronto. _x000D_
+       Was the log collected manually via BTS EM/NetAct or in automated way (EMIL tool)? : Logs were collected manually_x000D_
+       What is the time span between the problem occurrence and log collection? : Immediate _x000D_
+[6. Analysis / reasoning behind dispatch ]_x000D_
+       Why fault is dispatched to selected Pronto Group? : It is accepted as a SW Bug._x000D_
+[7. Reproduction]_x000D_
+        Were there any reproduction attempts at Nokia labs performed? NA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7666,8 +7669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7757,58 +7760,58 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
+        <v>880</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
       <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
         <v>34</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
       </c>
       <c r="L2" s="2">
         <v>42843</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N2" t="s">
         <v>17</v>
       </c>
       <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
         <v>36</v>
       </c>
-      <c r="P2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>37</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="T2" s="2">
         <v>42920</v>
@@ -7817,78 +7820,78 @@
         <v>42853</v>
       </c>
       <c r="V2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" t="s">
         <v>40</v>
       </c>
-      <c r="W2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>41</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>42</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="409.6">
       <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
         <v>46</v>
       </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>47</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>48</v>
       </c>
-      <c r="I3" t="s">
-        <v>49</v>
-      </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L3" s="2">
         <v>42796</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N3" t="s">
         <v>17</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" t="s">
         <v>50</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="T3" s="2">
         <v>42868</v>
@@ -7897,1438 +7900,1438 @@
         <v>42844</v>
       </c>
       <c r="V3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" t="s">
         <v>53</v>
       </c>
-      <c r="W3" t="s">
-        <v>30</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>54</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>55</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="409.6">
       <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
         <v>57</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
         <v>59</v>
       </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>60</v>
       </c>
-      <c r="H4" t="s">
-        <v>61</v>
-      </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L4" s="2">
         <v>42797</v>
       </c>
       <c r="M4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N4" t="s">
         <v>17</v>
       </c>
       <c r="O4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="R4" t="s">
-        <v>51</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="T4" s="2">
         <v>42857</v>
       </c>
       <c r="U4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V4" t="s">
+        <v>63</v>
+      </c>
+      <c r="W4" t="s">
+        <v>29</v>
+      </c>
+      <c r="X4" t="s">
         <v>64</v>
       </c>
-      <c r="W4" t="s">
-        <v>30</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>65</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>66</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="409.6">
       <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
         <v>68</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
         <v>70</v>
       </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
         <v>71</v>
       </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>72</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>73</v>
       </c>
-      <c r="I5" t="s">
-        <v>74</v>
-      </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L5" s="2">
         <v>42889</v>
       </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N5" t="s">
         <v>17</v>
       </c>
       <c r="O5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R5" t="s">
         <v>75</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="T5" s="2">
         <v>42908</v>
       </c>
       <c r="U5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V5" t="s">
+        <v>77</v>
+      </c>
+      <c r="W5" t="s">
+        <v>29</v>
+      </c>
+      <c r="X5" t="s">
         <v>78</v>
       </c>
-      <c r="W5" t="s">
-        <v>30</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>79</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>80</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="409.6">
       <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
         <v>82</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
         <v>84</v>
       </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>85</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>86</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>87</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>88</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>89</v>
       </c>
-      <c r="J6" t="s">
-        <v>90</v>
-      </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L6" s="2">
         <v>42852</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N6" t="s">
         <v>17</v>
       </c>
       <c r="O6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" t="s">
         <v>91</v>
       </c>
-      <c r="P6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>92</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U6" t="s">
+        <v>29</v>
+      </c>
+      <c r="V6" t="s">
         <v>94</v>
       </c>
-      <c r="T6" t="s">
-        <v>30</v>
-      </c>
-      <c r="U6" t="s">
-        <v>30</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
+        <v>29</v>
+      </c>
+      <c r="X6" t="s">
         <v>95</v>
       </c>
-      <c r="W6" t="s">
-        <v>30</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>96</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>97</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="409.6">
       <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
         <v>99</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
         <v>101</v>
       </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
         <v>102</v>
       </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>103</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>104</v>
       </c>
-      <c r="I7" t="s">
-        <v>105</v>
-      </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L7" s="2">
         <v>42880</v>
       </c>
       <c r="M7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N7" t="s">
         <v>17</v>
       </c>
       <c r="O7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q7" t="s">
+        <v>105</v>
+      </c>
+      <c r="R7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="R7" t="s">
-        <v>51</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="T7" s="2">
         <v>42899</v>
       </c>
       <c r="U7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y7" t="s">
         <v>108</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>109</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="409.6">
       <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
         <v>111</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" t="s">
         <v>113</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>114</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" t="s">
         <v>115</v>
       </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" t="s">
-        <v>116</v>
-      </c>
       <c r="I8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L8" s="2">
         <v>42900</v>
       </c>
       <c r="M8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N8" t="s">
         <v>17</v>
       </c>
       <c r="O8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q8" t="s">
+        <v>116</v>
+      </c>
+      <c r="R8" t="s">
         <v>117</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="T8" s="2">
         <v>42937</v>
       </c>
       <c r="U8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V8" t="s">
+        <v>119</v>
+      </c>
+      <c r="W8" t="s">
+        <v>29</v>
+      </c>
+      <c r="X8" t="s">
         <v>120</v>
       </c>
-      <c r="W8" t="s">
-        <v>30</v>
-      </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>121</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>122</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="409.6">
       <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" t="s">
         <v>124</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
         <v>126</v>
       </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
         <v>127</v>
       </c>
-      <c r="F9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>128</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>129</v>
       </c>
-      <c r="I9" t="s">
-        <v>130</v>
-      </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L9" s="2">
         <v>42831</v>
       </c>
       <c r="M9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N9" t="s">
         <v>17</v>
       </c>
       <c r="O9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q9" t="s">
+        <v>130</v>
+      </c>
+      <c r="R9" t="s">
         <v>131</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="T9" s="2">
         <v>42912</v>
       </c>
       <c r="U9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V9" t="s">
+        <v>133</v>
+      </c>
+      <c r="W9" t="s">
+        <v>29</v>
+      </c>
+      <c r="X9" t="s">
         <v>134</v>
       </c>
-      <c r="W9" t="s">
-        <v>30</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>135</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>136</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="409.6">
       <c r="A10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" t="s">
         <v>138</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" t="s">
         <v>140</v>
       </c>
-      <c r="D10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
         <v>141</v>
       </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
         <v>142</v>
       </c>
-      <c r="H10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" t="s">
-        <v>143</v>
-      </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L10" s="2">
         <v>42863</v>
       </c>
       <c r="M10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N10" t="s">
         <v>17</v>
       </c>
       <c r="O10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q10" t="s">
+        <v>143</v>
+      </c>
+      <c r="R10" t="s">
         <v>144</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>145</v>
-      </c>
-      <c r="S10" t="s">
-        <v>146</v>
       </c>
       <c r="T10" s="2">
         <v>42901</v>
       </c>
       <c r="U10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X10" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y10" t="s">
         <v>147</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>148</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="409.6">
       <c r="A11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" t="s">
         <v>150</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
         <v>152</v>
       </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>153</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>154</v>
       </c>
-      <c r="I11" t="s">
-        <v>155</v>
-      </c>
       <c r="J11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L11" s="2">
         <v>42884</v>
       </c>
       <c r="M11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N11" t="s">
         <v>17</v>
       </c>
       <c r="O11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q11" t="s">
+        <v>155</v>
+      </c>
+      <c r="R11" t="s">
         <v>156</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="T11" s="2">
         <v>42899</v>
       </c>
       <c r="U11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V11" t="s">
+        <v>158</v>
+      </c>
+      <c r="W11" t="s">
+        <v>29</v>
+      </c>
+      <c r="X11" t="s">
         <v>159</v>
       </c>
-      <c r="W11" t="s">
-        <v>30</v>
-      </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>160</v>
       </c>
-      <c r="Y11" t="s">
-        <v>161</v>
-      </c>
       <c r="Z11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="409.6">
       <c r="A12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" t="s">
         <v>162</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" t="s">
         <v>164</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>165</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" t="s">
         <v>166</v>
       </c>
-      <c r="F12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" t="s">
-        <v>167</v>
-      </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L12" s="2">
         <v>42835</v>
       </c>
       <c r="M12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N12" t="s">
         <v>17</v>
       </c>
       <c r="O12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q12" t="s">
+        <v>167</v>
+      </c>
+      <c r="R12" t="s">
         <v>168</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="T12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U12" s="2">
         <v>42906</v>
       </c>
       <c r="V12" t="s">
+        <v>170</v>
+      </c>
+      <c r="W12" t="s">
+        <v>29</v>
+      </c>
+      <c r="X12" t="s">
         <v>171</v>
       </c>
-      <c r="W12" t="s">
-        <v>30</v>
-      </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>172</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>173</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="409.6">
       <c r="A13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" t="s">
         <v>175</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
         <v>177</v>
       </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" t="s">
         <v>178</v>
       </c>
-      <c r="F13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" t="s">
-        <v>179</v>
-      </c>
       <c r="I13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L13" s="2">
         <v>42823</v>
       </c>
       <c r="M13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N13" t="s">
         <v>17</v>
       </c>
       <c r="O13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q13" t="s">
+        <v>179</v>
+      </c>
+      <c r="R13" t="s">
+        <v>131</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="R13" t="s">
-        <v>132</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="T13" s="2">
         <v>42833</v>
       </c>
       <c r="U13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X13" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y13" t="s">
         <v>182</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>183</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="409.6">
       <c r="A14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" t="s">
         <v>185</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
         <v>187</v>
       </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
         <v>188</v>
       </c>
-      <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>189</v>
       </c>
-      <c r="H14" t="s">
-        <v>190</v>
-      </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L14" s="2">
         <v>42907</v>
       </c>
       <c r="M14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N14" t="s">
         <v>17</v>
       </c>
       <c r="O14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q14" t="s">
+        <v>190</v>
+      </c>
+      <c r="R14" t="s">
         <v>191</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="T14" s="2">
         <v>42928</v>
       </c>
       <c r="U14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V14" t="s">
+        <v>193</v>
+      </c>
+      <c r="W14" t="s">
+        <v>29</v>
+      </c>
+      <c r="X14" t="s">
         <v>194</v>
       </c>
-      <c r="W14" t="s">
-        <v>30</v>
-      </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>195</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>196</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="409.6">
       <c r="A15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" t="s">
         <v>198</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
         <v>200</v>
       </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
+        <v>166</v>
+      </c>
+      <c r="I15" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" t="s">
         <v>201</v>
       </c>
-      <c r="H15" t="s">
-        <v>167</v>
-      </c>
-      <c r="I15" t="s">
-        <v>116</v>
-      </c>
-      <c r="J15" t="s">
-        <v>202</v>
-      </c>
       <c r="K15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L15" s="2">
         <v>42832</v>
       </c>
       <c r="M15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N15" t="s">
         <v>17</v>
       </c>
       <c r="O15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q15" t="s">
+        <v>202</v>
+      </c>
+      <c r="R15" t="s">
         <v>203</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="T15" s="2">
         <v>42970</v>
       </c>
       <c r="U15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V15" t="s">
+        <v>205</v>
+      </c>
+      <c r="W15" t="s">
         <v>206</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>207</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>208</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>209</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="409.6">
       <c r="A16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" t="s">
         <v>211</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
         <v>213</v>
       </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
+        <v>166</v>
+      </c>
+      <c r="I16" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" t="s">
         <v>214</v>
       </c>
-      <c r="H16" t="s">
-        <v>167</v>
-      </c>
-      <c r="I16" t="s">
-        <v>105</v>
-      </c>
-      <c r="J16" t="s">
-        <v>215</v>
-      </c>
       <c r="K16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L16" s="2">
         <v>42879</v>
       </c>
       <c r="M16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N16" t="s">
         <v>17</v>
       </c>
       <c r="O16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R16" t="s">
+        <v>215</v>
+      </c>
+      <c r="S16" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="T16" s="2">
         <v>42913</v>
       </c>
       <c r="U16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V16" t="s">
+        <v>217</v>
+      </c>
+      <c r="W16" t="s">
+        <v>29</v>
+      </c>
+      <c r="X16" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y16" t="s">
         <v>218</v>
       </c>
-      <c r="W16" t="s">
-        <v>30</v>
-      </c>
-      <c r="X16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>219</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="409.6">
       <c r="A17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" t="s">
         <v>221</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
         <v>223</v>
       </c>
-      <c r="D17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>224</v>
       </c>
-      <c r="H17" t="s">
-        <v>225</v>
-      </c>
       <c r="I17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L17" s="2">
         <v>42833</v>
       </c>
       <c r="M17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N17" t="s">
         <v>17</v>
       </c>
       <c r="O17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q17" t="s">
+        <v>49</v>
+      </c>
+      <c r="R17" t="s">
         <v>50</v>
       </c>
-      <c r="R17" t="s">
-        <v>51</v>
-      </c>
       <c r="S17" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="T17" s="2">
         <v>42886</v>
       </c>
       <c r="U17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X17" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y17" t="s">
         <v>228</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>229</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="409.6">
       <c r="A18" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" t="s">
         <v>231</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
         <v>233</v>
       </c>
-      <c r="D18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>234</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>235</v>
       </c>
-      <c r="I18" t="s">
-        <v>236</v>
-      </c>
       <c r="J18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L18" s="2">
         <v>42846</v>
       </c>
       <c r="M18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N18" t="s">
         <v>17</v>
       </c>
       <c r="O18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T18" s="2">
         <v>42849</v>
       </c>
       <c r="U18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X18" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y18" t="s">
         <v>238</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>239</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="409.6">
       <c r="A19" t="s">
+        <v>240</v>
+      </c>
+      <c r="B19" t="s">
         <v>241</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s">
         <v>243</v>
       </c>
-      <c r="D19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>244</v>
       </c>
-      <c r="H19" t="s">
-        <v>245</v>
-      </c>
       <c r="I19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L19" s="2">
         <v>42849</v>
       </c>
       <c r="M19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N19" t="s">
         <v>17</v>
       </c>
       <c r="O19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T19" s="2">
         <v>42880</v>
       </c>
       <c r="U19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Y19" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z19" t="s">
         <v>247</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="409.6">
       <c r="A20" t="s">
+        <v>248</v>
+      </c>
+      <c r="B20" t="s">
         <v>249</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>233</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" t="s">
         <v>251</v>
       </c>
-      <c r="D20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" t="s">
-        <v>234</v>
-      </c>
-      <c r="H20" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>252</v>
       </c>
-      <c r="J20" t="s">
-        <v>253</v>
-      </c>
       <c r="K20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L20" s="2">
         <v>42870</v>
       </c>
       <c r="M20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N20" t="s">
         <v>17</v>
       </c>
       <c r="O20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q20" t="s">
+        <v>253</v>
+      </c>
+      <c r="R20" t="s">
         <v>254</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="T20" s="2">
         <v>42886</v>
       </c>
       <c r="U20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V20" t="s">
+        <v>256</v>
+      </c>
+      <c r="W20" t="s">
+        <v>29</v>
+      </c>
+      <c r="X20" t="s">
         <v>257</v>
       </c>
-      <c r="W20" t="s">
-        <v>30</v>
-      </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>258</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>259</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="409.6">
       <c r="A21" t="s">
+        <v>260</v>
+      </c>
+      <c r="B21" t="s">
         <v>261</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
         <v>263</v>
       </c>
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" t="s">
-        <v>188</v>
-      </c>
-      <c r="F21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>264</v>
       </c>
-      <c r="H21" t="s">
-        <v>265</v>
-      </c>
       <c r="I21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L21" s="2">
         <v>42838</v>
       </c>
       <c r="M21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N21" t="s">
         <v>17</v>
       </c>
       <c r="O21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P21" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q21" t="s">
         <v>266</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
+        <v>191</v>
+      </c>
+      <c r="S21" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="R21" t="s">
-        <v>192</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="T21" s="2">
         <v>42934</v>
@@ -9337,958 +9340,958 @@
         <v>42849</v>
       </c>
       <c r="V21" t="s">
+        <v>268</v>
+      </c>
+      <c r="W21" t="s">
+        <v>29</v>
+      </c>
+      <c r="X21" t="s">
         <v>269</v>
       </c>
-      <c r="W21" t="s">
-        <v>30</v>
-      </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>270</v>
       </c>
-      <c r="Y21" t="s">
-        <v>271</v>
-      </c>
       <c r="Z21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="409.6">
       <c r="A22" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22" t="s">
         <v>272</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" t="s">
+        <v>234</v>
+      </c>
+      <c r="I22" t="s">
         <v>274</v>
       </c>
-      <c r="D22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H22" t="s">
-        <v>235</v>
-      </c>
-      <c r="I22" t="s">
-        <v>275</v>
-      </c>
       <c r="J22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L22" s="2">
         <v>42887</v>
       </c>
       <c r="M22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N22" t="s">
         <v>17</v>
       </c>
       <c r="O22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q22" t="s">
+        <v>275</v>
+      </c>
+      <c r="R22" t="s">
+        <v>215</v>
+      </c>
+      <c r="S22" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="R22" t="s">
-        <v>216</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="T22" s="2">
         <v>42934</v>
       </c>
       <c r="U22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V22" t="s">
+        <v>277</v>
+      </c>
+      <c r="W22" t="s">
+        <v>29</v>
+      </c>
+      <c r="X22" t="s">
         <v>278</v>
       </c>
-      <c r="W22" t="s">
-        <v>30</v>
-      </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>279</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>280</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="409.6">
       <c r="A23" t="s">
+        <v>281</v>
+      </c>
+      <c r="B23" t="s">
         <v>282</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s">
         <v>102</v>
       </c>
-      <c r="F23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" t="s">
-        <v>103</v>
-      </c>
       <c r="H23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L23" s="2">
         <v>42839</v>
       </c>
       <c r="M23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N23" t="s">
         <v>17</v>
       </c>
       <c r="O23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q23" t="s">
+        <v>284</v>
+      </c>
+      <c r="R23" t="s">
         <v>285</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="T23" s="2">
         <v>42936</v>
       </c>
       <c r="U23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X23" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y23" t="s">
         <v>288</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>289</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="409.6">
       <c r="A24" t="s">
+        <v>290</v>
+      </c>
+      <c r="B24" t="s">
         <v>291</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" t="s">
         <v>293</v>
       </c>
-      <c r="D24" t="s">
-        <v>165</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s">
         <v>294</v>
       </c>
-      <c r="F24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>295</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>296</v>
       </c>
-      <c r="I24" t="s">
-        <v>297</v>
-      </c>
       <c r="J24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L24" s="2">
         <v>42867</v>
       </c>
       <c r="M24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N24" t="s">
         <v>17</v>
       </c>
       <c r="O24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q24" t="s">
+        <v>297</v>
+      </c>
+      <c r="R24" t="s">
         <v>298</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="T24" s="2">
         <v>42944</v>
       </c>
       <c r="U24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V24" t="s">
+        <v>300</v>
+      </c>
+      <c r="W24" t="s">
         <v>301</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>302</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>303</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>304</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="409.6">
       <c r="A25" t="s">
+        <v>305</v>
+      </c>
+      <c r="B25" t="s">
         <v>306</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s">
+        <v>152</v>
+      </c>
+      <c r="H25" t="s">
         <v>308</v>
       </c>
-      <c r="D25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" t="s">
-        <v>153</v>
-      </c>
-      <c r="H25" t="s">
-        <v>309</v>
-      </c>
       <c r="I25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L25" s="2">
         <v>42879</v>
       </c>
       <c r="M25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N25" t="s">
         <v>17</v>
       </c>
       <c r="O25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q25" t="s">
+        <v>310</v>
+      </c>
+      <c r="R25" t="s">
+        <v>50</v>
+      </c>
+      <c r="S25" t="s">
         <v>311</v>
-      </c>
-      <c r="R25" t="s">
-        <v>51</v>
-      </c>
-      <c r="S25" t="s">
-        <v>312</v>
       </c>
       <c r="T25" s="2">
         <v>42887</v>
       </c>
       <c r="U25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Y25" t="s">
+        <v>312</v>
+      </c>
+      <c r="Z25" t="s">
         <v>313</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="409.6">
       <c r="A26" t="s">
+        <v>314</v>
+      </c>
+      <c r="B26" t="s">
         <v>315</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" t="s">
         <v>317</v>
       </c>
-      <c r="D26" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" t="s">
-        <v>318</v>
-      </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
+        <v>223</v>
+      </c>
+      <c r="H26" t="s">
         <v>224</v>
       </c>
-      <c r="H26" t="s">
-        <v>225</v>
-      </c>
       <c r="I26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L26" s="2">
         <v>42872</v>
       </c>
       <c r="M26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N26" t="s">
         <v>17</v>
       </c>
       <c r="O26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q26" t="s">
+        <v>49</v>
+      </c>
+      <c r="R26" t="s">
         <v>50</v>
       </c>
-      <c r="R26" t="s">
-        <v>51</v>
-      </c>
       <c r="S26" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="T26" s="2">
         <v>42899</v>
       </c>
       <c r="U26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Y26" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z26" t="s">
         <v>320</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="409.6">
       <c r="A27" t="s">
+        <v>321</v>
+      </c>
+      <c r="B27" t="s">
         <v>322</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" t="s">
         <v>324</v>
       </c>
-      <c r="D27" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s">
         <v>325</v>
       </c>
-      <c r="F27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" t="s">
-        <v>326</v>
-      </c>
       <c r="H27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L27" s="2">
         <v>42895</v>
       </c>
       <c r="M27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N27" t="s">
         <v>17</v>
       </c>
       <c r="O27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q27" t="s">
+        <v>326</v>
+      </c>
+      <c r="R27" t="s">
+        <v>191</v>
+      </c>
+      <c r="S27" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="R27" t="s">
-        <v>192</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="T27" s="2">
         <v>42950</v>
       </c>
       <c r="U27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V27" t="s">
+        <v>328</v>
+      </c>
+      <c r="W27" t="s">
+        <v>29</v>
+      </c>
+      <c r="X27" t="s">
         <v>329</v>
       </c>
-      <c r="W27" t="s">
-        <v>30</v>
-      </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>330</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>331</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="409.6">
       <c r="A28" t="s">
+        <v>332</v>
+      </c>
+      <c r="B28" t="s">
         <v>333</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" t="s">
         <v>335</v>
       </c>
-      <c r="D28" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F28" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>336</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>337</v>
       </c>
-      <c r="I28" t="s">
-        <v>338</v>
-      </c>
       <c r="J28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L28" s="2">
         <v>42881</v>
       </c>
       <c r="M28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N28" t="s">
         <v>17</v>
       </c>
       <c r="O28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q28" t="s">
+        <v>338</v>
+      </c>
+      <c r="R28" t="s">
+        <v>215</v>
+      </c>
+      <c r="S28" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="R28" t="s">
-        <v>216</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="T28" s="2">
         <v>42905</v>
       </c>
       <c r="U28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V28" t="s">
+        <v>340</v>
+      </c>
+      <c r="W28" t="s">
+        <v>29</v>
+      </c>
+      <c r="X28" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y28" t="s">
         <v>341</v>
       </c>
-      <c r="W28" t="s">
-        <v>30</v>
-      </c>
-      <c r="X28" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>342</v>
-      </c>
       <c r="Z28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="409.6">
       <c r="A29" t="s">
+        <v>342</v>
+      </c>
+      <c r="B29" t="s">
         <v>343</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" t="s">
         <v>85</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>86</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>87</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>88</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>89</v>
       </c>
-      <c r="J29" t="s">
-        <v>90</v>
-      </c>
       <c r="K29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L29" s="2">
         <v>42862</v>
       </c>
       <c r="M29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N29" t="s">
         <v>17</v>
       </c>
       <c r="O29" t="s">
+        <v>90</v>
+      </c>
+      <c r="P29" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q29" t="s">
         <v>91</v>
       </c>
-      <c r="P29" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>92</v>
-      </c>
       <c r="R29" t="s">
+        <v>345</v>
+      </c>
+      <c r="S29" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="S29" s="1" t="s">
+      <c r="T29" t="s">
+        <v>29</v>
+      </c>
+      <c r="U29" t="s">
+        <v>29</v>
+      </c>
+      <c r="V29" t="s">
         <v>347</v>
       </c>
-      <c r="T29" t="s">
-        <v>30</v>
-      </c>
-      <c r="U29" t="s">
-        <v>30</v>
-      </c>
-      <c r="V29" t="s">
-        <v>348</v>
-      </c>
       <c r="W29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X29" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y29" t="s">
         <v>96</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>97</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="409.6">
       <c r="A30" t="s">
+        <v>348</v>
+      </c>
+      <c r="B30" t="s">
         <v>349</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" t="s">
+        <v>187</v>
+      </c>
+      <c r="F30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s">
         <v>351</v>
       </c>
-      <c r="D30" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" t="s">
-        <v>188</v>
-      </c>
-      <c r="F30" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>352</v>
       </c>
-      <c r="H30" t="s">
-        <v>353</v>
-      </c>
       <c r="I30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L30" s="2">
         <v>42860</v>
       </c>
       <c r="M30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N30" t="s">
         <v>17</v>
       </c>
       <c r="O30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q30" t="s">
+        <v>353</v>
+      </c>
+      <c r="R30" t="s">
         <v>354</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="T30" s="2">
         <v>42934</v>
       </c>
       <c r="U30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V30" t="s">
+        <v>356</v>
+      </c>
+      <c r="W30" t="s">
+        <v>29</v>
+      </c>
+      <c r="X30" t="s">
         <v>357</v>
       </c>
-      <c r="W30" t="s">
-        <v>30</v>
-      </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>358</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>359</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="409.6">
       <c r="A31" t="s">
+        <v>360</v>
+      </c>
+      <c r="B31" t="s">
         <v>361</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
         <v>362</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="F31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
         <v>363</v>
       </c>
-      <c r="D31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" t="s">
-        <v>364</v>
-      </c>
-      <c r="F31" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" t="s">
-        <v>365</v>
-      </c>
       <c r="H31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L31" s="2">
         <v>42857</v>
       </c>
       <c r="M31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N31" t="s">
         <v>17</v>
       </c>
       <c r="O31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P31" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q31" t="s">
         <v>266</v>
       </c>
-      <c r="Q31" t="s">
-        <v>267</v>
-      </c>
       <c r="R31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="T31" s="2">
         <v>42888</v>
       </c>
       <c r="U31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V31" t="s">
+        <v>365</v>
+      </c>
+      <c r="W31" t="s">
+        <v>29</v>
+      </c>
+      <c r="X31" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y31" t="s">
         <v>367</v>
       </c>
-      <c r="W31" t="s">
-        <v>30</v>
-      </c>
-      <c r="X31" t="s">
+      <c r="Z31" t="s">
         <v>368</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>369</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="409.6">
       <c r="A32" t="s">
+        <v>369</v>
+      </c>
+      <c r="B32" t="s">
+        <v>370</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" t="s">
         <v>372</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="F32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s">
+        <v>263</v>
+      </c>
+      <c r="H32" t="s">
         <v>373</v>
       </c>
-      <c r="D32" t="s">
-        <v>114</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="I32" t="s">
         <v>374</v>
       </c>
-      <c r="F32" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" t="s">
-        <v>264</v>
-      </c>
-      <c r="H32" t="s">
-        <v>375</v>
-      </c>
-      <c r="I32" t="s">
-        <v>376</v>
-      </c>
       <c r="J32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L32" s="2">
         <v>42864</v>
       </c>
       <c r="M32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N32" t="s">
         <v>17</v>
       </c>
       <c r="O32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q32" t="s">
+        <v>375</v>
+      </c>
+      <c r="R32" t="s">
+        <v>376</v>
+      </c>
+      <c r="S32" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="R32" t="s">
-        <v>378</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="T32" s="2">
         <v>42888</v>
       </c>
       <c r="U32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V32" t="s">
+        <v>378</v>
+      </c>
+      <c r="W32" t="s">
+        <v>29</v>
+      </c>
+      <c r="X32" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y32" t="s">
         <v>380</v>
       </c>
-      <c r="W32" t="s">
-        <v>30</v>
-      </c>
-      <c r="X32" t="s">
+      <c r="Z32" t="s">
         <v>381</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>382</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="409.6">
       <c r="A33" t="s">
+        <v>382</v>
+      </c>
+      <c r="B33" t="s">
+        <v>383</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" t="s">
+        <v>200</v>
+      </c>
+      <c r="H33" t="s">
+        <v>189</v>
+      </c>
+      <c r="I33" t="s">
         <v>385</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D33" t="s">
-        <v>165</v>
-      </c>
-      <c r="E33" t="s">
-        <v>188</v>
-      </c>
-      <c r="F33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" t="s">
-        <v>201</v>
-      </c>
-      <c r="H33" t="s">
-        <v>190</v>
-      </c>
-      <c r="I33" t="s">
-        <v>387</v>
-      </c>
       <c r="J33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L33" s="2">
         <v>42895</v>
       </c>
       <c r="M33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N33" t="s">
         <v>17</v>
       </c>
       <c r="O33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q33" t="s">
+        <v>386</v>
+      </c>
+      <c r="R33" t="s">
+        <v>387</v>
+      </c>
+      <c r="S33" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="R33" t="s">
-        <v>389</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="T33" s="2">
         <v>42935</v>
@@ -10297,4103 +10300,4104 @@
         <v>42920</v>
       </c>
       <c r="V33" t="s">
+        <v>389</v>
+      </c>
+      <c r="W33" t="s">
+        <v>29</v>
+      </c>
+      <c r="X33" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y33" t="s">
         <v>391</v>
       </c>
-      <c r="W33" t="s">
-        <v>30</v>
-      </c>
-      <c r="X33" t="s">
+      <c r="Z33" t="s">
         <v>392</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>393</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="409.6">
       <c r="A34" t="s">
+        <v>393</v>
+      </c>
+      <c r="B34" t="s">
+        <v>394</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s">
         <v>396</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" t="s">
-        <v>102</v>
-      </c>
-      <c r="F34" t="s">
-        <v>31</v>
-      </c>
-      <c r="G34" t="s">
-        <v>398</v>
-      </c>
       <c r="H34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L34" s="2">
         <v>42887</v>
       </c>
       <c r="M34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N34" t="s">
         <v>17</v>
       </c>
       <c r="O34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q34" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="R34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="T34" s="2">
         <v>42907</v>
       </c>
       <c r="U34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V34" t="s">
+        <v>399</v>
+      </c>
+      <c r="W34" t="s">
+        <v>158</v>
+      </c>
+      <c r="X34" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y34" t="s">
         <v>401</v>
       </c>
-      <c r="W34" t="s">
-        <v>159</v>
-      </c>
-      <c r="X34" t="s">
+      <c r="Z34" t="s">
         <v>402</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>403</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="409.6">
       <c r="A35" t="s">
+        <v>403</v>
+      </c>
+      <c r="B35" t="s">
+        <v>404</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" t="s">
         <v>406</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="F35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" t="s">
         <v>407</v>
       </c>
-      <c r="D35" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" t="s">
-        <v>408</v>
-      </c>
-      <c r="F35" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" t="s">
-        <v>409</v>
-      </c>
       <c r="H35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L35" s="2">
         <v>42872</v>
       </c>
       <c r="M35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N35" t="s">
         <v>17</v>
       </c>
       <c r="O35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="T35" s="2">
         <v>42879</v>
       </c>
       <c r="U35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X35" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>410</v>
+      </c>
+      <c r="Z35" t="s">
         <v>411</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>412</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="409.6">
       <c r="A36" t="s">
+        <v>412</v>
+      </c>
+      <c r="B36" t="s">
+        <v>413</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" t="s">
         <v>415</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="F36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s">
         <v>416</v>
       </c>
-      <c r="D36" t="s">
-        <v>165</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="H36" t="s">
         <v>417</v>
       </c>
-      <c r="F36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="I36" t="s">
         <v>418</v>
       </c>
-      <c r="H36" t="s">
-        <v>419</v>
-      </c>
-      <c r="I36" t="s">
-        <v>420</v>
-      </c>
       <c r="J36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L36" s="2">
         <v>42870</v>
       </c>
       <c r="M36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N36" t="s">
         <v>17</v>
       </c>
       <c r="O36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q36" t="s">
+        <v>419</v>
+      </c>
+      <c r="R36" t="s">
+        <v>420</v>
+      </c>
+      <c r="S36" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="R36" t="s">
-        <v>422</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="T36" s="2">
         <v>42899</v>
       </c>
       <c r="U36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V36" t="s">
+        <v>422</v>
+      </c>
+      <c r="W36" t="s">
+        <v>301</v>
+      </c>
+      <c r="X36" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y36" t="s">
         <v>424</v>
       </c>
-      <c r="W36" t="s">
-        <v>302</v>
-      </c>
-      <c r="X36" t="s">
+      <c r="Z36" t="s">
         <v>425</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>426</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="409.6">
       <c r="A37" t="s">
+        <v>426</v>
+      </c>
+      <c r="B37" t="s">
+        <v>427</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D37" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" t="s">
         <v>429</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="F37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" t="s">
+        <v>102</v>
+      </c>
+      <c r="H37" t="s">
         <v>430</v>
       </c>
-      <c r="D37" t="s">
-        <v>114</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="I37" t="s">
         <v>431</v>
       </c>
-      <c r="F37" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" t="s">
-        <v>103</v>
-      </c>
-      <c r="H37" t="s">
-        <v>432</v>
-      </c>
-      <c r="I37" t="s">
-        <v>433</v>
-      </c>
       <c r="J37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L37" s="2">
         <v>42872</v>
       </c>
       <c r="M37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N37" t="s">
         <v>17</v>
       </c>
       <c r="O37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="T37" s="2">
         <v>42936</v>
       </c>
       <c r="U37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V37" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="W37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X37" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y37" t="s">
         <v>288</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>289</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="409.6">
       <c r="A38" t="s">
+        <v>434</v>
+      </c>
+      <c r="B38" t="s">
+        <v>435</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" t="s">
         <v>437</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="F38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" t="s">
         <v>438</v>
       </c>
-      <c r="D38" t="s">
-        <v>114</v>
-      </c>
-      <c r="E38" t="s">
-        <v>439</v>
-      </c>
-      <c r="F38" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" t="s">
-        <v>440</v>
-      </c>
       <c r="H38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L38" s="2">
         <v>42905</v>
       </c>
       <c r="M38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N38" t="s">
         <v>17</v>
       </c>
       <c r="O38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q38" t="s">
+        <v>439</v>
+      </c>
+      <c r="R38" t="s">
+        <v>440</v>
+      </c>
+      <c r="S38" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="R38" t="s">
-        <v>442</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="T38" s="2">
         <v>42968</v>
       </c>
       <c r="U38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V38" t="s">
+        <v>442</v>
+      </c>
+      <c r="W38" t="s">
+        <v>29</v>
+      </c>
+      <c r="X38" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y38" t="s">
         <v>444</v>
       </c>
-      <c r="W38" t="s">
-        <v>30</v>
-      </c>
-      <c r="X38" t="s">
+      <c r="Z38" t="s">
         <v>445</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>446</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="409.6">
       <c r="A39" t="s">
+        <v>446</v>
+      </c>
+      <c r="B39" t="s">
+        <v>447</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" t="s">
         <v>449</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="F39" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" t="s">
         <v>450</v>
       </c>
-      <c r="D39" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" t="s">
-        <v>451</v>
-      </c>
-      <c r="F39" t="s">
-        <v>31</v>
-      </c>
-      <c r="G39" t="s">
-        <v>452</v>
-      </c>
       <c r="H39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L39" s="2">
         <v>42873</v>
       </c>
       <c r="M39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N39" t="s">
         <v>17</v>
       </c>
       <c r="O39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q39" t="s">
+        <v>49</v>
+      </c>
+      <c r="R39" t="s">
         <v>50</v>
       </c>
-      <c r="R39" t="s">
-        <v>51</v>
-      </c>
       <c r="S39" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="T39" s="2">
         <v>42933</v>
       </c>
       <c r="U39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V39" t="s">
+        <v>452</v>
+      </c>
+      <c r="W39" t="s">
+        <v>453</v>
+      </c>
+      <c r="X39" t="s">
         <v>454</v>
       </c>
-      <c r="W39" t="s">
+      <c r="Y39" t="s">
         <v>455</v>
       </c>
-      <c r="X39" t="s">
-        <v>456</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>457</v>
-      </c>
       <c r="Z39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="409.6">
       <c r="A40" t="s">
+        <v>456</v>
+      </c>
+      <c r="B40" t="s">
+        <v>457</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" t="s">
         <v>459</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="F40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" t="s">
+        <v>71</v>
+      </c>
+      <c r="H40" t="s">
         <v>460</v>
       </c>
-      <c r="D40" t="s">
-        <v>114</v>
-      </c>
-      <c r="E40" t="s">
-        <v>461</v>
-      </c>
-      <c r="F40" t="s">
-        <v>31</v>
-      </c>
-      <c r="G40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H40" t="s">
-        <v>462</v>
-      </c>
       <c r="I40" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L40" s="2">
         <v>42866</v>
       </c>
       <c r="M40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N40" t="s">
         <v>17</v>
       </c>
       <c r="O40" t="s">
+        <v>461</v>
+      </c>
+      <c r="P40" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>462</v>
+      </c>
+      <c r="R40" t="s">
         <v>463</v>
       </c>
-      <c r="P40" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q40" t="s">
+      <c r="S40" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="R40" t="s">
-        <v>465</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="T40" s="2">
         <v>42938</v>
       </c>
       <c r="U40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V40" t="s">
+        <v>465</v>
+      </c>
+      <c r="W40" t="s">
+        <v>29</v>
+      </c>
+      <c r="X40" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y40" t="s">
         <v>467</v>
       </c>
-      <c r="W40" t="s">
-        <v>30</v>
-      </c>
-      <c r="X40" t="s">
+      <c r="Z40" t="s">
         <v>468</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>469</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="409.6">
       <c r="A41" t="s">
+        <v>469</v>
+      </c>
+      <c r="B41" t="s">
+        <v>470</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" t="s">
         <v>472</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="D41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" t="s">
-        <v>102</v>
-      </c>
-      <c r="F41" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41" t="s">
-        <v>474</v>
-      </c>
       <c r="H41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L41" s="2">
         <v>42885</v>
       </c>
       <c r="M41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N41" t="s">
         <v>17</v>
       </c>
       <c r="O41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q41" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="R41" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="S41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T41" s="2">
         <v>42893</v>
       </c>
       <c r="U41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V41" t="s">
+        <v>158</v>
+      </c>
+      <c r="W41" t="s">
+        <v>29</v>
+      </c>
+      <c r="X41" t="s">
         <v>159</v>
       </c>
-      <c r="W41" t="s">
-        <v>30</v>
-      </c>
-      <c r="X41" t="s">
-        <v>160</v>
-      </c>
       <c r="Y41" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="Z41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="409.6">
       <c r="A42" t="s">
+        <v>475</v>
+      </c>
+      <c r="B42" t="s">
+        <v>476</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B42" t="s">
+      <c r="D42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" t="s">
         <v>478</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="F42" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" t="s">
         <v>479</v>
       </c>
-      <c r="D42" t="s">
-        <v>29</v>
-      </c>
-      <c r="E42" t="s">
-        <v>480</v>
-      </c>
-      <c r="F42" t="s">
-        <v>31</v>
-      </c>
-      <c r="G42" t="s">
-        <v>481</v>
-      </c>
       <c r="H42" t="s">
+        <v>128</v>
+      </c>
+      <c r="I42" t="s">
         <v>129</v>
       </c>
-      <c r="I42" t="s">
-        <v>130</v>
-      </c>
       <c r="J42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L42" s="2">
         <v>42891</v>
       </c>
       <c r="M42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N42" t="s">
         <v>17</v>
       </c>
       <c r="O42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q42" t="s">
+        <v>480</v>
+      </c>
+      <c r="R42" t="s">
+        <v>481</v>
+      </c>
+      <c r="S42" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="R42" t="s">
-        <v>483</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="T42" s="2">
         <v>42948</v>
       </c>
       <c r="U42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V42" t="s">
+        <v>483</v>
+      </c>
+      <c r="W42" t="s">
+        <v>29</v>
+      </c>
+      <c r="X42" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y42" t="s">
         <v>485</v>
       </c>
-      <c r="W42" t="s">
-        <v>30</v>
-      </c>
-      <c r="X42" t="s">
+      <c r="Z42" t="s">
         <v>486</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>487</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="409.6">
       <c r="A43" t="s">
+        <v>487</v>
+      </c>
+      <c r="B43" t="s">
+        <v>488</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B43" t="s">
+      <c r="D43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" t="s">
         <v>490</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="D43" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" t="s">
-        <v>492</v>
-      </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H43" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I43" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L43" s="2">
         <v>42899</v>
       </c>
       <c r="M43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N43" t="s">
         <v>17</v>
       </c>
       <c r="O43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q43" t="s">
+        <v>491</v>
+      </c>
+      <c r="R43" t="s">
+        <v>492</v>
+      </c>
+      <c r="S43" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="R43" t="s">
-        <v>494</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>495</v>
       </c>
       <c r="T43" s="2">
         <v>42943</v>
       </c>
       <c r="U43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V43" t="s">
+        <v>494</v>
+      </c>
+      <c r="W43" t="s">
+        <v>29</v>
+      </c>
+      <c r="X43" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y43" t="s">
         <v>496</v>
       </c>
-      <c r="W43" t="s">
-        <v>30</v>
-      </c>
-      <c r="X43" t="s">
+      <c r="Z43" t="s">
         <v>497</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>498</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="409.6">
       <c r="A44" t="s">
+        <v>498</v>
+      </c>
+      <c r="B44" t="s">
+        <v>499</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B44" t="s">
+      <c r="D44" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" t="s">
+        <v>200</v>
+      </c>
+      <c r="H44" t="s">
         <v>501</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="I44" t="s">
+        <v>73</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="D44" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" t="s">
-        <v>30</v>
-      </c>
-      <c r="F44" t="s">
-        <v>31</v>
-      </c>
-      <c r="G44" t="s">
-        <v>201</v>
-      </c>
-      <c r="H44" t="s">
-        <v>503</v>
-      </c>
-      <c r="I44" t="s">
-        <v>74</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>504</v>
-      </c>
       <c r="K44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L44" s="2">
         <v>42929</v>
       </c>
       <c r="M44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N44" t="s">
         <v>17</v>
       </c>
       <c r="O44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q44" t="s">
+        <v>503</v>
+      </c>
+      <c r="R44" t="s">
+        <v>504</v>
+      </c>
+      <c r="S44" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="R44" t="s">
-        <v>506</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>507</v>
       </c>
       <c r="T44" s="2">
         <v>42964</v>
       </c>
       <c r="U44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V44" t="s">
+        <v>506</v>
+      </c>
+      <c r="W44" t="s">
+        <v>29</v>
+      </c>
+      <c r="X44" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y44" t="s">
         <v>508</v>
       </c>
-      <c r="W44" t="s">
-        <v>30</v>
-      </c>
-      <c r="X44" t="s">
-        <v>509</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>510</v>
-      </c>
       <c r="Z44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="409.6">
       <c r="A45" t="s">
+        <v>509</v>
+      </c>
+      <c r="B45" t="s">
+        <v>510</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B45" t="s">
+      <c r="D45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" t="s">
         <v>512</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="F45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" t="s">
+        <v>200</v>
+      </c>
+      <c r="H45" t="s">
+        <v>460</v>
+      </c>
+      <c r="I45" t="s">
         <v>513</v>
       </c>
-      <c r="D45" t="s">
-        <v>29</v>
-      </c>
-      <c r="E45" t="s">
-        <v>514</v>
-      </c>
-      <c r="F45" t="s">
-        <v>31</v>
-      </c>
-      <c r="G45" t="s">
-        <v>201</v>
-      </c>
-      <c r="H45" t="s">
-        <v>462</v>
-      </c>
-      <c r="I45" t="s">
-        <v>515</v>
-      </c>
       <c r="J45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L45" s="2">
         <v>42900</v>
       </c>
       <c r="M45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N45" t="s">
         <v>17</v>
       </c>
       <c r="O45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="R45" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="T45" s="2">
         <v>42937</v>
       </c>
       <c r="U45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V45" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="W45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y45" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="Z45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="409.6">
       <c r="A46" t="s">
+        <v>518</v>
+      </c>
+      <c r="B46" t="s">
+        <v>519</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" t="s">
         <v>521</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="F46" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" t="s">
         <v>522</v>
       </c>
-      <c r="D46" t="s">
-        <v>29</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="H46" t="s">
         <v>523</v>
       </c>
-      <c r="F46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="I46" t="s">
         <v>524</v>
       </c>
-      <c r="H46" t="s">
-        <v>525</v>
-      </c>
-      <c r="I46" t="s">
-        <v>526</v>
-      </c>
       <c r="J46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L46" s="2">
         <v>42983</v>
       </c>
       <c r="M46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N46" t="s">
         <v>17</v>
       </c>
       <c r="O46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q46" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="R46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="T46" s="2">
         <v>42992</v>
       </c>
       <c r="U46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X46" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>528</v>
+      </c>
+      <c r="Z46" t="s">
         <v>529</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>530</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="409.6">
       <c r="A47" t="s">
+        <v>530</v>
+      </c>
+      <c r="B47" t="s">
+        <v>531</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" t="s">
+        <v>363</v>
+      </c>
+      <c r="H47" t="s">
         <v>533</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="D47" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" t="s">
-        <v>127</v>
-      </c>
-      <c r="F47" t="s">
-        <v>31</v>
-      </c>
-      <c r="G47" t="s">
-        <v>365</v>
-      </c>
-      <c r="H47" t="s">
-        <v>535</v>
-      </c>
       <c r="I47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J47" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L47" s="2">
         <v>42874</v>
       </c>
       <c r="M47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N47" t="s">
         <v>17</v>
       </c>
       <c r="O47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q47" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="R47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="T47" s="2">
         <v>42885</v>
       </c>
       <c r="U47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W47" t="s">
+        <v>536</v>
+      </c>
+      <c r="X47" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y47" t="s">
         <v>538</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Z47" t="s">
         <v>539</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>540</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="409.6">
       <c r="A48" t="s">
+        <v>540</v>
+      </c>
+      <c r="B48" t="s">
+        <v>541</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" t="s">
         <v>543</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="D48" t="s">
-        <v>114</v>
-      </c>
-      <c r="E48" t="s">
-        <v>545</v>
-      </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H48" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J48" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L48" s="2">
         <v>42879</v>
       </c>
       <c r="M48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N48" t="s">
         <v>17</v>
       </c>
       <c r="O48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q48" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="R48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="T48" s="2">
         <v>42891</v>
       </c>
       <c r="U48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V48" t="s">
+        <v>545</v>
+      </c>
+      <c r="W48" t="s">
+        <v>29</v>
+      </c>
+      <c r="X48" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y48" t="s">
         <v>547</v>
       </c>
-      <c r="W48" t="s">
-        <v>30</v>
-      </c>
-      <c r="X48" t="s">
+      <c r="Z48" t="s">
         <v>548</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>549</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="49" spans="1:26" ht="409.6">
       <c r="A49" t="s">
+        <v>549</v>
+      </c>
+      <c r="B49" t="s">
+        <v>550</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" t="s">
         <v>552</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="D49" t="s">
-        <v>29</v>
-      </c>
-      <c r="E49" t="s">
-        <v>554</v>
-      </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H49" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I49" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L49" s="2">
         <v>42871</v>
       </c>
       <c r="M49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N49" t="s">
         <v>17</v>
       </c>
       <c r="O49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q49" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="R49" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="T49" s="2">
         <v>42891</v>
       </c>
       <c r="U49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V49" t="s">
+        <v>554</v>
+      </c>
+      <c r="W49" t="s">
+        <v>29</v>
+      </c>
+      <c r="X49" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y49" t="s">
         <v>556</v>
       </c>
-      <c r="W49" t="s">
-        <v>30</v>
-      </c>
-      <c r="X49" t="s">
+      <c r="Z49" t="s">
         <v>557</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>558</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="50" spans="1:26" ht="409.6">
       <c r="A50" t="s">
+        <v>558</v>
+      </c>
+      <c r="B50" t="s">
+        <v>559</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50" t="s">
         <v>561</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="D50" t="s">
-        <v>114</v>
-      </c>
-      <c r="E50" t="s">
-        <v>563</v>
-      </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H50" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I50" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L50" s="2">
         <v>42871</v>
       </c>
       <c r="M50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N50" t="s">
         <v>17</v>
       </c>
       <c r="O50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q50" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="R50" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="T50" s="2">
         <v>42888</v>
       </c>
       <c r="U50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V50" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="W50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X50" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>380</v>
+      </c>
+      <c r="Z50" t="s">
         <v>381</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>382</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="409.6">
       <c r="A51" t="s">
+        <v>564</v>
+      </c>
+      <c r="B51" t="s">
+        <v>565</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" t="s">
         <v>567</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D51" t="s">
-        <v>29</v>
-      </c>
-      <c r="E51" t="s">
-        <v>569</v>
-      </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H51" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L51" s="2">
         <v>42874</v>
       </c>
       <c r="M51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N51" t="s">
         <v>17</v>
       </c>
       <c r="O51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="T51" s="2">
         <v>42885</v>
       </c>
       <c r="U51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V51" t="s">
+        <v>569</v>
+      </c>
+      <c r="W51" t="s">
+        <v>570</v>
+      </c>
+      <c r="X51" t="s">
         <v>571</v>
       </c>
-      <c r="W51" t="s">
+      <c r="Y51" t="s">
         <v>572</v>
       </c>
-      <c r="X51" t="s">
-        <v>573</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>574</v>
-      </c>
       <c r="Z51" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="409.6">
       <c r="A52" t="s">
+        <v>573</v>
+      </c>
+      <c r="B52" t="s">
+        <v>574</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="B52" t="s">
-        <v>576</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>577</v>
-      </c>
       <c r="D52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E52" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H52" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L52" s="2">
         <v>42874</v>
       </c>
       <c r="M52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N52" t="s">
         <v>17</v>
       </c>
       <c r="O52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q52" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="R52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T52" s="2">
         <v>42900</v>
       </c>
       <c r="U52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V52" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="W52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Y52" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="Z52" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:26" ht="409.6">
       <c r="A53" t="s">
+        <v>580</v>
+      </c>
+      <c r="B53" t="s">
+        <v>581</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B53" t="s">
+      <c r="D53" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" t="s">
         <v>583</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="D53" t="s">
-        <v>29</v>
-      </c>
-      <c r="E53" t="s">
-        <v>585</v>
-      </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H53" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I53" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L53" s="2">
         <v>42879</v>
       </c>
       <c r="M53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N53" t="s">
         <v>17</v>
       </c>
       <c r="O53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q53" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="T53" s="2">
         <v>42906</v>
       </c>
       <c r="U53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V53" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="W53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y53" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="Z53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="409.6">
       <c r="A54" t="s">
+        <v>587</v>
+      </c>
+      <c r="B54" t="s">
+        <v>588</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="B54" t="s">
-        <v>590</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>591</v>
-      </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L54" s="2">
         <v>42969</v>
       </c>
       <c r="M54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N54" t="s">
         <v>17</v>
       </c>
       <c r="O54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q54" t="s">
+        <v>590</v>
+      </c>
+      <c r="R54" t="s">
+        <v>591</v>
+      </c>
+      <c r="S54" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="R54" t="s">
-        <v>593</v>
-      </c>
-      <c r="S54" s="1" t="s">
-        <v>594</v>
       </c>
       <c r="T54" s="2">
         <v>42975</v>
       </c>
       <c r="U54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V54" t="s">
+        <v>593</v>
+      </c>
+      <c r="W54" t="s">
+        <v>29</v>
+      </c>
+      <c r="X54" t="s">
+        <v>594</v>
+      </c>
+      <c r="Y54" t="s">
         <v>595</v>
       </c>
-      <c r="W54" t="s">
-        <v>30</v>
-      </c>
-      <c r="X54" t="s">
-        <v>596</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>597</v>
-      </c>
       <c r="Z54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:26" ht="409.6">
       <c r="A55" t="s">
+        <v>596</v>
+      </c>
+      <c r="B55" t="s">
+        <v>597</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B55" t="s">
+      <c r="D55" t="s">
+        <v>164</v>
+      </c>
+      <c r="E55" t="s">
         <v>599</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="D55" t="s">
-        <v>165</v>
-      </c>
-      <c r="E55" t="s">
-        <v>601</v>
-      </c>
       <c r="F55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G55" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H55" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L55" s="2">
         <v>42902</v>
       </c>
       <c r="M55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N55" t="s">
         <v>17</v>
       </c>
       <c r="O55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R55" t="s">
+        <v>600</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="T55" t="s">
+        <v>29</v>
+      </c>
+      <c r="U55" t="s">
+        <v>29</v>
+      </c>
+      <c r="V55" t="s">
         <v>602</v>
       </c>
-      <c r="S55" s="1" t="s">
+      <c r="W55" t="s">
+        <v>29</v>
+      </c>
+      <c r="X55" t="s">
         <v>603</v>
       </c>
-      <c r="T55" t="s">
-        <v>30</v>
-      </c>
-      <c r="U55" t="s">
-        <v>30</v>
-      </c>
-      <c r="V55" t="s">
+      <c r="Y55" t="s">
         <v>604</v>
       </c>
-      <c r="W55" t="s">
-        <v>30</v>
-      </c>
-      <c r="X55" t="s">
+      <c r="Z55" t="s">
         <v>605</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>606</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="409.6">
       <c r="A56" t="s">
+        <v>606</v>
+      </c>
+      <c r="B56" t="s">
+        <v>607</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="B56" t="s">
+      <c r="D56" t="s">
+        <v>113</v>
+      </c>
+      <c r="E56" t="s">
         <v>609</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="F56" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56" t="s">
+        <v>325</v>
+      </c>
+      <c r="H56" t="s">
         <v>610</v>
       </c>
-      <c r="D56" t="s">
-        <v>114</v>
-      </c>
-      <c r="E56" t="s">
-        <v>611</v>
-      </c>
-      <c r="F56" t="s">
-        <v>31</v>
-      </c>
-      <c r="G56" t="s">
-        <v>326</v>
-      </c>
-      <c r="H56" t="s">
-        <v>612</v>
-      </c>
       <c r="I56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L56" s="2">
         <v>42877</v>
       </c>
       <c r="M56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N56" t="s">
         <v>17</v>
       </c>
       <c r="O56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q56" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R56" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="T56" s="2">
         <v>42894</v>
       </c>
       <c r="U56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X56" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="Y56" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="Z56" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="409.6">
       <c r="A57" t="s">
+        <v>615</v>
+      </c>
+      <c r="B57" t="s">
+        <v>616</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="B57" t="s">
+      <c r="D57" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" t="s">
         <v>618</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="F57" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" t="s">
+        <v>71</v>
+      </c>
+      <c r="H57" t="s">
         <v>619</v>
       </c>
-      <c r="D57" t="s">
-        <v>29</v>
-      </c>
-      <c r="E57" t="s">
-        <v>620</v>
-      </c>
-      <c r="F57" t="s">
-        <v>31</v>
-      </c>
-      <c r="G57" t="s">
-        <v>72</v>
-      </c>
-      <c r="H57" t="s">
-        <v>621</v>
-      </c>
       <c r="I57" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L57" s="2">
         <v>42887</v>
       </c>
       <c r="M57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N57" t="s">
         <v>17</v>
       </c>
       <c r="O57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q57" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="T57" s="2">
         <v>42936</v>
       </c>
       <c r="U57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V57" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="W57" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="X57" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y57" t="s">
         <v>279</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>280</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="58" spans="1:26" ht="409.6">
       <c r="A58" t="s">
+        <v>623</v>
+      </c>
+      <c r="B58" t="s">
+        <v>624</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="B58" t="s">
+      <c r="D58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" t="s">
         <v>626</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="F58" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58" t="s">
         <v>627</v>
       </c>
-      <c r="D58" t="s">
-        <v>29</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="H58" t="s">
+        <v>533</v>
+      </c>
+      <c r="I58" t="s">
+        <v>48</v>
+      </c>
+      <c r="J58" t="s">
         <v>628</v>
       </c>
-      <c r="F58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G58" t="s">
-        <v>629</v>
-      </c>
-      <c r="H58" t="s">
-        <v>535</v>
-      </c>
-      <c r="I58" t="s">
-        <v>49</v>
-      </c>
-      <c r="J58" t="s">
-        <v>630</v>
-      </c>
       <c r="K58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L58" s="2">
         <v>42874</v>
       </c>
       <c r="M58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N58" t="s">
         <v>17</v>
       </c>
       <c r="O58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q58" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="R58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="T58" s="2">
         <v>42921</v>
       </c>
       <c r="U58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V58" t="s">
+        <v>631</v>
+      </c>
+      <c r="W58" t="s">
+        <v>632</v>
+      </c>
+      <c r="X58" t="s">
         <v>633</v>
       </c>
-      <c r="W58" t="s">
+      <c r="Y58" t="s">
         <v>634</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Z58" t="s">
         <v>635</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>636</v>
-      </c>
-      <c r="Z58" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="409.6">
       <c r="A59" t="s">
+        <v>636</v>
+      </c>
+      <c r="B59" t="s">
+        <v>637</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="B59" t="s">
+      <c r="D59" t="s">
+        <v>113</v>
+      </c>
+      <c r="E59" t="s">
         <v>639</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="F59" t="s">
+        <v>30</v>
+      </c>
+      <c r="G59" t="s">
+        <v>200</v>
+      </c>
+      <c r="H59" t="s">
+        <v>251</v>
+      </c>
+      <c r="I59" t="s">
         <v>640</v>
       </c>
-      <c r="D59" t="s">
-        <v>114</v>
-      </c>
-      <c r="E59" t="s">
-        <v>641</v>
-      </c>
-      <c r="F59" t="s">
-        <v>31</v>
-      </c>
-      <c r="G59" t="s">
-        <v>201</v>
-      </c>
-      <c r="H59" t="s">
-        <v>252</v>
-      </c>
-      <c r="I59" t="s">
-        <v>642</v>
-      </c>
       <c r="J59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L59" s="2">
         <v>42919</v>
       </c>
       <c r="M59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N59" t="s">
         <v>17</v>
       </c>
       <c r="O59" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="P59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q59" t="s">
+        <v>641</v>
+      </c>
+      <c r="R59" t="s">
+        <v>642</v>
+      </c>
+      <c r="S59" s="1" t="s">
         <v>643</v>
-      </c>
-      <c r="R59" t="s">
-        <v>644</v>
-      </c>
-      <c r="S59" s="1" t="s">
-        <v>645</v>
       </c>
       <c r="T59" s="2">
         <v>42975</v>
       </c>
       <c r="U59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X59" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="Y59" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="Z59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="409.6">
       <c r="A60" t="s">
+        <v>646</v>
+      </c>
+      <c r="B60" t="s">
+        <v>647</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B60" t="s">
-        <v>649</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>650</v>
-      </c>
       <c r="D60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H60" t="s">
+        <v>336</v>
+      </c>
+      <c r="I60" t="s">
         <v>337</v>
       </c>
-      <c r="I60" t="s">
-        <v>338</v>
-      </c>
       <c r="J60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L60" s="2">
         <v>42895</v>
       </c>
       <c r="M60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N60" t="s">
         <v>17</v>
       </c>
       <c r="O60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q60" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R60" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="T60" s="2">
         <v>42963</v>
       </c>
       <c r="U60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V60" t="s">
+        <v>651</v>
+      </c>
+      <c r="W60" t="s">
+        <v>29</v>
+      </c>
+      <c r="X60" t="s">
+        <v>652</v>
+      </c>
+      <c r="Y60" t="s">
         <v>653</v>
       </c>
-      <c r="W60" t="s">
-        <v>30</v>
-      </c>
-      <c r="X60" t="s">
-        <v>654</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>655</v>
-      </c>
       <c r="Z60" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:26" ht="409.6">
       <c r="A61" t="s">
+        <v>654</v>
+      </c>
+      <c r="B61" t="s">
+        <v>655</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="D61" t="s">
+        <v>113</v>
+      </c>
+      <c r="E61" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61" t="s">
+        <v>152</v>
+      </c>
+      <c r="H61" t="s">
         <v>656</v>
       </c>
-      <c r="B61" t="s">
+      <c r="I61" t="s">
+        <v>104</v>
+      </c>
+      <c r="J61" t="s">
         <v>657</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D61" t="s">
-        <v>114</v>
-      </c>
-      <c r="E61" t="s">
-        <v>30</v>
-      </c>
-      <c r="F61" t="s">
-        <v>31</v>
-      </c>
-      <c r="G61" t="s">
-        <v>153</v>
-      </c>
-      <c r="H61" t="s">
-        <v>659</v>
-      </c>
-      <c r="I61" t="s">
-        <v>105</v>
-      </c>
-      <c r="J61" t="s">
-        <v>660</v>
-      </c>
       <c r="K61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L61" s="2">
         <v>42887</v>
       </c>
       <c r="M61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N61" t="s">
         <v>17</v>
       </c>
       <c r="O61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q61" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="R61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T61" s="2">
         <v>42887</v>
       </c>
       <c r="U61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X61" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y61" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="Z61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:26" ht="409.6">
       <c r="A62" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B62" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E62" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H62" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L62" s="2">
         <v>42878</v>
       </c>
       <c r="M62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N62" t="s">
         <v>17</v>
       </c>
       <c r="O62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q62" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="R62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="T62" s="2">
         <v>42936</v>
       </c>
       <c r="U62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X62" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y62" t="s">
         <v>288</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>289</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="63" spans="1:26" ht="409.6">
       <c r="A63" t="s">
+        <v>665</v>
+      </c>
+      <c r="B63" t="s">
+        <v>666</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D63" t="s">
+        <v>164</v>
+      </c>
+      <c r="E63" t="s">
         <v>668</v>
       </c>
-      <c r="B63" t="s">
+      <c r="F63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63" t="s">
+        <v>294</v>
+      </c>
+      <c r="H63" t="s">
         <v>669</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="I63" t="s">
         <v>670</v>
       </c>
-      <c r="D63" t="s">
-        <v>165</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="J63" t="s">
         <v>671</v>
       </c>
-      <c r="F63" t="s">
-        <v>31</v>
-      </c>
-      <c r="G63" t="s">
-        <v>295</v>
-      </c>
-      <c r="H63" t="s">
-        <v>672</v>
-      </c>
-      <c r="I63" t="s">
-        <v>673</v>
-      </c>
-      <c r="J63" t="s">
-        <v>674</v>
-      </c>
       <c r="K63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L63" s="2">
         <v>42887</v>
       </c>
       <c r="M63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N63" t="s">
         <v>17</v>
       </c>
       <c r="O63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q63" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="R63" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="S63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T63" s="2">
         <v>42944</v>
       </c>
       <c r="U63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V63" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="W63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X63" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y63" t="s">
         <v>303</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>304</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="64" spans="1:26" ht="409.6">
       <c r="A64" t="s">
+        <v>674</v>
+      </c>
+      <c r="B64" t="s">
+        <v>675</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D64" t="s">
+        <v>164</v>
+      </c>
+      <c r="E64" t="s">
         <v>677</v>
       </c>
-      <c r="B64" t="s">
+      <c r="F64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" t="s">
         <v>678</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="H64" t="s">
         <v>679</v>
       </c>
-      <c r="D64" t="s">
-        <v>165</v>
-      </c>
-      <c r="E64" t="s">
-        <v>680</v>
-      </c>
-      <c r="F64" t="s">
-        <v>31</v>
-      </c>
-      <c r="G64" t="s">
-        <v>681</v>
-      </c>
-      <c r="H64" t="s">
-        <v>682</v>
-      </c>
       <c r="I64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L64" s="2">
         <v>42879</v>
       </c>
       <c r="M64" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N64" t="s">
         <v>17</v>
       </c>
       <c r="O64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q64" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="R64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="T64" s="2">
         <v>42901</v>
       </c>
       <c r="U64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V64" t="s">
+        <v>682</v>
+      </c>
+      <c r="W64" t="s">
+        <v>29</v>
+      </c>
+      <c r="X64" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>684</v>
+      </c>
+      <c r="Z64" t="s">
         <v>685</v>
-      </c>
-      <c r="W64" t="s">
-        <v>30</v>
-      </c>
-      <c r="X64" t="s">
-        <v>686</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>687</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="65" spans="1:26" ht="409.6">
       <c r="A65" t="s">
+        <v>686</v>
+      </c>
+      <c r="B65" t="s">
+        <v>687</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="D65" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" t="s">
         <v>689</v>
       </c>
-      <c r="B65" t="s">
-        <v>690</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="D65" t="s">
-        <v>29</v>
-      </c>
-      <c r="E65" t="s">
-        <v>692</v>
-      </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H65" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="I65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L65" s="2">
         <v>42879</v>
       </c>
       <c r="M65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N65" t="s">
         <v>17</v>
       </c>
       <c r="O65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q65" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="R65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="T65" s="2">
         <v>42895</v>
       </c>
       <c r="U65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V65" t="s">
+        <v>692</v>
+      </c>
+      <c r="W65" t="s">
+        <v>29</v>
+      </c>
+      <c r="X65" t="s">
+        <v>693</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>694</v>
+      </c>
+      <c r="Z65" t="s">
         <v>695</v>
-      </c>
-      <c r="W65" t="s">
-        <v>30</v>
-      </c>
-      <c r="X65" t="s">
-        <v>696</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>697</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="66" spans="1:26" ht="409.6">
       <c r="A66" t="s">
+        <v>696</v>
+      </c>
+      <c r="B66" t="s">
+        <v>697</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D66" t="s">
+        <v>113</v>
+      </c>
+      <c r="E66" t="s">
         <v>699</v>
       </c>
-      <c r="B66" t="s">
+      <c r="F66" t="s">
+        <v>30</v>
+      </c>
+      <c r="G66" t="s">
         <v>700</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="D66" t="s">
-        <v>114</v>
-      </c>
-      <c r="E66" t="s">
-        <v>702</v>
-      </c>
-      <c r="F66" t="s">
-        <v>31</v>
-      </c>
-      <c r="G66" t="s">
-        <v>703</v>
-      </c>
       <c r="H66" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L66" s="2">
         <v>42886</v>
       </c>
       <c r="M66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N66" t="s">
         <v>17</v>
       </c>
       <c r="O66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q66" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="R66" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="T66" s="2">
         <v>42923</v>
       </c>
       <c r="U66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V66" t="s">
+        <v>704</v>
+      </c>
+      <c r="W66" t="s">
+        <v>29</v>
+      </c>
+      <c r="X66" t="s">
+        <v>705</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>706</v>
+      </c>
+      <c r="Z66" t="s">
         <v>707</v>
-      </c>
-      <c r="W66" t="s">
-        <v>30</v>
-      </c>
-      <c r="X66" t="s">
-        <v>708</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>709</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="67" spans="1:26" ht="409.6">
       <c r="A67" t="s">
+        <v>708</v>
+      </c>
+      <c r="B67" t="s">
+        <v>709</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D67" t="s">
+        <v>164</v>
+      </c>
+      <c r="E67" t="s">
         <v>711</v>
       </c>
-      <c r="B67" t="s">
+      <c r="F67" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" t="s">
+        <v>59</v>
+      </c>
+      <c r="H67" t="s">
+        <v>166</v>
+      </c>
+      <c r="I67" t="s">
+        <v>115</v>
+      </c>
+      <c r="J67" t="s">
         <v>712</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="D67" t="s">
-        <v>165</v>
-      </c>
-      <c r="E67" t="s">
-        <v>714</v>
-      </c>
-      <c r="F67" t="s">
-        <v>31</v>
-      </c>
-      <c r="G67" t="s">
-        <v>60</v>
-      </c>
-      <c r="H67" t="s">
-        <v>167</v>
-      </c>
-      <c r="I67" t="s">
-        <v>116</v>
-      </c>
-      <c r="J67" t="s">
-        <v>715</v>
-      </c>
       <c r="K67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L67" s="2">
         <v>42915</v>
       </c>
       <c r="M67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N67" t="s">
         <v>17</v>
       </c>
       <c r="O67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q67" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="R67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="T67" s="2">
         <v>42921</v>
       </c>
       <c r="U67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V67" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="W67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X67" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y67" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="Z67" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="68" spans="1:26" ht="409.6">
       <c r="A68" t="s">
+        <v>717</v>
+      </c>
+      <c r="B68" t="s">
+        <v>718</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="D68" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" t="s">
+        <v>114</v>
+      </c>
+      <c r="F68" t="s">
+        <v>30</v>
+      </c>
+      <c r="G68" t="s">
+        <v>396</v>
+      </c>
+      <c r="H68" t="s">
         <v>720</v>
       </c>
-      <c r="B68" t="s">
+      <c r="I68" t="s">
         <v>721</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="D68" t="s">
-        <v>29</v>
-      </c>
-      <c r="E68" t="s">
-        <v>115</v>
-      </c>
-      <c r="F68" t="s">
-        <v>31</v>
-      </c>
-      <c r="G68" t="s">
-        <v>398</v>
-      </c>
-      <c r="H68" t="s">
-        <v>723</v>
-      </c>
-      <c r="I68" t="s">
-        <v>724</v>
-      </c>
       <c r="J68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L68" s="2">
         <v>42900</v>
       </c>
       <c r="M68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N68" t="s">
         <v>17</v>
       </c>
       <c r="O68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q68" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="R68" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="T68" s="2">
         <v>42920</v>
       </c>
       <c r="U68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V68" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="W68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y68" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="Z68" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:26" ht="409.6">
       <c r="A69" t="s">
+        <v>726</v>
+      </c>
+      <c r="B69" t="s">
+        <v>727</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="D69" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" t="s">
         <v>729</v>
       </c>
-      <c r="B69" t="s">
+      <c r="F69" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69" t="s">
         <v>730</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="H69" t="s">
         <v>731</v>
       </c>
-      <c r="D69" t="s">
-        <v>29</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="I69" t="s">
+        <v>48</v>
+      </c>
+      <c r="J69" t="s">
         <v>732</v>
       </c>
-      <c r="F69" t="s">
-        <v>31</v>
-      </c>
-      <c r="G69" t="s">
-        <v>733</v>
-      </c>
-      <c r="H69" t="s">
-        <v>734</v>
-      </c>
-      <c r="I69" t="s">
-        <v>49</v>
-      </c>
-      <c r="J69" t="s">
-        <v>735</v>
-      </c>
       <c r="K69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L69" s="2">
         <v>42894</v>
       </c>
       <c r="M69" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N69" t="s">
         <v>17</v>
       </c>
       <c r="O69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q69" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="R69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="T69" s="2">
         <v>42938</v>
       </c>
       <c r="U69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V69" t="s">
+        <v>734</v>
+      </c>
+      <c r="W69" t="s">
+        <v>735</v>
+      </c>
+      <c r="X69" t="s">
+        <v>736</v>
+      </c>
+      <c r="Y69" t="s">
         <v>737</v>
       </c>
-      <c r="W69" t="s">
-        <v>738</v>
-      </c>
-      <c r="X69" t="s">
-        <v>739</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>740</v>
-      </c>
       <c r="Z69" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="70" spans="1:26" ht="409.6">
       <c r="A70" t="s">
+        <v>738</v>
+      </c>
+      <c r="B70" t="s">
+        <v>739</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D70" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" t="s">
         <v>741</v>
       </c>
-      <c r="B70" t="s">
+      <c r="F70" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70" t="s">
         <v>742</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="H70" t="s">
         <v>743</v>
       </c>
-      <c r="D70" t="s">
-        <v>29</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="I70" t="s">
         <v>744</v>
       </c>
-      <c r="F70" t="s">
-        <v>31</v>
-      </c>
-      <c r="G70" t="s">
-        <v>745</v>
-      </c>
-      <c r="H70" t="s">
-        <v>746</v>
-      </c>
-      <c r="I70" t="s">
-        <v>747</v>
-      </c>
       <c r="J70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L70" s="2">
         <v>42891</v>
       </c>
       <c r="M70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N70" t="s">
         <v>17</v>
       </c>
       <c r="O70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q70" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="R70" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="T70" s="2">
         <v>42916</v>
       </c>
       <c r="U70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V70" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="W70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X70" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="Y70" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="Z70" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="409.6">
       <c r="A71" t="s">
+        <v>751</v>
+      </c>
+      <c r="B71" t="s">
+        <v>752</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="D71" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" t="s">
+        <v>30</v>
+      </c>
+      <c r="G71" t="s">
+        <v>416</v>
+      </c>
+      <c r="H71" t="s">
         <v>754</v>
       </c>
-      <c r="B71" t="s">
-        <v>755</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="D71" t="s">
-        <v>29</v>
-      </c>
-      <c r="E71" t="s">
-        <v>30</v>
-      </c>
-      <c r="F71" t="s">
-        <v>31</v>
-      </c>
-      <c r="G71" t="s">
-        <v>418</v>
-      </c>
-      <c r="H71" t="s">
-        <v>757</v>
-      </c>
       <c r="I71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L71" s="2">
         <v>42902</v>
       </c>
       <c r="M71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N71" t="s">
         <v>17</v>
       </c>
       <c r="O71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q71" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="R71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="T71" s="2">
         <v>42950</v>
       </c>
       <c r="U71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V71" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="W71" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="X71" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="Y71" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="Z71" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:26" ht="409.6">
       <c r="A72" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B72" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E72" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H72" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I72" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L72" s="2">
         <v>42905</v>
       </c>
       <c r="M72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N72" t="s">
         <v>17</v>
       </c>
       <c r="O72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q72" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="R72" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="T72" s="2">
         <v>42964</v>
       </c>
       <c r="U72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V72" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="W72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X72" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="Y72" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="Z72" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="73" spans="1:26" ht="409.6">
       <c r="A73" t="s">
+        <v>767</v>
+      </c>
+      <c r="B73" t="s">
+        <v>768</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="D73" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" t="s">
+        <v>711</v>
+      </c>
+      <c r="F73" t="s">
+        <v>30</v>
+      </c>
+      <c r="G73" t="s">
         <v>770</v>
       </c>
-      <c r="B73" t="s">
-        <v>771</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="D73" t="s">
-        <v>29</v>
-      </c>
-      <c r="E73" t="s">
-        <v>714</v>
-      </c>
-      <c r="F73" t="s">
-        <v>31</v>
-      </c>
-      <c r="G73" t="s">
-        <v>773</v>
-      </c>
       <c r="H73" t="s">
+        <v>336</v>
+      </c>
+      <c r="I73" t="s">
         <v>337</v>
       </c>
-      <c r="I73" t="s">
-        <v>338</v>
-      </c>
       <c r="J73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L73" s="2">
         <v>42894</v>
       </c>
       <c r="M73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N73" t="s">
         <v>17</v>
       </c>
       <c r="O73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q73" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="R73" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="T73" s="2">
         <v>42923</v>
       </c>
       <c r="U73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V73" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="W73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y73" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="Z73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:26" ht="409.6">
       <c r="A74" t="s">
+        <v>775</v>
+      </c>
+      <c r="B74" t="s">
+        <v>776</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="D74" t="s">
+        <v>113</v>
+      </c>
+      <c r="E74" t="s">
         <v>778</v>
       </c>
-      <c r="B74" t="s">
+      <c r="F74" t="s">
+        <v>85</v>
+      </c>
+      <c r="G74" t="s">
+        <v>416</v>
+      </c>
+      <c r="H74" t="s">
         <v>779</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="D74" t="s">
-        <v>114</v>
-      </c>
-      <c r="E74" t="s">
-        <v>781</v>
-      </c>
-      <c r="F74" t="s">
-        <v>86</v>
-      </c>
-      <c r="G74" t="s">
-        <v>418</v>
-      </c>
-      <c r="H74" t="s">
-        <v>782</v>
-      </c>
       <c r="I74" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L74" s="2">
         <v>42934</v>
       </c>
       <c r="M74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N74" t="s">
         <v>17</v>
       </c>
       <c r="O74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q74" t="s">
+        <v>780</v>
+      </c>
+      <c r="R74" t="s">
+        <v>463</v>
+      </c>
+      <c r="S74" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="T74" t="s">
+        <v>29</v>
+      </c>
+      <c r="U74" t="s">
+        <v>29</v>
+      </c>
+      <c r="V74" t="s">
+        <v>782</v>
+      </c>
+      <c r="W74" t="s">
+        <v>29</v>
+      </c>
+      <c r="X74" t="s">
         <v>783</v>
       </c>
-      <c r="R74" t="s">
-        <v>465</v>
-      </c>
-      <c r="S74" s="1" t="s">
+      <c r="Y74" t="s">
         <v>784</v>
       </c>
-      <c r="T74" t="s">
-        <v>30</v>
-      </c>
-      <c r="U74" t="s">
-        <v>30</v>
-      </c>
-      <c r="V74" t="s">
+      <c r="Z74" t="s">
         <v>785</v>
-      </c>
-      <c r="W74" t="s">
-        <v>30</v>
-      </c>
-      <c r="X74" t="s">
-        <v>786</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>787</v>
-      </c>
-      <c r="Z74" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="75" spans="1:26" ht="409.6">
       <c r="A75" t="s">
+        <v>786</v>
+      </c>
+      <c r="B75" t="s">
+        <v>787</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D75" t="s">
+        <v>113</v>
+      </c>
+      <c r="E75" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" t="s">
+        <v>30</v>
+      </c>
+      <c r="G75" t="s">
+        <v>200</v>
+      </c>
+      <c r="H75" t="s">
         <v>789</v>
       </c>
-      <c r="B75" t="s">
-        <v>790</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="D75" t="s">
-        <v>114</v>
-      </c>
-      <c r="E75" t="s">
-        <v>30</v>
-      </c>
-      <c r="F75" t="s">
-        <v>31</v>
-      </c>
-      <c r="G75" t="s">
-        <v>201</v>
-      </c>
-      <c r="H75" t="s">
-        <v>792</v>
-      </c>
       <c r="I75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L75" s="2">
         <v>42903</v>
       </c>
       <c r="M75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N75" t="s">
         <v>17</v>
       </c>
       <c r="O75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q75" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="R75" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="T75" s="2">
         <v>42905</v>
       </c>
       <c r="U75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V75" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="W75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X75" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Y75" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="Z75" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="76" spans="1:26" ht="409.6">
       <c r="A76" t="s">
+        <v>794</v>
+      </c>
+      <c r="B76" t="s">
+        <v>795</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="D76" t="s">
+        <v>28</v>
+      </c>
+      <c r="E76" t="s">
+        <v>437</v>
+      </c>
+      <c r="F76" t="s">
+        <v>30</v>
+      </c>
+      <c r="G76" t="s">
+        <v>416</v>
+      </c>
+      <c r="H76" t="s">
         <v>797</v>
       </c>
-      <c r="B76" t="s">
+      <c r="I76" t="s">
         <v>798</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D76" t="s">
-        <v>29</v>
-      </c>
-      <c r="E76" t="s">
-        <v>439</v>
-      </c>
-      <c r="F76" t="s">
-        <v>31</v>
-      </c>
-      <c r="G76" t="s">
-        <v>418</v>
-      </c>
-      <c r="H76" t="s">
-        <v>800</v>
-      </c>
-      <c r="I76" t="s">
-        <v>801</v>
-      </c>
       <c r="J76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L76" s="2">
         <v>42923</v>
       </c>
       <c r="M76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N76" t="s">
         <v>17</v>
       </c>
       <c r="O76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q76" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="R76" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="T76" s="2">
         <v>42937</v>
       </c>
       <c r="U76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V76" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="W76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X76" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="Y76" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="Z76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:26" ht="409.6">
       <c r="A77" t="s">
+        <v>804</v>
+      </c>
+      <c r="B77" t="s">
+        <v>805</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="D77" t="s">
+        <v>28</v>
+      </c>
+      <c r="E77" t="s">
         <v>807</v>
       </c>
-      <c r="B77" t="s">
-        <v>808</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="D77" t="s">
-        <v>29</v>
-      </c>
-      <c r="E77" t="s">
-        <v>810</v>
-      </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H77" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L77" s="2">
         <v>42893</v>
       </c>
       <c r="M77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N77" t="s">
         <v>17</v>
       </c>
       <c r="O77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q77" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="R77" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="T77" s="2">
         <v>42955</v>
       </c>
       <c r="U77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V77" t="s">
+        <v>809</v>
+      </c>
+      <c r="W77" t="s">
+        <v>810</v>
+      </c>
+      <c r="X77" t="s">
+        <v>811</v>
+      </c>
+      <c r="Y77" t="s">
         <v>812</v>
       </c>
-      <c r="W77" t="s">
+      <c r="Z77" t="s">
         <v>813</v>
-      </c>
-      <c r="X77" t="s">
-        <v>814</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>815</v>
-      </c>
-      <c r="Z77" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="78" spans="1:26" ht="409.6">
       <c r="A78" t="s">
+        <v>814</v>
+      </c>
+      <c r="B78" t="s">
+        <v>815</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="D78" t="s">
+        <v>113</v>
+      </c>
+      <c r="E78" t="s">
         <v>817</v>
       </c>
-      <c r="B78" t="s">
+      <c r="F78" t="s">
+        <v>30</v>
+      </c>
+      <c r="G78" t="s">
+        <v>479</v>
+      </c>
+      <c r="H78" t="s">
         <v>818</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="D78" t="s">
-        <v>114</v>
-      </c>
-      <c r="E78" t="s">
-        <v>820</v>
-      </c>
-      <c r="F78" t="s">
-        <v>31</v>
-      </c>
-      <c r="G78" t="s">
-        <v>481</v>
-      </c>
-      <c r="H78" t="s">
-        <v>821</v>
-      </c>
       <c r="I78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L78" s="2">
         <v>42893</v>
       </c>
       <c r="M78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N78" t="s">
         <v>17</v>
       </c>
       <c r="O78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q78" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="R78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="T78" s="2">
         <v>42908</v>
       </c>
       <c r="U78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V78" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="W78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X78" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Y78" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="Z78" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="79" spans="1:26" ht="409.6">
       <c r="A79" t="s">
+        <v>823</v>
+      </c>
+      <c r="B79" t="s">
+        <v>824</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="D79" t="s">
+        <v>28</v>
+      </c>
+      <c r="E79" t="s">
         <v>826</v>
       </c>
-      <c r="B79" t="s">
+      <c r="F79" t="s">
+        <v>30</v>
+      </c>
+      <c r="G79" t="s">
+        <v>396</v>
+      </c>
+      <c r="H79" t="s">
         <v>827</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="D79" t="s">
-        <v>29</v>
-      </c>
-      <c r="E79" t="s">
-        <v>829</v>
-      </c>
-      <c r="F79" t="s">
-        <v>31</v>
-      </c>
-      <c r="G79" t="s">
-        <v>398</v>
-      </c>
-      <c r="H79" t="s">
-        <v>830</v>
-      </c>
       <c r="I79" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L79" s="2">
         <v>42894</v>
       </c>
       <c r="M79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N79" t="s">
         <v>17</v>
       </c>
       <c r="O79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R79" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="T79" s="2">
         <v>42908</v>
       </c>
       <c r="U79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V79" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="W79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X79" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Y79" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="Z79" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="80" spans="1:26" ht="409.6">
       <c r="A80" t="s">
+        <v>831</v>
+      </c>
+      <c r="B80" t="s">
+        <v>832</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="D80" t="s">
+        <v>113</v>
+      </c>
+      <c r="E80" t="s">
+        <v>165</v>
+      </c>
+      <c r="F80" t="s">
+        <v>85</v>
+      </c>
+      <c r="G80" t="s">
         <v>834</v>
       </c>
-      <c r="B80" t="s">
+      <c r="H80" t="s">
         <v>835</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="I80" t="s">
         <v>836</v>
       </c>
-      <c r="D80" t="s">
-        <v>114</v>
-      </c>
-      <c r="E80" t="s">
-        <v>166</v>
-      </c>
-      <c r="F80" t="s">
-        <v>86</v>
-      </c>
-      <c r="G80" t="s">
-        <v>837</v>
-      </c>
-      <c r="H80" t="s">
-        <v>838</v>
-      </c>
-      <c r="I80" t="s">
-        <v>839</v>
-      </c>
       <c r="J80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L80" s="2">
         <v>42943</v>
       </c>
       <c r="M80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N80" t="s">
         <v>17</v>
       </c>
       <c r="O80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R80" t="s">
+        <v>837</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="T80" t="s">
+        <v>29</v>
+      </c>
+      <c r="U80" t="s">
+        <v>29</v>
+      </c>
+      <c r="V80" t="s">
+        <v>593</v>
+      </c>
+      <c r="W80" t="s">
+        <v>29</v>
+      </c>
+      <c r="X80" t="s">
+        <v>839</v>
+      </c>
+      <c r="Y80" t="s">
         <v>840</v>
       </c>
-      <c r="S80" s="1" t="s">
+      <c r="Z80" t="s">
         <v>841</v>
-      </c>
-      <c r="T80" t="s">
-        <v>30</v>
-      </c>
-      <c r="U80" t="s">
-        <v>30</v>
-      </c>
-      <c r="V80" t="s">
-        <v>595</v>
-      </c>
-      <c r="W80" t="s">
-        <v>30</v>
-      </c>
-      <c r="X80" t="s">
-        <v>842</v>
-      </c>
-      <c r="Y80" t="s">
-        <v>843</v>
-      </c>
-      <c r="Z80" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="81" spans="1:26" ht="409.6">
       <c r="A81" t="s">
+        <v>842</v>
+      </c>
+      <c r="B81" t="s">
+        <v>843</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="D81" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" t="s">
+        <v>437</v>
+      </c>
+      <c r="F81" t="s">
+        <v>30</v>
+      </c>
+      <c r="G81" t="s">
         <v>845</v>
       </c>
-      <c r="B81" t="s">
+      <c r="H81" t="s">
         <v>846</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="I81" t="s">
         <v>847</v>
       </c>
-      <c r="D81" t="s">
-        <v>29</v>
-      </c>
-      <c r="E81" t="s">
-        <v>439</v>
-      </c>
-      <c r="F81" t="s">
-        <v>31</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="J81" t="s">
         <v>848</v>
       </c>
-      <c r="H81" t="s">
-        <v>849</v>
-      </c>
-      <c r="I81" t="s">
-        <v>850</v>
-      </c>
-      <c r="J81" t="s">
-        <v>851</v>
-      </c>
       <c r="K81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L81" s="2">
         <v>42927</v>
       </c>
       <c r="M81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N81" t="s">
         <v>17</v>
       </c>
       <c r="O81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q81" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="R81" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="T81" s="2">
         <v>42971</v>
       </c>
       <c r="U81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V81" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="W81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X81" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="Y81" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="Z81" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:26" ht="409.6">
       <c r="A82" t="s">
+        <v>854</v>
+      </c>
+      <c r="B82" t="s">
+        <v>855</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="D82" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" t="s">
         <v>857</v>
       </c>
-      <c r="B82" t="s">
+      <c r="F82" t="s">
+        <v>30</v>
+      </c>
+      <c r="G82" t="s">
+        <v>223</v>
+      </c>
+      <c r="H82" t="s">
         <v>858</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="D82" t="s">
-        <v>29</v>
-      </c>
-      <c r="E82" t="s">
-        <v>860</v>
-      </c>
-      <c r="F82" t="s">
-        <v>31</v>
-      </c>
-      <c r="G82" t="s">
-        <v>224</v>
-      </c>
-      <c r="H82" t="s">
-        <v>861</v>
-      </c>
       <c r="I82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L82" s="2">
         <v>42929</v>
       </c>
       <c r="M82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N82" t="s">
         <v>17</v>
       </c>
       <c r="O82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q82" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="R82" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="T82" s="2">
         <v>42944</v>
       </c>
       <c r="U82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V82" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="W82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X82" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Y82" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="Z82" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="83" spans="1:26" ht="409.6">
       <c r="A83" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B83" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E83" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H83" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J83" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L83" s="2">
         <v>42895</v>
       </c>
       <c r="M83" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N83" t="s">
         <v>17</v>
       </c>
       <c r="O83" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="Q83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="T83" s="2">
         <v>42907</v>
       </c>
       <c r="U83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V83" t="s">
+        <v>868</v>
+      </c>
+      <c r="W83" t="s">
+        <v>29</v>
+      </c>
+      <c r="X83" t="s">
+        <v>869</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>870</v>
+      </c>
+      <c r="Z83" t="s">
         <v>871</v>
-      </c>
-      <c r="W83" t="s">
-        <v>30</v>
-      </c>
-      <c r="X83" t="s">
-        <v>872</v>
-      </c>
-      <c r="Y83" t="s">
-        <v>873</v>
-      </c>
-      <c r="Z83" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="84" spans="1:26" ht="409.6">
       <c r="A84" t="s">
+        <v>872</v>
+      </c>
+      <c r="B84" t="s">
+        <v>873</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D84" t="s">
+        <v>113</v>
+      </c>
+      <c r="E84" t="s">
         <v>875</v>
       </c>
-      <c r="B84" t="s">
+      <c r="F84" t="s">
+        <v>30</v>
+      </c>
+      <c r="G84" t="s">
+        <v>263</v>
+      </c>
+      <c r="H84" t="s">
         <v>876</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="D84" t="s">
-        <v>114</v>
-      </c>
-      <c r="E84" t="s">
-        <v>878</v>
-      </c>
-      <c r="F84" t="s">
-        <v>31</v>
-      </c>
-      <c r="G84" t="s">
-        <v>264</v>
-      </c>
-      <c r="H84" t="s">
-        <v>879</v>
-      </c>
       <c r="I84" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L84" s="2">
         <v>42900</v>
       </c>
       <c r="M84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N84" t="s">
         <v>17</v>
       </c>
       <c r="O84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q84" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="R84" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="T84" s="2">
         <v>42909</v>
       </c>
       <c r="U84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V84" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="W84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Y84" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="Z84" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/uploadfolder/12_-_Copy.xlsx
+++ b/uploadfolder/12_-_Copy.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\userdata\yxian\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bullton/flask/firstflask/uploadfolder/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19240"/>
   </bookViews>
   <sheets>
     <sheet name="Pronto_Statistics_2017_09_25_04" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -285,9 +285,6 @@
 2017-03-06, SG: FL17_P7_VZEP added to Pronto Additional field, decision by FL17 PR review meeting. Not blocking FL17_P7 milestone. Restriction will be added to release note._x000D_
 2017-03-05 SG: IR send out, was just ready. Mail send to stackholder to check what we do with thsi for FL17 P7, OH or restriction or is it new feature and so VZEP; Will e soon counted _x000D_
 2017-03-03 JRegalado: logs requested, see IR</t>
-  </si>
-  <si>
-    <t>[Common],VzW_FOA,PREINV IR DE; FL17_P7_VZEP, No TL00 issue No TL17 issue No TL17SP issue</t>
   </si>
   <si>
     <t>FL00, FL17SP, TL00, FL17SP, FL17A, TRS_INTERNAL</t>
@@ -6709,6 +6706,10 @@
        Why fault is dispatched to selected Pronto Group? : It is accepted as a SW Bug._x000D_
 [7. Reproduction]_x000D_
         Were there any reproduction attempts at Nokia labs performed? NA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Common],VzW_FOA,PREINV IR DE; FL17_P7_VZEP, No TL00 issue No TL17 issue No TL17SP issue optus</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -7314,48 +7315,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20%-个性色1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20%-个性色2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20%-个性色3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20%-个性色4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20%-个性色5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20%-个性色6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40%-个性色1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40%-个性色2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40%-个性色3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40%-个性色4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40%-个性色5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40%-个性色6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60%-个性色1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60%-个性色2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60%-个性色3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60%-个性色4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60%-个性色5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60%-个性色6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="个性色1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="个性色2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="个性色3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="个性色4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="个性色5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="个性色6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7371,7 +7372,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7669,11 +7670,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="61.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" t="s">
@@ -7760,7 +7764,7 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>27</v>
@@ -7900,30 +7904,30 @@
         <v>42844</v>
       </c>
       <c r="V3" t="s">
+        <v>882</v>
+      </c>
+      <c r="W3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" t="s">
         <v>52</v>
       </c>
-      <c r="W3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>53</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>54</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="409.6">
       <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
         <v>56</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -7935,10 +7939,10 @@
         <v>30</v>
       </c>
       <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
         <v>59</v>
-      </c>
-      <c r="H4" t="s">
-        <v>60</v>
       </c>
       <c r="I4" t="s">
         <v>48</v>
@@ -7965,13 +7969,13 @@
         <v>29</v>
       </c>
       <c r="Q4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R4" t="s">
         <v>50</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T4" s="2">
         <v>42857</v>
@@ -7980,48 +7984,48 @@
         <v>29</v>
       </c>
       <c r="V4" t="s">
+        <v>62</v>
+      </c>
+      <c r="W4" t="s">
+        <v>29</v>
+      </c>
+      <c r="X4" t="s">
         <v>63</v>
       </c>
-      <c r="W4" t="s">
-        <v>29</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>64</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>65</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="409.6">
       <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
         <v>67</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
         <v>30</v>
       </c>
       <c r="G5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" t="s">
         <v>71</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>72</v>
-      </c>
-      <c r="I5" t="s">
-        <v>73</v>
       </c>
       <c r="J5" t="s">
         <v>29</v>
@@ -8045,13 +8049,13 @@
         <v>29</v>
       </c>
       <c r="Q5" t="s">
+        <v>73</v>
+      </c>
+      <c r="R5" t="s">
         <v>74</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="T5" s="2">
         <v>42908</v>
@@ -8060,51 +8064,51 @@
         <v>29</v>
       </c>
       <c r="V5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W5" t="s">
+        <v>29</v>
+      </c>
+      <c r="X5" t="s">
         <v>77</v>
       </c>
-      <c r="W5" t="s">
-        <v>29</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>78</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>79</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="409.6">
       <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
         <v>81</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
       </c>
       <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" t="s">
         <v>84</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>85</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>86</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>87</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>88</v>
-      </c>
-      <c r="J6" t="s">
-        <v>89</v>
       </c>
       <c r="K6" t="s">
         <v>34</v>
@@ -8119,69 +8123,69 @@
         <v>17</v>
       </c>
       <c r="O6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" t="s">
         <v>90</v>
       </c>
-      <c r="P6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>91</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U6" t="s">
+        <v>29</v>
+      </c>
+      <c r="V6" t="s">
         <v>93</v>
       </c>
-      <c r="T6" t="s">
-        <v>29</v>
-      </c>
-      <c r="U6" t="s">
-        <v>29</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
+        <v>29</v>
+      </c>
+      <c r="X6" t="s">
         <v>94</v>
       </c>
-      <c r="W6" t="s">
-        <v>29</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>95</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>96</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="409.6">
       <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
         <v>98</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
         <v>30</v>
       </c>
       <c r="G7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" t="s">
         <v>102</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>103</v>
-      </c>
-      <c r="I7" t="s">
-        <v>104</v>
       </c>
       <c r="J7" t="s">
         <v>29</v>
@@ -8205,13 +8209,13 @@
         <v>29</v>
       </c>
       <c r="Q7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R7" t="s">
         <v>50</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T7" s="2">
         <v>42899</v>
@@ -8226,42 +8230,42 @@
         <v>29</v>
       </c>
       <c r="X7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y7" t="s">
         <v>107</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>108</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="409.6">
       <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" t="s">
         <v>110</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" t="s">
         <v>112</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>113</v>
-      </c>
-      <c r="E8" t="s">
-        <v>114</v>
       </c>
       <c r="F8" t="s">
         <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
         <v>29</v>
@@ -8285,13 +8289,13 @@
         <v>29</v>
       </c>
       <c r="Q8" t="s">
+        <v>115</v>
+      </c>
+      <c r="R8" t="s">
         <v>116</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="T8" s="2">
         <v>42937</v>
@@ -8300,48 +8304,48 @@
         <v>29</v>
       </c>
       <c r="V8" t="s">
+        <v>118</v>
+      </c>
+      <c r="W8" t="s">
+        <v>29</v>
+      </c>
+      <c r="X8" t="s">
         <v>119</v>
       </c>
-      <c r="W8" t="s">
-        <v>29</v>
-      </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>120</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>121</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="409.6">
       <c r="A9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" t="s">
         <v>123</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F9" t="s">
         <v>30</v>
       </c>
       <c r="G9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" t="s">
         <v>127</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>128</v>
-      </c>
-      <c r="I9" t="s">
-        <v>129</v>
       </c>
       <c r="J9" t="s">
         <v>29</v>
@@ -8359,19 +8363,19 @@
         <v>17</v>
       </c>
       <c r="O9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P9" t="s">
         <v>29</v>
       </c>
       <c r="Q9" t="s">
+        <v>129</v>
+      </c>
+      <c r="R9" t="s">
         <v>130</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="T9" s="2">
         <v>42912</v>
@@ -8380,48 +8384,48 @@
         <v>29</v>
       </c>
       <c r="V9" t="s">
+        <v>132</v>
+      </c>
+      <c r="W9" t="s">
+        <v>29</v>
+      </c>
+      <c r="X9" t="s">
         <v>133</v>
       </c>
-      <c r="W9" t="s">
-        <v>29</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>134</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>135</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="409.6">
       <c r="A10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" t="s">
         <v>137</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" t="s">
         <v>139</v>
-      </c>
-      <c r="D10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" t="s">
-        <v>140</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
       </c>
       <c r="G10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
         <v>141</v>
-      </c>
-      <c r="H10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" t="s">
-        <v>142</v>
       </c>
       <c r="J10" t="s">
         <v>29</v>
@@ -8445,13 +8449,13 @@
         <v>29</v>
       </c>
       <c r="Q10" t="s">
+        <v>142</v>
+      </c>
+      <c r="R10" t="s">
         <v>143</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>144</v>
-      </c>
-      <c r="S10" t="s">
-        <v>145</v>
       </c>
       <c r="T10" s="2">
         <v>42901</v>
@@ -8466,42 +8470,42 @@
         <v>29</v>
       </c>
       <c r="X10" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y10" t="s">
         <v>146</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>147</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="409.6">
       <c r="A11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" t="s">
         <v>149</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="D11" t="s">
         <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F11" t="s">
         <v>30</v>
       </c>
       <c r="G11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" t="s">
         <v>152</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>153</v>
-      </c>
-      <c r="I11" t="s">
-        <v>154</v>
       </c>
       <c r="J11" t="s">
         <v>29</v>
@@ -8525,13 +8529,13 @@
         <v>29</v>
       </c>
       <c r="Q11" t="s">
+        <v>154</v>
+      </c>
+      <c r="R11" t="s">
         <v>155</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="T11" s="2">
         <v>42899</v>
@@ -8540,48 +8544,48 @@
         <v>29</v>
       </c>
       <c r="V11" t="s">
+        <v>157</v>
+      </c>
+      <c r="W11" t="s">
+        <v>29</v>
+      </c>
+      <c r="X11" t="s">
         <v>158</v>
       </c>
-      <c r="W11" t="s">
-        <v>29</v>
-      </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>159</v>
       </c>
-      <c r="Y11" t="s">
-        <v>160</v>
-      </c>
       <c r="Z11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="409.6">
       <c r="A12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" t="s">
         <v>161</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" t="s">
         <v>163</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>164</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" t="s">
         <v>165</v>
       </c>
-      <c r="F12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" t="s">
-        <v>102</v>
-      </c>
-      <c r="H12" t="s">
-        <v>166</v>
-      </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J12" t="s">
         <v>29</v>
@@ -8605,13 +8609,13 @@
         <v>29</v>
       </c>
       <c r="Q12" t="s">
+        <v>166</v>
+      </c>
+      <c r="R12" t="s">
         <v>167</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="T12" t="s">
         <v>29</v>
@@ -8620,45 +8624,45 @@
         <v>42906</v>
       </c>
       <c r="V12" t="s">
+        <v>169</v>
+      </c>
+      <c r="W12" t="s">
+        <v>29</v>
+      </c>
+      <c r="X12" t="s">
         <v>170</v>
       </c>
-      <c r="W12" t="s">
-        <v>29</v>
-      </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>171</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>172</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="409.6">
       <c r="A13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" t="s">
         <v>174</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F13" t="s">
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I13" t="s">
         <v>48</v>
@@ -8685,13 +8689,13 @@
         <v>29</v>
       </c>
       <c r="Q13" t="s">
+        <v>178</v>
+      </c>
+      <c r="R13" t="s">
+        <v>130</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="R13" t="s">
-        <v>131</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="T13" s="2">
         <v>42833</v>
@@ -8706,42 +8710,42 @@
         <v>29</v>
       </c>
       <c r="X13" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y13" t="s">
         <v>181</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>182</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="409.6">
       <c r="A14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" t="s">
         <v>184</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F14" t="s">
         <v>30</v>
       </c>
       <c r="G14" t="s">
+        <v>187</v>
+      </c>
+      <c r="H14" t="s">
         <v>188</v>
       </c>
-      <c r="H14" t="s">
-        <v>189</v>
-      </c>
       <c r="I14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
         <v>29</v>
@@ -8765,13 +8769,13 @@
         <v>29</v>
       </c>
       <c r="Q14" t="s">
+        <v>189</v>
+      </c>
+      <c r="R14" t="s">
         <v>190</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="T14" s="2">
         <v>42928</v>
@@ -8780,30 +8784,30 @@
         <v>29</v>
       </c>
       <c r="V14" t="s">
+        <v>192</v>
+      </c>
+      <c r="W14" t="s">
+        <v>29</v>
+      </c>
+      <c r="X14" t="s">
         <v>193</v>
       </c>
-      <c r="W14" t="s">
-        <v>29</v>
-      </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>194</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>195</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="409.6">
       <c r="A15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" t="s">
         <v>197</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="D15" t="s">
         <v>28</v>
@@ -8815,16 +8819,16 @@
         <v>30</v>
       </c>
       <c r="G15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H15" t="s">
+        <v>165</v>
+      </c>
+      <c r="I15" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" t="s">
         <v>200</v>
-      </c>
-      <c r="H15" t="s">
-        <v>166</v>
-      </c>
-      <c r="I15" t="s">
-        <v>115</v>
-      </c>
-      <c r="J15" t="s">
-        <v>201</v>
       </c>
       <c r="K15" t="s">
         <v>34</v>
@@ -8845,13 +8849,13 @@
         <v>29</v>
       </c>
       <c r="Q15" t="s">
+        <v>201</v>
+      </c>
+      <c r="R15" t="s">
         <v>202</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="T15" s="2">
         <v>42970</v>
@@ -8860,51 +8864,51 @@
         <v>29</v>
       </c>
       <c r="V15" t="s">
+        <v>204</v>
+      </c>
+      <c r="W15" t="s">
         <v>205</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>206</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>207</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>208</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="409.6">
       <c r="A16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" t="s">
         <v>210</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F16" t="s">
         <v>30</v>
       </c>
       <c r="G16" t="s">
+        <v>212</v>
+      </c>
+      <c r="H16" t="s">
+        <v>165</v>
+      </c>
+      <c r="I16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J16" t="s">
         <v>213</v>
-      </c>
-      <c r="H16" t="s">
-        <v>166</v>
-      </c>
-      <c r="I16" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" t="s">
-        <v>214</v>
       </c>
       <c r="K16" t="s">
         <v>34</v>
@@ -8925,13 +8929,13 @@
         <v>29</v>
       </c>
       <c r="Q16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R16" t="s">
+        <v>214</v>
+      </c>
+      <c r="S16" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="T16" s="2">
         <v>42913</v>
@@ -8940,33 +8944,33 @@
         <v>29</v>
       </c>
       <c r="V16" t="s">
+        <v>216</v>
+      </c>
+      <c r="W16" t="s">
+        <v>29</v>
+      </c>
+      <c r="X16" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y16" t="s">
         <v>217</v>
       </c>
-      <c r="W16" t="s">
-        <v>29</v>
-      </c>
-      <c r="X16" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>218</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="409.6">
       <c r="A17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B17" t="s">
         <v>220</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E17" t="s">
         <v>29</v>
@@ -8975,10 +8979,10 @@
         <v>30</v>
       </c>
       <c r="G17" t="s">
+        <v>222</v>
+      </c>
+      <c r="H17" t="s">
         <v>223</v>
-      </c>
-      <c r="H17" t="s">
-        <v>224</v>
       </c>
       <c r="I17" t="s">
         <v>48</v>
@@ -8993,13 +8997,13 @@
         <v>42833</v>
       </c>
       <c r="M17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N17" t="s">
         <v>17</v>
       </c>
       <c r="O17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P17" t="s">
         <v>29</v>
@@ -9011,7 +9015,7 @@
         <v>50</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T17" s="2">
         <v>42886</v>
@@ -9026,27 +9030,27 @@
         <v>29</v>
       </c>
       <c r="X17" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y17" t="s">
         <v>227</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>228</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="409.6">
       <c r="A18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" t="s">
         <v>230</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
@@ -9055,13 +9059,13 @@
         <v>30</v>
       </c>
       <c r="G18" t="s">
+        <v>232</v>
+      </c>
+      <c r="H18" t="s">
         <v>233</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>234</v>
-      </c>
-      <c r="I18" t="s">
-        <v>235</v>
       </c>
       <c r="J18" t="s">
         <v>29</v>
@@ -9085,7 +9089,7 @@
         <v>29</v>
       </c>
       <c r="Q18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R18" t="s">
         <v>37</v>
@@ -9106,27 +9110,27 @@
         <v>29</v>
       </c>
       <c r="X18" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y18" t="s">
         <v>237</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>238</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="409.6">
       <c r="A19" t="s">
+        <v>239</v>
+      </c>
+      <c r="B19" t="s">
         <v>240</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E19" t="s">
         <v>29</v>
@@ -9135,10 +9139,10 @@
         <v>30</v>
       </c>
       <c r="G19" t="s">
+        <v>242</v>
+      </c>
+      <c r="H19" t="s">
         <v>243</v>
-      </c>
-      <c r="H19" t="s">
-        <v>244</v>
       </c>
       <c r="I19" t="s">
         <v>48</v>
@@ -9165,13 +9169,13 @@
         <v>29</v>
       </c>
       <c r="Q19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R19" t="s">
         <v>50</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="T19" s="2">
         <v>42880</v>
@@ -9180,33 +9184,33 @@
         <v>29</v>
       </c>
       <c r="V19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W19" t="s">
         <v>29</v>
       </c>
       <c r="X19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Y19" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z19" t="s">
         <v>246</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="409.6">
       <c r="A20" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20" t="s">
         <v>248</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E20" t="s">
         <v>29</v>
@@ -9215,16 +9219,16 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H20" t="s">
         <v>29</v>
       </c>
       <c r="I20" t="s">
+        <v>250</v>
+      </c>
+      <c r="J20" t="s">
         <v>251</v>
-      </c>
-      <c r="J20" t="s">
-        <v>252</v>
       </c>
       <c r="K20" t="s">
         <v>34</v>
@@ -9239,19 +9243,19 @@
         <v>17</v>
       </c>
       <c r="O20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P20" t="s">
         <v>29</v>
       </c>
       <c r="Q20" t="s">
+        <v>252</v>
+      </c>
+      <c r="R20" t="s">
         <v>253</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="T20" s="2">
         <v>42886</v>
@@ -9260,48 +9264,48 @@
         <v>29</v>
       </c>
       <c r="V20" t="s">
+        <v>255</v>
+      </c>
+      <c r="W20" t="s">
+        <v>29</v>
+      </c>
+      <c r="X20" t="s">
         <v>256</v>
       </c>
-      <c r="W20" t="s">
-        <v>29</v>
-      </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>257</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>258</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="409.6">
       <c r="A21" t="s">
+        <v>259</v>
+      </c>
+      <c r="B21" t="s">
         <v>260</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="D21" t="s">
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F21" t="s">
         <v>30</v>
       </c>
       <c r="G21" t="s">
+        <v>262</v>
+      </c>
+      <c r="H21" t="s">
         <v>263</v>
       </c>
-      <c r="H21" t="s">
-        <v>264</v>
-      </c>
       <c r="I21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J21" t="s">
         <v>29</v>
@@ -9322,16 +9326,16 @@
         <v>35</v>
       </c>
       <c r="P21" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q21" t="s">
         <v>265</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
+        <v>190</v>
+      </c>
+      <c r="S21" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="R21" t="s">
-        <v>191</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="T21" s="2">
         <v>42934</v>
@@ -9340,30 +9344,30 @@
         <v>42849</v>
       </c>
       <c r="V21" t="s">
+        <v>267</v>
+      </c>
+      <c r="W21" t="s">
+        <v>29</v>
+      </c>
+      <c r="X21" t="s">
         <v>268</v>
       </c>
-      <c r="W21" t="s">
-        <v>29</v>
-      </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>269</v>
       </c>
-      <c r="Y21" t="s">
-        <v>270</v>
-      </c>
       <c r="Z21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="409.6">
       <c r="A22" t="s">
+        <v>270</v>
+      </c>
+      <c r="B22" t="s">
         <v>271</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -9375,13 +9379,13 @@
         <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J22" t="s">
         <v>29</v>
@@ -9405,13 +9409,13 @@
         <v>29</v>
       </c>
       <c r="Q22" t="s">
+        <v>274</v>
+      </c>
+      <c r="R22" t="s">
+        <v>214</v>
+      </c>
+      <c r="S22" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="R22" t="s">
-        <v>215</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="T22" s="2">
         <v>42934</v>
@@ -9420,48 +9424,48 @@
         <v>29</v>
       </c>
       <c r="V22" t="s">
+        <v>276</v>
+      </c>
+      <c r="W22" t="s">
+        <v>29</v>
+      </c>
+      <c r="X22" t="s">
         <v>277</v>
       </c>
-      <c r="W22" t="s">
-        <v>29</v>
-      </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>278</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>279</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="409.6">
       <c r="A23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B23" t="s">
         <v>281</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F23" t="s">
         <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J23" t="s">
         <v>29</v>
@@ -9485,13 +9489,13 @@
         <v>29</v>
       </c>
       <c r="Q23" t="s">
+        <v>283</v>
+      </c>
+      <c r="R23" t="s">
         <v>284</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="T23" s="2">
         <v>42936</v>
@@ -9500,48 +9504,48 @@
         <v>29</v>
       </c>
       <c r="V23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W23" t="s">
         <v>29</v>
       </c>
       <c r="X23" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y23" t="s">
         <v>287</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>288</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="409.6">
       <c r="A24" t="s">
+        <v>289</v>
+      </c>
+      <c r="B24" t="s">
         <v>290</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" t="s">
         <v>292</v>
-      </c>
-      <c r="D24" t="s">
-        <v>164</v>
-      </c>
-      <c r="E24" t="s">
-        <v>293</v>
       </c>
       <c r="F24" t="s">
         <v>30</v>
       </c>
       <c r="G24" t="s">
+        <v>293</v>
+      </c>
+      <c r="H24" t="s">
         <v>294</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>295</v>
-      </c>
-      <c r="I24" t="s">
-        <v>296</v>
       </c>
       <c r="J24" t="s">
         <v>29</v>
@@ -9565,13 +9569,13 @@
         <v>29</v>
       </c>
       <c r="Q24" t="s">
+        <v>296</v>
+      </c>
+      <c r="R24" t="s">
         <v>297</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="T24" s="2">
         <v>42944</v>
@@ -9580,30 +9584,30 @@
         <v>29</v>
       </c>
       <c r="V24" t="s">
+        <v>299</v>
+      </c>
+      <c r="W24" t="s">
         <v>300</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>301</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>302</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>303</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="409.6">
       <c r="A25" t="s">
+        <v>304</v>
+      </c>
+      <c r="B25" t="s">
         <v>305</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="D25" t="s">
         <v>28</v>
@@ -9615,10 +9619,10 @@
         <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I25" t="s">
         <v>48</v>
@@ -9633,7 +9637,7 @@
         <v>42879</v>
       </c>
       <c r="M25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N25" t="s">
         <v>17</v>
@@ -9645,13 +9649,13 @@
         <v>29</v>
       </c>
       <c r="Q25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="R25" t="s">
         <v>50</v>
       </c>
       <c r="S25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T25" s="2">
         <v>42887</v>
@@ -9660,45 +9664,45 @@
         <v>29</v>
       </c>
       <c r="V25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W25" t="s">
         <v>29</v>
       </c>
       <c r="X25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Y25" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z25" t="s">
         <v>312</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="409.6">
       <c r="A26" t="s">
+        <v>313</v>
+      </c>
+      <c r="B26" t="s">
         <v>314</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" t="s">
         <v>316</v>
-      </c>
-      <c r="D26" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" t="s">
-        <v>317</v>
       </c>
       <c r="F26" t="s">
         <v>30</v>
       </c>
       <c r="G26" t="s">
+        <v>222</v>
+      </c>
+      <c r="H26" t="s">
         <v>223</v>
-      </c>
-      <c r="H26" t="s">
-        <v>224</v>
       </c>
       <c r="I26" t="s">
         <v>48</v>
@@ -9713,7 +9717,7 @@
         <v>42872</v>
       </c>
       <c r="M26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N26" t="s">
         <v>17</v>
@@ -9731,7 +9735,7 @@
         <v>50</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="T26" s="2">
         <v>42899</v>
@@ -9746,42 +9750,42 @@
         <v>29</v>
       </c>
       <c r="X26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Y26" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z26" t="s">
         <v>319</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="409.6">
       <c r="A27" t="s">
+        <v>320</v>
+      </c>
+      <c r="B27" t="s">
         <v>321</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" t="s">
         <v>323</v>
-      </c>
-      <c r="D27" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" t="s">
-        <v>324</v>
       </c>
       <c r="F27" t="s">
         <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J27" t="s">
         <v>29</v>
@@ -9799,19 +9803,19 @@
         <v>17</v>
       </c>
       <c r="O27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P27" t="s">
         <v>29</v>
       </c>
       <c r="Q27" t="s">
+        <v>325</v>
+      </c>
+      <c r="R27" t="s">
+        <v>190</v>
+      </c>
+      <c r="S27" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="R27" t="s">
-        <v>191</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="T27" s="2">
         <v>42950</v>
@@ -9820,48 +9824,48 @@
         <v>29</v>
       </c>
       <c r="V27" t="s">
+        <v>327</v>
+      </c>
+      <c r="W27" t="s">
+        <v>29</v>
+      </c>
+      <c r="X27" t="s">
         <v>328</v>
       </c>
-      <c r="W27" t="s">
-        <v>29</v>
-      </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>329</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>330</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="409.6">
       <c r="A28" t="s">
+        <v>331</v>
+      </c>
+      <c r="B28" t="s">
         <v>332</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="D28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" t="s">
         <v>113</v>
-      </c>
-      <c r="E28" t="s">
-        <v>114</v>
       </c>
       <c r="F28" t="s">
         <v>30</v>
       </c>
       <c r="G28" t="s">
+        <v>334</v>
+      </c>
+      <c r="H28" t="s">
         <v>335</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>336</v>
-      </c>
-      <c r="I28" t="s">
-        <v>337</v>
       </c>
       <c r="J28" t="s">
         <v>29</v>
@@ -9885,13 +9889,13 @@
         <v>29</v>
       </c>
       <c r="Q28" t="s">
+        <v>337</v>
+      </c>
+      <c r="R28" t="s">
+        <v>214</v>
+      </c>
+      <c r="S28" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="R28" t="s">
-        <v>215</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="T28" s="2">
         <v>42905</v>
@@ -9900,51 +9904,51 @@
         <v>29</v>
       </c>
       <c r="V28" t="s">
+        <v>339</v>
+      </c>
+      <c r="W28" t="s">
+        <v>29</v>
+      </c>
+      <c r="X28" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y28" t="s">
         <v>340</v>
       </c>
-      <c r="W28" t="s">
-        <v>29</v>
-      </c>
-      <c r="X28" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>341</v>
-      </c>
       <c r="Z28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="409.6">
       <c r="A29" t="s">
+        <v>341</v>
+      </c>
+      <c r="B29" t="s">
         <v>342</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="D29" t="s">
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" t="s">
         <v>84</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>85</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>86</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>87</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>88</v>
-      </c>
-      <c r="J29" t="s">
-        <v>89</v>
       </c>
       <c r="K29" t="s">
         <v>34</v>
@@ -9959,69 +9963,69 @@
         <v>17</v>
       </c>
       <c r="O29" t="s">
+        <v>89</v>
+      </c>
+      <c r="P29" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q29" t="s">
         <v>90</v>
       </c>
-      <c r="P29" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>91</v>
-      </c>
       <c r="R29" t="s">
+        <v>344</v>
+      </c>
+      <c r="S29" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="S29" s="1" t="s">
+      <c r="T29" t="s">
+        <v>29</v>
+      </c>
+      <c r="U29" t="s">
+        <v>29</v>
+      </c>
+      <c r="V29" t="s">
         <v>346</v>
       </c>
-      <c r="T29" t="s">
-        <v>29</v>
-      </c>
-      <c r="U29" t="s">
-        <v>29</v>
-      </c>
-      <c r="V29" t="s">
-        <v>347</v>
-      </c>
       <c r="W29" t="s">
         <v>29</v>
       </c>
       <c r="X29" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y29" t="s">
         <v>95</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>96</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="409.6">
       <c r="A30" t="s">
+        <v>347</v>
+      </c>
+      <c r="B30" t="s">
         <v>348</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F30" t="s">
         <v>30</v>
       </c>
       <c r="G30" t="s">
+        <v>350</v>
+      </c>
+      <c r="H30" t="s">
         <v>351</v>
       </c>
-      <c r="H30" t="s">
-        <v>352</v>
-      </c>
       <c r="I30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J30" t="s">
         <v>29</v>
@@ -10045,13 +10049,13 @@
         <v>29</v>
       </c>
       <c r="Q30" t="s">
+        <v>352</v>
+      </c>
+      <c r="R30" t="s">
         <v>353</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="T30" s="2">
         <v>42934</v>
@@ -10060,48 +10064,48 @@
         <v>29</v>
       </c>
       <c r="V30" t="s">
+        <v>355</v>
+      </c>
+      <c r="W30" t="s">
+        <v>29</v>
+      </c>
+      <c r="X30" t="s">
         <v>356</v>
       </c>
-      <c r="W30" t="s">
-        <v>29</v>
-      </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>357</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>358</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="409.6">
       <c r="A31" t="s">
+        <v>359</v>
+      </c>
+      <c r="B31" t="s">
         <v>360</v>
       </c>
-      <c r="B31" t="s">
-        <v>361</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D31" t="s">
         <v>28</v>
       </c>
       <c r="E31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F31" t="s">
         <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J31" t="s">
         <v>29</v>
@@ -10122,16 +10126,16 @@
         <v>35</v>
       </c>
       <c r="P31" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q31" t="s">
         <v>265</v>
       </c>
-      <c r="Q31" t="s">
-        <v>266</v>
-      </c>
       <c r="R31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T31" s="2">
         <v>42888</v>
@@ -10140,48 +10144,48 @@
         <v>29</v>
       </c>
       <c r="V31" t="s">
+        <v>364</v>
+      </c>
+      <c r="W31" t="s">
+        <v>29</v>
+      </c>
+      <c r="X31" t="s">
         <v>365</v>
       </c>
-      <c r="W31" t="s">
-        <v>29</v>
-      </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>366</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>367</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="409.6">
       <c r="A32" t="s">
+        <v>368</v>
+      </c>
+      <c r="B32" t="s">
         <v>369</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" t="s">
         <v>371</v>
-      </c>
-      <c r="D32" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" t="s">
-        <v>372</v>
       </c>
       <c r="F32" t="s">
         <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H32" t="s">
+        <v>372</v>
+      </c>
+      <c r="I32" t="s">
         <v>373</v>
-      </c>
-      <c r="I32" t="s">
-        <v>374</v>
       </c>
       <c r="J32" t="s">
         <v>29</v>
@@ -10199,19 +10203,19 @@
         <v>17</v>
       </c>
       <c r="O32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P32" t="s">
         <v>29</v>
       </c>
       <c r="Q32" t="s">
+        <v>374</v>
+      </c>
+      <c r="R32" t="s">
         <v>375</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="T32" s="2">
         <v>42888</v>
@@ -10220,48 +10224,48 @@
         <v>29</v>
       </c>
       <c r="V32" t="s">
+        <v>377</v>
+      </c>
+      <c r="W32" t="s">
+        <v>29</v>
+      </c>
+      <c r="X32" t="s">
         <v>378</v>
       </c>
-      <c r="W32" t="s">
-        <v>29</v>
-      </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>379</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>380</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="409.6">
       <c r="A33" t="s">
+        <v>381</v>
+      </c>
+      <c r="B33" t="s">
         <v>382</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="D33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F33" t="s">
         <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J33" t="s">
         <v>29</v>
@@ -10285,13 +10289,13 @@
         <v>29</v>
       </c>
       <c r="Q33" t="s">
+        <v>385</v>
+      </c>
+      <c r="R33" t="s">
         <v>386</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="T33" s="2">
         <v>42935</v>
@@ -10300,48 +10304,48 @@
         <v>42920</v>
       </c>
       <c r="V33" t="s">
+        <v>388</v>
+      </c>
+      <c r="W33" t="s">
+        <v>29</v>
+      </c>
+      <c r="X33" t="s">
         <v>389</v>
       </c>
-      <c r="W33" t="s">
-        <v>29</v>
-      </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>390</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>391</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="409.6">
       <c r="A34" t="s">
+        <v>392</v>
+      </c>
+      <c r="B34" t="s">
         <v>393</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="D34" t="s">
         <v>28</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F34" t="s">
         <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J34" t="s">
         <v>29</v>
@@ -10365,13 +10369,13 @@
         <v>29</v>
       </c>
       <c r="Q34" t="s">
+        <v>396</v>
+      </c>
+      <c r="R34" t="s">
+        <v>214</v>
+      </c>
+      <c r="S34" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="R34" t="s">
-        <v>215</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="T34" s="2">
         <v>42907</v>
@@ -10380,51 +10384,51 @@
         <v>29</v>
       </c>
       <c r="V34" t="s">
+        <v>398</v>
+      </c>
+      <c r="W34" t="s">
+        <v>157</v>
+      </c>
+      <c r="X34" t="s">
         <v>399</v>
       </c>
-      <c r="W34" t="s">
-        <v>158</v>
-      </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>400</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>401</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="409.6">
       <c r="A35" t="s">
+        <v>402</v>
+      </c>
+      <c r="B35" t="s">
         <v>403</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="D35" t="s">
         <v>28</v>
       </c>
       <c r="E35" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F35" t="s">
         <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I35" t="s">
         <v>48</v>
       </c>
       <c r="J35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K35" t="s">
         <v>34</v>
@@ -10433,25 +10437,25 @@
         <v>42872</v>
       </c>
       <c r="M35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N35" t="s">
         <v>17</v>
       </c>
       <c r="O35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P35" t="s">
         <v>29</v>
       </c>
       <c r="Q35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R35" t="s">
         <v>50</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="T35" s="2">
         <v>42879</v>
@@ -10466,42 +10470,42 @@
         <v>29</v>
       </c>
       <c r="X35" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y35" t="s">
         <v>409</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>410</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="409.6">
       <c r="A36" t="s">
+        <v>411</v>
+      </c>
+      <c r="B36" t="s">
         <v>412</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" t="s">
         <v>414</v>
-      </c>
-      <c r="D36" t="s">
-        <v>164</v>
-      </c>
-      <c r="E36" t="s">
-        <v>415</v>
       </c>
       <c r="F36" t="s">
         <v>30</v>
       </c>
       <c r="G36" t="s">
+        <v>415</v>
+      </c>
+      <c r="H36" t="s">
         <v>416</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>417</v>
-      </c>
-      <c r="I36" t="s">
-        <v>418</v>
       </c>
       <c r="J36" t="s">
         <v>29</v>
@@ -10525,13 +10529,13 @@
         <v>29</v>
       </c>
       <c r="Q36" t="s">
+        <v>418</v>
+      </c>
+      <c r="R36" t="s">
         <v>419</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="T36" s="2">
         <v>42899</v>
@@ -10540,48 +10544,48 @@
         <v>29</v>
       </c>
       <c r="V36" t="s">
+        <v>421</v>
+      </c>
+      <c r="W36" t="s">
+        <v>300</v>
+      </c>
+      <c r="X36" t="s">
         <v>422</v>
       </c>
-      <c r="W36" t="s">
-        <v>301</v>
-      </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>423</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>424</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="409.6">
       <c r="A37" t="s">
+        <v>425</v>
+      </c>
+      <c r="B37" t="s">
         <v>426</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" t="s">
         <v>428</v>
-      </c>
-      <c r="D37" t="s">
-        <v>113</v>
-      </c>
-      <c r="E37" t="s">
-        <v>429</v>
       </c>
       <c r="F37" t="s">
         <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H37" t="s">
+        <v>429</v>
+      </c>
+      <c r="I37" t="s">
         <v>430</v>
-      </c>
-      <c r="I37" t="s">
-        <v>431</v>
       </c>
       <c r="J37" t="s">
         <v>29</v>
@@ -10599,19 +10603,19 @@
         <v>17</v>
       </c>
       <c r="O37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P37" t="s">
         <v>29</v>
       </c>
       <c r="Q37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="T37" s="2">
         <v>42936</v>
@@ -10620,48 +10624,48 @@
         <v>29</v>
       </c>
       <c r="V37" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="W37" t="s">
         <v>29</v>
       </c>
       <c r="X37" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y37" t="s">
         <v>287</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>288</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="409.6">
       <c r="A38" t="s">
+        <v>433</v>
+      </c>
+      <c r="B38" t="s">
         <v>434</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" t="s">
         <v>436</v>
-      </c>
-      <c r="D38" t="s">
-        <v>113</v>
-      </c>
-      <c r="E38" t="s">
-        <v>437</v>
       </c>
       <c r="F38" t="s">
         <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J38" t="s">
         <v>29</v>
@@ -10685,13 +10689,13 @@
         <v>29</v>
       </c>
       <c r="Q38" t="s">
+        <v>438</v>
+      </c>
+      <c r="R38" t="s">
         <v>439</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>441</v>
       </c>
       <c r="T38" s="2">
         <v>42968</v>
@@ -10700,45 +10704,45 @@
         <v>29</v>
       </c>
       <c r="V38" t="s">
+        <v>441</v>
+      </c>
+      <c r="W38" t="s">
+        <v>29</v>
+      </c>
+      <c r="X38" t="s">
         <v>442</v>
       </c>
-      <c r="W38" t="s">
-        <v>29</v>
-      </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>443</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>444</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="409.6">
       <c r="A39" t="s">
+        <v>445</v>
+      </c>
+      <c r="B39" t="s">
         <v>446</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" t="s">
         <v>448</v>
-      </c>
-      <c r="D39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E39" t="s">
-        <v>449</v>
       </c>
       <c r="F39" t="s">
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I39" t="s">
         <v>48</v>
@@ -10753,7 +10757,7 @@
         <v>42873</v>
       </c>
       <c r="M39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N39" t="s">
         <v>17</v>
@@ -10771,7 +10775,7 @@
         <v>50</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="T39" s="2">
         <v>42933</v>
@@ -10780,48 +10784,48 @@
         <v>29</v>
       </c>
       <c r="V39" t="s">
+        <v>451</v>
+      </c>
+      <c r="W39" t="s">
         <v>452</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>453</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>454</v>
       </c>
-      <c r="Y39" t="s">
-        <v>455</v>
-      </c>
       <c r="Z39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="409.6">
       <c r="A40" t="s">
+        <v>455</v>
+      </c>
+      <c r="B40" t="s">
         <v>456</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" t="s">
         <v>458</v>
-      </c>
-      <c r="D40" t="s">
-        <v>113</v>
-      </c>
-      <c r="E40" t="s">
-        <v>459</v>
       </c>
       <c r="F40" t="s">
         <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H40" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I40" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J40" t="s">
         <v>29</v>
@@ -10839,19 +10843,19 @@
         <v>17</v>
       </c>
       <c r="O40" t="s">
+        <v>460</v>
+      </c>
+      <c r="P40" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q40" t="s">
         <v>461</v>
       </c>
-      <c r="P40" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
         <v>462</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="T40" s="2">
         <v>42938</v>
@@ -10860,48 +10864,48 @@
         <v>29</v>
       </c>
       <c r="V40" t="s">
+        <v>464</v>
+      </c>
+      <c r="W40" t="s">
+        <v>29</v>
+      </c>
+      <c r="X40" t="s">
         <v>465</v>
       </c>
-      <c r="W40" t="s">
-        <v>29</v>
-      </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>466</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>467</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="409.6">
       <c r="A41" t="s">
+        <v>468</v>
+      </c>
+      <c r="B41" t="s">
         <v>469</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>471</v>
       </c>
       <c r="D41" t="s">
         <v>28</v>
       </c>
       <c r="E41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F41" t="s">
         <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J41" t="s">
         <v>29</v>
@@ -10925,10 +10929,10 @@
         <v>29</v>
       </c>
       <c r="Q41" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R41" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="S41" t="s">
         <v>29</v>
@@ -10940,48 +10944,48 @@
         <v>29</v>
       </c>
       <c r="V41" t="s">
+        <v>157</v>
+      </c>
+      <c r="W41" t="s">
+        <v>29</v>
+      </c>
+      <c r="X41" t="s">
         <v>158</v>
       </c>
-      <c r="W41" t="s">
-        <v>29</v>
-      </c>
-      <c r="X41" t="s">
-        <v>159</v>
-      </c>
       <c r="Y41" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Z41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="409.6">
       <c r="A42" t="s">
+        <v>474</v>
+      </c>
+      <c r="B42" t="s">
         <v>475</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>477</v>
       </c>
       <c r="D42" t="s">
         <v>28</v>
       </c>
       <c r="E42" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F42" t="s">
         <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H42" t="s">
+        <v>127</v>
+      </c>
+      <c r="I42" t="s">
         <v>128</v>
-      </c>
-      <c r="I42" t="s">
-        <v>129</v>
       </c>
       <c r="J42" t="s">
         <v>29</v>
@@ -10999,19 +11003,19 @@
         <v>17</v>
       </c>
       <c r="O42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P42" t="s">
         <v>29</v>
       </c>
       <c r="Q42" t="s">
+        <v>479</v>
+      </c>
+      <c r="R42" t="s">
         <v>480</v>
       </c>
-      <c r="R42" t="s">
+      <c r="S42" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>482</v>
       </c>
       <c r="T42" s="2">
         <v>42948</v>
@@ -11020,48 +11024,48 @@
         <v>29</v>
       </c>
       <c r="V42" t="s">
+        <v>482</v>
+      </c>
+      <c r="W42" t="s">
+        <v>29</v>
+      </c>
+      <c r="X42" t="s">
         <v>483</v>
       </c>
-      <c r="W42" t="s">
-        <v>29</v>
-      </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>484</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>485</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="409.6">
       <c r="A43" t="s">
+        <v>486</v>
+      </c>
+      <c r="B43" t="s">
         <v>487</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>489</v>
       </c>
       <c r="D43" t="s">
         <v>28</v>
       </c>
       <c r="E43" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F43" t="s">
         <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H43" t="s">
+        <v>372</v>
+      </c>
+      <c r="I43" t="s">
         <v>373</v>
-      </c>
-      <c r="I43" t="s">
-        <v>374</v>
       </c>
       <c r="J43" t="s">
         <v>29</v>
@@ -11085,13 +11089,13 @@
         <v>29</v>
       </c>
       <c r="Q43" t="s">
+        <v>490</v>
+      </c>
+      <c r="R43" t="s">
         <v>491</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>493</v>
       </c>
       <c r="T43" s="2">
         <v>42943</v>
@@ -11100,33 +11104,33 @@
         <v>29</v>
       </c>
       <c r="V43" t="s">
+        <v>493</v>
+      </c>
+      <c r="W43" t="s">
+        <v>29</v>
+      </c>
+      <c r="X43" t="s">
         <v>494</v>
       </c>
-      <c r="W43" t="s">
-        <v>29</v>
-      </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>495</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>496</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="409.6">
       <c r="A44" t="s">
+        <v>497</v>
+      </c>
+      <c r="B44" t="s">
         <v>498</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>500</v>
-      </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E44" t="s">
         <v>29</v>
@@ -11135,16 +11139,16 @@
         <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H44" t="s">
+        <v>500</v>
+      </c>
+      <c r="I44" t="s">
+        <v>72</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="I44" t="s">
-        <v>73</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>502</v>
       </c>
       <c r="K44" t="s">
         <v>34</v>
@@ -11165,13 +11169,13 @@
         <v>29</v>
       </c>
       <c r="Q44" t="s">
+        <v>502</v>
+      </c>
+      <c r="R44" t="s">
         <v>503</v>
       </c>
-      <c r="R44" t="s">
+      <c r="S44" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="T44" s="2">
         <v>42964</v>
@@ -11180,48 +11184,48 @@
         <v>29</v>
       </c>
       <c r="V44" t="s">
+        <v>505</v>
+      </c>
+      <c r="W44" t="s">
+        <v>29</v>
+      </c>
+      <c r="X44" t="s">
         <v>506</v>
       </c>
-      <c r="W44" t="s">
-        <v>29</v>
-      </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>507</v>
       </c>
-      <c r="Y44" t="s">
-        <v>508</v>
-      </c>
       <c r="Z44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="409.6">
       <c r="A45" t="s">
+        <v>508</v>
+      </c>
+      <c r="B45" t="s">
         <v>509</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>511</v>
       </c>
       <c r="D45" t="s">
         <v>28</v>
       </c>
       <c r="E45" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F45" t="s">
         <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H45" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I45" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J45" t="s">
         <v>29</v>
@@ -11239,19 +11243,19 @@
         <v>17</v>
       </c>
       <c r="O45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P45" t="s">
         <v>29</v>
       </c>
       <c r="Q45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R45" t="s">
+        <v>513</v>
+      </c>
+      <c r="S45" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>515</v>
       </c>
       <c r="T45" s="2">
         <v>42937</v>
@@ -11260,48 +11264,48 @@
         <v>29</v>
       </c>
       <c r="V45" t="s">
+        <v>515</v>
+      </c>
+      <c r="W45" t="s">
+        <v>29</v>
+      </c>
+      <c r="X45" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y45" t="s">
         <v>516</v>
       </c>
-      <c r="W45" t="s">
-        <v>29</v>
-      </c>
-      <c r="X45" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>517</v>
-      </c>
       <c r="Z45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="409.6">
       <c r="A46" t="s">
+        <v>517</v>
+      </c>
+      <c r="B46" t="s">
         <v>518</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>520</v>
       </c>
       <c r="D46" t="s">
         <v>28</v>
       </c>
       <c r="E46" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F46" t="s">
         <v>30</v>
       </c>
       <c r="G46" t="s">
+        <v>521</v>
+      </c>
+      <c r="H46" t="s">
         <v>522</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>523</v>
-      </c>
-      <c r="I46" t="s">
-        <v>524</v>
       </c>
       <c r="J46" t="s">
         <v>29</v>
@@ -11325,13 +11329,13 @@
         <v>29</v>
       </c>
       <c r="Q46" t="s">
+        <v>524</v>
+      </c>
+      <c r="R46" t="s">
+        <v>74</v>
+      </c>
+      <c r="S46" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="R46" t="s">
-        <v>75</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>526</v>
       </c>
       <c r="T46" s="2">
         <v>42992</v>
@@ -11346,45 +11350,45 @@
         <v>29</v>
       </c>
       <c r="X46" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y46" t="s">
         <v>527</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>528</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="409.6">
       <c r="A47" t="s">
+        <v>529</v>
+      </c>
+      <c r="B47" t="s">
         <v>530</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>532</v>
       </c>
       <c r="D47" t="s">
         <v>28</v>
       </c>
       <c r="E47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F47" t="s">
         <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H47" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I47" t="s">
         <v>48</v>
       </c>
       <c r="J47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K47" t="s">
         <v>34</v>
@@ -11393,25 +11397,25 @@
         <v>42874</v>
       </c>
       <c r="M47" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N47" t="s">
         <v>17</v>
       </c>
       <c r="O47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P47" t="s">
         <v>29</v>
       </c>
       <c r="Q47" t="s">
+        <v>533</v>
+      </c>
+      <c r="R47" t="s">
+        <v>130</v>
+      </c>
+      <c r="S47" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="R47" t="s">
-        <v>131</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>535</v>
       </c>
       <c r="T47" s="2">
         <v>42885</v>
@@ -11423,48 +11427,48 @@
         <v>29</v>
       </c>
       <c r="W47" t="s">
+        <v>535</v>
+      </c>
+      <c r="X47" t="s">
         <v>536</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>537</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>538</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="409.6">
       <c r="A48" t="s">
+        <v>539</v>
+      </c>
+      <c r="B48" t="s">
         <v>540</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" t="s">
+        <v>112</v>
+      </c>
+      <c r="E48" t="s">
         <v>542</v>
-      </c>
-      <c r="D48" t="s">
-        <v>113</v>
-      </c>
-      <c r="E48" t="s">
-        <v>543</v>
       </c>
       <c r="F48" t="s">
         <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H48" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I48" t="s">
         <v>48</v>
       </c>
       <c r="J48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K48" t="s">
         <v>34</v>
@@ -11473,7 +11477,7 @@
         <v>42879</v>
       </c>
       <c r="M48" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N48" t="s">
         <v>17</v>
@@ -11485,13 +11489,13 @@
         <v>29</v>
       </c>
       <c r="Q48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="R48" t="s">
         <v>50</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="T48" s="2">
         <v>42891</v>
@@ -11500,48 +11504,48 @@
         <v>29</v>
       </c>
       <c r="V48" t="s">
+        <v>544</v>
+      </c>
+      <c r="W48" t="s">
+        <v>29</v>
+      </c>
+      <c r="X48" t="s">
         <v>545</v>
       </c>
-      <c r="W48" t="s">
-        <v>29</v>
-      </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>546</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>547</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="49" spans="1:26" ht="409.6">
       <c r="A49" t="s">
+        <v>548</v>
+      </c>
+      <c r="B49" t="s">
         <v>549</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>551</v>
       </c>
       <c r="D49" t="s">
         <v>28</v>
       </c>
       <c r="E49" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F49" t="s">
         <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H49" t="s">
+        <v>372</v>
+      </c>
+      <c r="I49" t="s">
         <v>373</v>
-      </c>
-      <c r="I49" t="s">
-        <v>374</v>
       </c>
       <c r="J49" t="s">
         <v>29</v>
@@ -11559,19 +11563,19 @@
         <v>17</v>
       </c>
       <c r="O49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P49" t="s">
         <v>29</v>
       </c>
       <c r="Q49" t="s">
+        <v>374</v>
+      </c>
+      <c r="R49" t="s">
         <v>375</v>
       </c>
-      <c r="R49" t="s">
-        <v>376</v>
-      </c>
       <c r="S49" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="T49" s="2">
         <v>42891</v>
@@ -11580,48 +11584,48 @@
         <v>29</v>
       </c>
       <c r="V49" t="s">
+        <v>553</v>
+      </c>
+      <c r="W49" t="s">
+        <v>29</v>
+      </c>
+      <c r="X49" t="s">
         <v>554</v>
       </c>
-      <c r="W49" t="s">
-        <v>29</v>
-      </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>555</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>556</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="50" spans="1:26" ht="409.6">
       <c r="A50" t="s">
+        <v>557</v>
+      </c>
+      <c r="B50" t="s">
         <v>558</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" t="s">
         <v>560</v>
-      </c>
-      <c r="D50" t="s">
-        <v>113</v>
-      </c>
-      <c r="E50" t="s">
-        <v>561</v>
       </c>
       <c r="F50" t="s">
         <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H50" t="s">
+        <v>372</v>
+      </c>
+      <c r="I50" t="s">
         <v>373</v>
-      </c>
-      <c r="I50" t="s">
-        <v>374</v>
       </c>
       <c r="J50" t="s">
         <v>29</v>
@@ -11639,19 +11643,19 @@
         <v>17</v>
       </c>
       <c r="O50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P50" t="s">
         <v>29</v>
       </c>
       <c r="Q50" t="s">
+        <v>374</v>
+      </c>
+      <c r="R50" t="s">
         <v>375</v>
       </c>
-      <c r="R50" t="s">
-        <v>376</v>
-      </c>
       <c r="S50" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T50" s="2">
         <v>42888</v>
@@ -11660,45 +11664,45 @@
         <v>29</v>
       </c>
       <c r="V50" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="W50" t="s">
         <v>29</v>
       </c>
       <c r="X50" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y50" t="s">
         <v>379</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>380</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="409.6">
       <c r="A51" t="s">
+        <v>563</v>
+      </c>
+      <c r="B51" t="s">
         <v>564</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>566</v>
       </c>
       <c r="D51" t="s">
         <v>28</v>
       </c>
       <c r="E51" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F51" t="s">
         <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H51" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I51" t="s">
         <v>48</v>
@@ -11725,13 +11729,13 @@
         <v>29</v>
       </c>
       <c r="Q51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="T51" s="2">
         <v>42885</v>
@@ -11740,45 +11744,45 @@
         <v>29</v>
       </c>
       <c r="V51" t="s">
+        <v>568</v>
+      </c>
+      <c r="W51" t="s">
         <v>569</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>570</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>571</v>
       </c>
-      <c r="Y51" t="s">
-        <v>572</v>
-      </c>
       <c r="Z51" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="409.6">
       <c r="A52" t="s">
+        <v>572</v>
+      </c>
+      <c r="B52" t="s">
         <v>573</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>575</v>
       </c>
       <c r="D52" t="s">
         <v>28</v>
       </c>
       <c r="E52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F52" t="s">
         <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H52" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I52" t="s">
         <v>48</v>
@@ -11799,19 +11803,19 @@
         <v>17</v>
       </c>
       <c r="O52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P52" t="s">
         <v>29</v>
       </c>
       <c r="Q52" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="R52" t="s">
         <v>50</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="T52" s="2">
         <v>42900</v>
@@ -11820,48 +11824,48 @@
         <v>29</v>
       </c>
       <c r="V52" t="s">
+        <v>577</v>
+      </c>
+      <c r="W52" t="s">
+        <v>29</v>
+      </c>
+      <c r="X52" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y52" t="s">
         <v>578</v>
       </c>
-      <c r="W52" t="s">
-        <v>29</v>
-      </c>
-      <c r="X52" t="s">
-        <v>227</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>579</v>
-      </c>
       <c r="Z52" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="53" spans="1:26" ht="409.6">
       <c r="A53" t="s">
+        <v>579</v>
+      </c>
+      <c r="B53" t="s">
         <v>580</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>582</v>
       </c>
       <c r="D53" t="s">
         <v>28</v>
       </c>
       <c r="E53" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F53" t="s">
         <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H53" t="s">
+        <v>429</v>
+      </c>
+      <c r="I53" t="s">
         <v>430</v>
-      </c>
-      <c r="I53" t="s">
-        <v>431</v>
       </c>
       <c r="J53" t="s">
         <v>29</v>
@@ -11879,19 +11883,19 @@
         <v>17</v>
       </c>
       <c r="O53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P53" t="s">
         <v>29</v>
       </c>
       <c r="Q53" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="T53" s="2">
         <v>42906</v>
@@ -11900,48 +11904,48 @@
         <v>29</v>
       </c>
       <c r="V53" t="s">
+        <v>584</v>
+      </c>
+      <c r="W53" t="s">
+        <v>29</v>
+      </c>
+      <c r="X53" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y53" t="s">
         <v>585</v>
       </c>
-      <c r="W53" t="s">
-        <v>29</v>
-      </c>
-      <c r="X53" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>586</v>
-      </c>
       <c r="Z53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="409.6">
       <c r="A54" t="s">
+        <v>586</v>
+      </c>
+      <c r="B54" t="s">
         <v>587</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>589</v>
-      </c>
       <c r="D54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F54" t="s">
         <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H54" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J54" t="s">
         <v>29</v>
@@ -11965,13 +11969,13 @@
         <v>29</v>
       </c>
       <c r="Q54" t="s">
+        <v>589</v>
+      </c>
+      <c r="R54" t="s">
         <v>590</v>
       </c>
-      <c r="R54" t="s">
+      <c r="S54" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="S54" s="1" t="s">
-        <v>592</v>
       </c>
       <c r="T54" s="2">
         <v>42975</v>
@@ -11980,48 +11984,48 @@
         <v>29</v>
       </c>
       <c r="V54" t="s">
+        <v>592</v>
+      </c>
+      <c r="W54" t="s">
+        <v>29</v>
+      </c>
+      <c r="X54" t="s">
         <v>593</v>
       </c>
-      <c r="W54" t="s">
-        <v>29</v>
-      </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>594</v>
       </c>
-      <c r="Y54" t="s">
-        <v>595</v>
-      </c>
       <c r="Z54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:26" ht="409.6">
       <c r="A55" t="s">
+        <v>595</v>
+      </c>
+      <c r="B55" t="s">
         <v>596</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" t="s">
+        <v>163</v>
+      </c>
+      <c r="E55" t="s">
         <v>598</v>
       </c>
-      <c r="D55" t="s">
-        <v>164</v>
-      </c>
-      <c r="E55" t="s">
-        <v>599</v>
-      </c>
       <c r="F55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G55" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H55" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J55" t="s">
         <v>29</v>
@@ -12039,69 +12043,69 @@
         <v>17</v>
       </c>
       <c r="O55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P55" t="s">
         <v>29</v>
       </c>
       <c r="Q55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R55" t="s">
+        <v>599</v>
+      </c>
+      <c r="S55" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="S55" s="1" t="s">
+      <c r="T55" t="s">
+        <v>29</v>
+      </c>
+      <c r="U55" t="s">
+        <v>29</v>
+      </c>
+      <c r="V55" t="s">
         <v>601</v>
       </c>
-      <c r="T55" t="s">
-        <v>29</v>
-      </c>
-      <c r="U55" t="s">
-        <v>29</v>
-      </c>
-      <c r="V55" t="s">
+      <c r="W55" t="s">
+        <v>29</v>
+      </c>
+      <c r="X55" t="s">
         <v>602</v>
       </c>
-      <c r="W55" t="s">
-        <v>29</v>
-      </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>603</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>604</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="409.6">
       <c r="A56" t="s">
+        <v>605</v>
+      </c>
+      <c r="B56" t="s">
         <v>606</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" t="s">
+        <v>112</v>
+      </c>
+      <c r="E56" t="s">
         <v>608</v>
-      </c>
-      <c r="D56" t="s">
-        <v>113</v>
-      </c>
-      <c r="E56" t="s">
-        <v>609</v>
       </c>
       <c r="F56" t="s">
         <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H56" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J56" t="s">
         <v>29</v>
@@ -12125,13 +12129,13 @@
         <v>29</v>
       </c>
       <c r="Q56" t="s">
+        <v>610</v>
+      </c>
+      <c r="R56" t="s">
+        <v>202</v>
+      </c>
+      <c r="S56" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="R56" t="s">
-        <v>203</v>
-      </c>
-      <c r="S56" s="1" t="s">
-        <v>612</v>
       </c>
       <c r="T56" s="2">
         <v>42894</v>
@@ -12146,42 +12150,42 @@
         <v>29</v>
       </c>
       <c r="X56" t="s">
+        <v>612</v>
+      </c>
+      <c r="Y56" t="s">
         <v>613</v>
       </c>
-      <c r="Y56" t="s">
-        <v>614</v>
-      </c>
       <c r="Z56" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="409.6">
       <c r="A57" t="s">
+        <v>614</v>
+      </c>
+      <c r="B57" t="s">
         <v>615</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="1" t="s">
         <v>616</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>617</v>
       </c>
       <c r="D57" t="s">
         <v>28</v>
       </c>
       <c r="E57" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F57" t="s">
         <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H57" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J57" t="s">
         <v>29</v>
@@ -12199,19 +12203,19 @@
         <v>17</v>
       </c>
       <c r="O57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P57" t="s">
         <v>29</v>
       </c>
       <c r="Q57" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="T57" s="2">
         <v>42936</v>
@@ -12220,51 +12224,51 @@
         <v>29</v>
       </c>
       <c r="V57" t="s">
+        <v>620</v>
+      </c>
+      <c r="W57" t="s">
         <v>621</v>
       </c>
-      <c r="W57" t="s">
-        <v>622</v>
-      </c>
       <c r="X57" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y57" t="s">
         <v>278</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>279</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="58" spans="1:26" ht="409.6">
       <c r="A58" t="s">
+        <v>622</v>
+      </c>
+      <c r="B58" t="s">
         <v>623</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>625</v>
       </c>
       <c r="D58" t="s">
         <v>28</v>
       </c>
       <c r="E58" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F58" t="s">
         <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H58" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I58" t="s">
         <v>48</v>
       </c>
       <c r="J58" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K58" t="s">
         <v>34</v>
@@ -12279,19 +12283,19 @@
         <v>17</v>
       </c>
       <c r="O58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P58" t="s">
         <v>29</v>
       </c>
       <c r="Q58" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="R58" t="s">
         <v>50</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="T58" s="2">
         <v>42921</v>
@@ -12300,48 +12304,48 @@
         <v>29</v>
       </c>
       <c r="V58" t="s">
+        <v>630</v>
+      </c>
+      <c r="W58" t="s">
         <v>631</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>632</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>633</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>634</v>
-      </c>
-      <c r="Z58" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="409.6">
       <c r="A59" t="s">
+        <v>635</v>
+      </c>
+      <c r="B59" t="s">
         <v>636</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59" t="s">
         <v>638</v>
-      </c>
-      <c r="D59" t="s">
-        <v>113</v>
-      </c>
-      <c r="E59" t="s">
-        <v>639</v>
       </c>
       <c r="F59" t="s">
         <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I59" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="J59" t="s">
         <v>29</v>
@@ -12359,19 +12363,19 @@
         <v>17</v>
       </c>
       <c r="O59" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P59" t="s">
         <v>29</v>
       </c>
       <c r="Q59" t="s">
+        <v>640</v>
+      </c>
+      <c r="R59" t="s">
         <v>641</v>
       </c>
-      <c r="R59" t="s">
+      <c r="S59" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="S59" s="1" t="s">
-        <v>643</v>
       </c>
       <c r="T59" s="2">
         <v>42975</v>
@@ -12386,42 +12390,42 @@
         <v>29</v>
       </c>
       <c r="X59" t="s">
+        <v>643</v>
+      </c>
+      <c r="Y59" t="s">
         <v>644</v>
       </c>
-      <c r="Y59" t="s">
-        <v>645</v>
-      </c>
       <c r="Z59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="409.6">
       <c r="A60" t="s">
+        <v>645</v>
+      </c>
+      <c r="B60" t="s">
         <v>646</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>648</v>
-      </c>
       <c r="D60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E60" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F60" t="s">
         <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H60" t="s">
+        <v>335</v>
+      </c>
+      <c r="I60" t="s">
         <v>336</v>
-      </c>
-      <c r="I60" t="s">
-        <v>337</v>
       </c>
       <c r="J60" t="s">
         <v>29</v>
@@ -12445,13 +12449,13 @@
         <v>29</v>
       </c>
       <c r="Q60" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R60" t="s">
+        <v>648</v>
+      </c>
+      <c r="S60" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="S60" s="1" t="s">
-        <v>650</v>
       </c>
       <c r="T60" s="2">
         <v>42963</v>
@@ -12460,33 +12464,33 @@
         <v>29</v>
       </c>
       <c r="V60" t="s">
+        <v>650</v>
+      </c>
+      <c r="W60" t="s">
+        <v>29</v>
+      </c>
+      <c r="X60" t="s">
         <v>651</v>
       </c>
-      <c r="W60" t="s">
-        <v>29</v>
-      </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>652</v>
       </c>
-      <c r="Y60" t="s">
-        <v>653</v>
-      </c>
       <c r="Z60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:26" ht="409.6">
       <c r="A61" t="s">
+        <v>653</v>
+      </c>
+      <c r="B61" t="s">
         <v>654</v>
       </c>
-      <c r="B61" t="s">
-        <v>655</v>
-      </c>
       <c r="C61" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E61" t="s">
         <v>29</v>
@@ -12495,16 +12499,16 @@
         <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H61" t="s">
+        <v>655</v>
+      </c>
+      <c r="I61" t="s">
+        <v>103</v>
+      </c>
+      <c r="J61" t="s">
         <v>656</v>
-      </c>
-      <c r="I61" t="s">
-        <v>104</v>
-      </c>
-      <c r="J61" t="s">
-        <v>657</v>
       </c>
       <c r="K61" t="s">
         <v>34</v>
@@ -12525,10 +12529,10 @@
         <v>29</v>
       </c>
       <c r="Q61" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="R61" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S61" t="s">
         <v>29</v>
@@ -12546,39 +12550,39 @@
         <v>29</v>
       </c>
       <c r="X61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Y61" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="Z61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:26" ht="409.6">
       <c r="A62" t="s">
+        <v>659</v>
+      </c>
+      <c r="B62" t="s">
         <v>660</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>662</v>
       </c>
       <c r="D62" t="s">
         <v>28</v>
       </c>
       <c r="E62" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F62" t="s">
         <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H62" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I62" t="s">
         <v>48</v>
@@ -12605,13 +12609,13 @@
         <v>29</v>
       </c>
       <c r="Q62" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="R62" t="s">
         <v>50</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="T62" s="2">
         <v>42936</v>
@@ -12620,51 +12624,51 @@
         <v>29</v>
       </c>
       <c r="V62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W62" t="s">
         <v>29</v>
       </c>
       <c r="X62" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y62" t="s">
         <v>287</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>288</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="63" spans="1:26" ht="409.6">
       <c r="A63" t="s">
+        <v>664</v>
+      </c>
+      <c r="B63" t="s">
         <v>665</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" t="s">
+        <v>163</v>
+      </c>
+      <c r="E63" t="s">
         <v>667</v>
-      </c>
-      <c r="D63" t="s">
-        <v>164</v>
-      </c>
-      <c r="E63" t="s">
-        <v>668</v>
       </c>
       <c r="F63" t="s">
         <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H63" t="s">
+        <v>668</v>
+      </c>
+      <c r="I63" t="s">
         <v>669</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>670</v>
-      </c>
-      <c r="J63" t="s">
-        <v>671</v>
       </c>
       <c r="K63" t="s">
         <v>34</v>
@@ -12685,10 +12689,10 @@
         <v>29</v>
       </c>
       <c r="Q63" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="R63" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="S63" t="s">
         <v>29</v>
@@ -12700,51 +12704,51 @@
         <v>29</v>
       </c>
       <c r="V63" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="W63" t="s">
         <v>29</v>
       </c>
       <c r="X63" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y63" t="s">
         <v>302</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>303</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="64" spans="1:26" ht="409.6">
       <c r="A64" t="s">
+        <v>673</v>
+      </c>
+      <c r="B64" t="s">
         <v>674</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" t="s">
+        <v>163</v>
+      </c>
+      <c r="E64" t="s">
         <v>676</v>
-      </c>
-      <c r="D64" t="s">
-        <v>164</v>
-      </c>
-      <c r="E64" t="s">
-        <v>677</v>
       </c>
       <c r="F64" t="s">
         <v>30</v>
       </c>
       <c r="G64" t="s">
+        <v>677</v>
+      </c>
+      <c r="H64" t="s">
         <v>678</v>
-      </c>
-      <c r="H64" t="s">
-        <v>679</v>
       </c>
       <c r="I64" t="s">
         <v>48</v>
       </c>
       <c r="J64" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K64" t="s">
         <v>34</v>
@@ -12753,25 +12757,25 @@
         <v>42879</v>
       </c>
       <c r="M64" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N64" t="s">
         <v>17</v>
       </c>
       <c r="O64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P64" t="s">
         <v>29</v>
       </c>
       <c r="Q64" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R64" t="s">
         <v>50</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="T64" s="2">
         <v>42901</v>
@@ -12780,45 +12784,45 @@
         <v>29</v>
       </c>
       <c r="V64" t="s">
+        <v>681</v>
+      </c>
+      <c r="W64" t="s">
+        <v>29</v>
+      </c>
+      <c r="X64" t="s">
         <v>682</v>
       </c>
-      <c r="W64" t="s">
-        <v>29</v>
-      </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>683</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>684</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="65" spans="1:26" ht="409.6">
       <c r="A65" t="s">
+        <v>685</v>
+      </c>
+      <c r="B65" t="s">
         <v>686</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" s="1" t="s">
         <v>687</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>688</v>
       </c>
       <c r="D65" t="s">
         <v>28</v>
       </c>
       <c r="E65" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F65" t="s">
         <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H65" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I65" t="s">
         <v>48</v>
@@ -12839,19 +12843,19 @@
         <v>17</v>
       </c>
       <c r="O65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P65" t="s">
         <v>29</v>
       </c>
       <c r="Q65" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="R65" t="s">
         <v>50</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="T65" s="2">
         <v>42895</v>
@@ -12860,48 +12864,48 @@
         <v>29</v>
       </c>
       <c r="V65" t="s">
+        <v>691</v>
+      </c>
+      <c r="W65" t="s">
+        <v>29</v>
+      </c>
+      <c r="X65" t="s">
         <v>692</v>
       </c>
-      <c r="W65" t="s">
-        <v>29</v>
-      </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>693</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>694</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="66" spans="1:26" ht="409.6">
       <c r="A66" t="s">
+        <v>695</v>
+      </c>
+      <c r="B66" t="s">
         <v>696</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" t="s">
+        <v>112</v>
+      </c>
+      <c r="E66" t="s">
         <v>698</v>
-      </c>
-      <c r="D66" t="s">
-        <v>113</v>
-      </c>
-      <c r="E66" t="s">
-        <v>699</v>
       </c>
       <c r="F66" t="s">
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H66" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I66" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J66" t="s">
         <v>29</v>
@@ -12925,13 +12929,13 @@
         <v>29</v>
       </c>
       <c r="Q66" t="s">
+        <v>700</v>
+      </c>
+      <c r="R66" t="s">
         <v>701</v>
       </c>
-      <c r="R66" t="s">
+      <c r="S66" s="1" t="s">
         <v>702</v>
-      </c>
-      <c r="S66" s="1" t="s">
-        <v>703</v>
       </c>
       <c r="T66" s="2">
         <v>42923</v>
@@ -12940,51 +12944,51 @@
         <v>29</v>
       </c>
       <c r="V66" t="s">
+        <v>703</v>
+      </c>
+      <c r="W66" t="s">
+        <v>29</v>
+      </c>
+      <c r="X66" t="s">
         <v>704</v>
       </c>
-      <c r="W66" t="s">
-        <v>29</v>
-      </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>705</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>706</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="67" spans="1:26" ht="409.6">
       <c r="A67" t="s">
+        <v>707</v>
+      </c>
+      <c r="B67" t="s">
         <v>708</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" t="s">
+        <v>163</v>
+      </c>
+      <c r="E67" t="s">
         <v>710</v>
-      </c>
-      <c r="D67" t="s">
-        <v>164</v>
-      </c>
-      <c r="E67" t="s">
-        <v>711</v>
       </c>
       <c r="F67" t="s">
         <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H67" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I67" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J67" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K67" t="s">
         <v>34</v>
@@ -13005,13 +13009,13 @@
         <v>29</v>
       </c>
       <c r="Q67" t="s">
+        <v>712</v>
+      </c>
+      <c r="R67" t="s">
+        <v>214</v>
+      </c>
+      <c r="S67" s="1" t="s">
         <v>713</v>
-      </c>
-      <c r="R67" t="s">
-        <v>215</v>
-      </c>
-      <c r="S67" s="1" t="s">
-        <v>714</v>
       </c>
       <c r="T67" s="2">
         <v>42921</v>
@@ -13020,48 +13024,48 @@
         <v>29</v>
       </c>
       <c r="V67" t="s">
+        <v>714</v>
+      </c>
+      <c r="W67" t="s">
+        <v>29</v>
+      </c>
+      <c r="X67" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y67" t="s">
         <v>715</v>
       </c>
-      <c r="W67" t="s">
-        <v>29</v>
-      </c>
-      <c r="X67" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>716</v>
-      </c>
       <c r="Z67" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="68" spans="1:26" ht="409.6">
       <c r="A68" t="s">
+        <v>716</v>
+      </c>
+      <c r="B68" t="s">
         <v>717</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" s="1" t="s">
         <v>718</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>719</v>
       </c>
       <c r="D68" t="s">
         <v>28</v>
       </c>
       <c r="E68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F68" t="s">
         <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H68" t="s">
+        <v>719</v>
+      </c>
+      <c r="I68" t="s">
         <v>720</v>
-      </c>
-      <c r="I68" t="s">
-        <v>721</v>
       </c>
       <c r="J68" t="s">
         <v>29</v>
@@ -13085,13 +13089,13 @@
         <v>29</v>
       </c>
       <c r="Q68" t="s">
+        <v>721</v>
+      </c>
+      <c r="R68" t="s">
+        <v>375</v>
+      </c>
+      <c r="S68" s="1" t="s">
         <v>722</v>
-      </c>
-      <c r="R68" t="s">
-        <v>376</v>
-      </c>
-      <c r="S68" s="1" t="s">
-        <v>723</v>
       </c>
       <c r="T68" s="2">
         <v>42920</v>
@@ -13100,51 +13104,51 @@
         <v>29</v>
       </c>
       <c r="V68" t="s">
+        <v>723</v>
+      </c>
+      <c r="W68" t="s">
+        <v>29</v>
+      </c>
+      <c r="X68" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y68" t="s">
         <v>724</v>
       </c>
-      <c r="W68" t="s">
-        <v>29</v>
-      </c>
-      <c r="X68" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>725</v>
-      </c>
       <c r="Z68" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="1:26" ht="409.6">
       <c r="A69" t="s">
+        <v>725</v>
+      </c>
+      <c r="B69" t="s">
         <v>726</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" s="1" t="s">
         <v>727</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>728</v>
       </c>
       <c r="D69" t="s">
         <v>28</v>
       </c>
       <c r="E69" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F69" t="s">
         <v>30</v>
       </c>
       <c r="G69" t="s">
+        <v>729</v>
+      </c>
+      <c r="H69" t="s">
         <v>730</v>
-      </c>
-      <c r="H69" t="s">
-        <v>731</v>
       </c>
       <c r="I69" t="s">
         <v>48</v>
       </c>
       <c r="J69" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="K69" t="s">
         <v>34</v>
@@ -13153,25 +13157,25 @@
         <v>42894</v>
       </c>
       <c r="M69" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N69" t="s">
         <v>17</v>
       </c>
       <c r="O69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P69" t="s">
         <v>29</v>
       </c>
       <c r="Q69" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="R69" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="T69" s="2">
         <v>42938</v>
@@ -13180,48 +13184,48 @@
         <v>29</v>
       </c>
       <c r="V69" t="s">
+        <v>733</v>
+      </c>
+      <c r="W69" t="s">
         <v>734</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>735</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>736</v>
       </c>
-      <c r="Y69" t="s">
-        <v>737</v>
-      </c>
       <c r="Z69" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="70" spans="1:26" ht="409.6">
       <c r="A70" t="s">
+        <v>737</v>
+      </c>
+      <c r="B70" t="s">
         <v>738</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" s="1" t="s">
         <v>739</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>740</v>
       </c>
       <c r="D70" t="s">
         <v>28</v>
       </c>
       <c r="E70" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F70" t="s">
         <v>30</v>
       </c>
       <c r="G70" t="s">
+        <v>741</v>
+      </c>
+      <c r="H70" t="s">
         <v>742</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>743</v>
-      </c>
-      <c r="I70" t="s">
-        <v>744</v>
       </c>
       <c r="J70" t="s">
         <v>29</v>
@@ -13239,19 +13243,19 @@
         <v>17</v>
       </c>
       <c r="O70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P70" t="s">
         <v>29</v>
       </c>
       <c r="Q70" t="s">
+        <v>744</v>
+      </c>
+      <c r="R70" t="s">
         <v>745</v>
       </c>
-      <c r="R70" t="s">
+      <c r="S70" s="1" t="s">
         <v>746</v>
-      </c>
-      <c r="S70" s="1" t="s">
-        <v>747</v>
       </c>
       <c r="T70" s="2">
         <v>42916</v>
@@ -13260,30 +13264,30 @@
         <v>29</v>
       </c>
       <c r="V70" t="s">
+        <v>747</v>
+      </c>
+      <c r="W70" t="s">
+        <v>29</v>
+      </c>
+      <c r="X70" t="s">
         <v>748</v>
       </c>
-      <c r="W70" t="s">
-        <v>29</v>
-      </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>749</v>
       </c>
-      <c r="Y70" t="s">
-        <v>750</v>
-      </c>
       <c r="Z70" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="409.6">
       <c r="A71" t="s">
+        <v>750</v>
+      </c>
+      <c r="B71" t="s">
         <v>751</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>753</v>
       </c>
       <c r="D71" t="s">
         <v>28</v>
@@ -13295,10 +13299,10 @@
         <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H71" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I71" t="s">
         <v>48</v>
@@ -13325,13 +13329,13 @@
         <v>29</v>
       </c>
       <c r="Q71" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="R71" t="s">
         <v>50</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="T71" s="2">
         <v>42950</v>
@@ -13340,48 +13344,48 @@
         <v>29</v>
       </c>
       <c r="V71" t="s">
+        <v>755</v>
+      </c>
+      <c r="W71" t="s">
+        <v>569</v>
+      </c>
+      <c r="X71" t="s">
         <v>756</v>
       </c>
-      <c r="W71" t="s">
-        <v>570</v>
-      </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>757</v>
       </c>
-      <c r="Y71" t="s">
-        <v>758</v>
-      </c>
       <c r="Z71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:26" ht="409.6">
       <c r="A72" t="s">
+        <v>758</v>
+      </c>
+      <c r="B72" t="s">
         <v>759</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>761</v>
-      </c>
       <c r="D72" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E72" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F72" t="s">
         <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H72" t="s">
+        <v>429</v>
+      </c>
+      <c r="I72" t="s">
         <v>430</v>
-      </c>
-      <c r="I72" t="s">
-        <v>431</v>
       </c>
       <c r="J72" t="s">
         <v>29</v>
@@ -13405,13 +13409,13 @@
         <v>29</v>
       </c>
       <c r="Q72" t="s">
+        <v>761</v>
+      </c>
+      <c r="R72" t="s">
+        <v>353</v>
+      </c>
+      <c r="S72" s="1" t="s">
         <v>762</v>
-      </c>
-      <c r="R72" t="s">
-        <v>354</v>
-      </c>
-      <c r="S72" s="1" t="s">
-        <v>763</v>
       </c>
       <c r="T72" s="2">
         <v>42964</v>
@@ -13420,48 +13424,48 @@
         <v>29</v>
       </c>
       <c r="V72" t="s">
+        <v>763</v>
+      </c>
+      <c r="W72" t="s">
+        <v>29</v>
+      </c>
+      <c r="X72" t="s">
         <v>764</v>
       </c>
-      <c r="W72" t="s">
-        <v>29</v>
-      </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>765</v>
       </c>
-      <c r="Y72" t="s">
-        <v>766</v>
-      </c>
       <c r="Z72" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="73" spans="1:26" ht="409.6">
       <c r="A73" t="s">
+        <v>766</v>
+      </c>
+      <c r="B73" t="s">
         <v>767</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" s="1" t="s">
         <v>768</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>769</v>
       </c>
       <c r="D73" t="s">
         <v>28</v>
       </c>
       <c r="E73" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F73" t="s">
         <v>30</v>
       </c>
       <c r="G73" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H73" t="s">
+        <v>335</v>
+      </c>
+      <c r="I73" t="s">
         <v>336</v>
-      </c>
-      <c r="I73" t="s">
-        <v>337</v>
       </c>
       <c r="J73" t="s">
         <v>29</v>
@@ -13485,13 +13489,13 @@
         <v>29</v>
       </c>
       <c r="Q73" t="s">
+        <v>770</v>
+      </c>
+      <c r="R73" t="s">
+        <v>202</v>
+      </c>
+      <c r="S73" s="1" t="s">
         <v>771</v>
-      </c>
-      <c r="R73" t="s">
-        <v>203</v>
-      </c>
-      <c r="S73" s="1" t="s">
-        <v>772</v>
       </c>
       <c r="T73" s="2">
         <v>42923</v>
@@ -13500,48 +13504,48 @@
         <v>29</v>
       </c>
       <c r="V73" t="s">
+        <v>772</v>
+      </c>
+      <c r="W73" t="s">
+        <v>29</v>
+      </c>
+      <c r="X73" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y73" t="s">
         <v>773</v>
       </c>
-      <c r="W73" t="s">
-        <v>29</v>
-      </c>
-      <c r="X73" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>774</v>
-      </c>
       <c r="Z73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:26" ht="409.6">
       <c r="A74" t="s">
+        <v>774</v>
+      </c>
+      <c r="B74" t="s">
         <v>775</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" t="s">
+        <v>112</v>
+      </c>
+      <c r="E74" t="s">
         <v>777</v>
       </c>
-      <c r="D74" t="s">
-        <v>113</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
+        <v>84</v>
+      </c>
+      <c r="G74" t="s">
+        <v>415</v>
+      </c>
+      <c r="H74" t="s">
         <v>778</v>
       </c>
-      <c r="F74" t="s">
-        <v>85</v>
-      </c>
-      <c r="G74" t="s">
-        <v>416</v>
-      </c>
-      <c r="H74" t="s">
-        <v>779</v>
-      </c>
       <c r="I74" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J74" t="s">
         <v>29</v>
@@ -13565,48 +13569,48 @@
         <v>29</v>
       </c>
       <c r="Q74" t="s">
+        <v>779</v>
+      </c>
+      <c r="R74" t="s">
+        <v>462</v>
+      </c>
+      <c r="S74" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="R74" t="s">
-        <v>463</v>
-      </c>
-      <c r="S74" s="1" t="s">
+      <c r="T74" t="s">
+        <v>29</v>
+      </c>
+      <c r="U74" t="s">
+        <v>29</v>
+      </c>
+      <c r="V74" t="s">
         <v>781</v>
       </c>
-      <c r="T74" t="s">
-        <v>29</v>
-      </c>
-      <c r="U74" t="s">
-        <v>29</v>
-      </c>
-      <c r="V74" t="s">
+      <c r="W74" t="s">
+        <v>29</v>
+      </c>
+      <c r="X74" t="s">
         <v>782</v>
       </c>
-      <c r="W74" t="s">
-        <v>29</v>
-      </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>783</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>784</v>
-      </c>
-      <c r="Z74" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="75" spans="1:26" ht="409.6">
       <c r="A75" t="s">
+        <v>785</v>
+      </c>
+      <c r="B75" t="s">
         <v>786</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>788</v>
-      </c>
       <c r="D75" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E75" t="s">
         <v>29</v>
@@ -13615,13 +13619,13 @@
         <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H75" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="I75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J75" t="s">
         <v>29</v>
@@ -13639,19 +13643,19 @@
         <v>17</v>
       </c>
       <c r="O75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P75" t="s">
         <v>29</v>
       </c>
       <c r="Q75" t="s">
+        <v>789</v>
+      </c>
+      <c r="R75" t="s">
+        <v>503</v>
+      </c>
+      <c r="S75" s="1" t="s">
         <v>790</v>
-      </c>
-      <c r="R75" t="s">
-        <v>504</v>
-      </c>
-      <c r="S75" s="1" t="s">
-        <v>791</v>
       </c>
       <c r="T75" s="2">
         <v>42905</v>
@@ -13660,48 +13664,48 @@
         <v>29</v>
       </c>
       <c r="V75" t="s">
+        <v>791</v>
+      </c>
+      <c r="W75" t="s">
+        <v>29</v>
+      </c>
+      <c r="X75" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y75" t="s">
         <v>792</v>
       </c>
-      <c r="W75" t="s">
-        <v>29</v>
-      </c>
-      <c r="X75" t="s">
-        <v>227</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>793</v>
-      </c>
       <c r="Z75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="76" spans="1:26" ht="409.6">
       <c r="A76" t="s">
+        <v>793</v>
+      </c>
+      <c r="B76" t="s">
         <v>794</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" s="1" t="s">
         <v>795</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>796</v>
       </c>
       <c r="D76" t="s">
         <v>28</v>
       </c>
       <c r="E76" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F76" t="s">
         <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H76" t="s">
+        <v>796</v>
+      </c>
+      <c r="I76" t="s">
         <v>797</v>
-      </c>
-      <c r="I76" t="s">
-        <v>798</v>
       </c>
       <c r="J76" t="s">
         <v>29</v>
@@ -13725,13 +13729,13 @@
         <v>29</v>
       </c>
       <c r="Q76" t="s">
+        <v>798</v>
+      </c>
+      <c r="R76" t="s">
         <v>799</v>
       </c>
-      <c r="R76" t="s">
+      <c r="S76" s="1" t="s">
         <v>800</v>
-      </c>
-      <c r="S76" s="1" t="s">
-        <v>801</v>
       </c>
       <c r="T76" s="2">
         <v>42937</v>
@@ -13740,45 +13744,45 @@
         <v>29</v>
       </c>
       <c r="V76" t="s">
+        <v>801</v>
+      </c>
+      <c r="W76" t="s">
+        <v>29</v>
+      </c>
+      <c r="X76" t="s">
+        <v>651</v>
+      </c>
+      <c r="Y76" t="s">
         <v>802</v>
       </c>
-      <c r="W76" t="s">
-        <v>29</v>
-      </c>
-      <c r="X76" t="s">
-        <v>652</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>803</v>
-      </c>
       <c r="Z76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:26" ht="409.6">
       <c r="A77" t="s">
+        <v>803</v>
+      </c>
+      <c r="B77" t="s">
         <v>804</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" s="1" t="s">
         <v>805</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>806</v>
       </c>
       <c r="D77" t="s">
         <v>28</v>
       </c>
       <c r="E77" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F77" t="s">
         <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H77" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I77" t="s">
         <v>48</v>
@@ -13805,13 +13809,13 @@
         <v>29</v>
       </c>
       <c r="Q77" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="R77" t="s">
         <v>50</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="T77" s="2">
         <v>42955</v>
@@ -13820,48 +13824,48 @@
         <v>29</v>
       </c>
       <c r="V77" t="s">
+        <v>808</v>
+      </c>
+      <c r="W77" t="s">
         <v>809</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>810</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>811</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>812</v>
-      </c>
-      <c r="Z77" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="78" spans="1:26" ht="409.6">
       <c r="A78" t="s">
+        <v>813</v>
+      </c>
+      <c r="B78" t="s">
         <v>814</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" t="s">
+        <v>112</v>
+      </c>
+      <c r="E78" t="s">
         <v>816</v>
-      </c>
-      <c r="D78" t="s">
-        <v>113</v>
-      </c>
-      <c r="E78" t="s">
-        <v>817</v>
       </c>
       <c r="F78" t="s">
         <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H78" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J78" t="s">
         <v>29</v>
@@ -13885,13 +13889,13 @@
         <v>29</v>
       </c>
       <c r="Q78" t="s">
+        <v>818</v>
+      </c>
+      <c r="R78" t="s">
+        <v>74</v>
+      </c>
+      <c r="S78" s="1" t="s">
         <v>819</v>
-      </c>
-      <c r="R78" t="s">
-        <v>75</v>
-      </c>
-      <c r="S78" s="1" t="s">
-        <v>820</v>
       </c>
       <c r="T78" s="2">
         <v>42908</v>
@@ -13900,48 +13904,48 @@
         <v>29</v>
       </c>
       <c r="V78" t="s">
+        <v>820</v>
+      </c>
+      <c r="W78" t="s">
+        <v>29</v>
+      </c>
+      <c r="X78" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y78" t="s">
         <v>821</v>
       </c>
-      <c r="W78" t="s">
-        <v>29</v>
-      </c>
-      <c r="X78" t="s">
-        <v>227</v>
-      </c>
-      <c r="Y78" t="s">
-        <v>822</v>
-      </c>
       <c r="Z78" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="79" spans="1:26" ht="409.6">
       <c r="A79" t="s">
+        <v>822</v>
+      </c>
+      <c r="B79" t="s">
         <v>823</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" s="1" t="s">
         <v>824</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>825</v>
       </c>
       <c r="D79" t="s">
         <v>28</v>
       </c>
       <c r="E79" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F79" t="s">
         <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H79" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I79" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J79" t="s">
         <v>29</v>
@@ -13965,13 +13969,13 @@
         <v>29</v>
       </c>
       <c r="Q79" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R79" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="T79" s="2">
         <v>42908</v>
@@ -13980,48 +13984,48 @@
         <v>29</v>
       </c>
       <c r="V79" t="s">
+        <v>828</v>
+      </c>
+      <c r="W79" t="s">
+        <v>29</v>
+      </c>
+      <c r="X79" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y79" t="s">
         <v>829</v>
       </c>
-      <c r="W79" t="s">
-        <v>29</v>
-      </c>
-      <c r="X79" t="s">
-        <v>227</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>830</v>
-      </c>
       <c r="Z79" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="80" spans="1:26" ht="409.6">
       <c r="A80" t="s">
+        <v>830</v>
+      </c>
+      <c r="B80" t="s">
         <v>831</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" t="s">
+        <v>112</v>
+      </c>
+      <c r="E80" t="s">
+        <v>164</v>
+      </c>
+      <c r="F80" t="s">
+        <v>84</v>
+      </c>
+      <c r="G80" t="s">
         <v>833</v>
       </c>
-      <c r="D80" t="s">
-        <v>113</v>
-      </c>
-      <c r="E80" t="s">
-        <v>165</v>
-      </c>
-      <c r="F80" t="s">
-        <v>85</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>834</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>835</v>
-      </c>
-      <c r="I80" t="s">
-        <v>836</v>
       </c>
       <c r="J80" t="s">
         <v>29</v>
@@ -14045,66 +14049,66 @@
         <v>29</v>
       </c>
       <c r="Q80" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R80" t="s">
+        <v>836</v>
+      </c>
+      <c r="S80" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="S80" s="1" t="s">
+      <c r="T80" t="s">
+        <v>29</v>
+      </c>
+      <c r="U80" t="s">
+        <v>29</v>
+      </c>
+      <c r="V80" t="s">
+        <v>592</v>
+      </c>
+      <c r="W80" t="s">
+        <v>29</v>
+      </c>
+      <c r="X80" t="s">
         <v>838</v>
       </c>
-      <c r="T80" t="s">
-        <v>29</v>
-      </c>
-      <c r="U80" t="s">
-        <v>29</v>
-      </c>
-      <c r="V80" t="s">
-        <v>593</v>
-      </c>
-      <c r="W80" t="s">
-        <v>29</v>
-      </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>839</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>840</v>
-      </c>
-      <c r="Z80" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="81" spans="1:26" ht="409.6">
       <c r="A81" t="s">
+        <v>841</v>
+      </c>
+      <c r="B81" t="s">
         <v>842</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" s="1" t="s">
         <v>843</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>844</v>
       </c>
       <c r="D81" t="s">
         <v>28</v>
       </c>
       <c r="E81" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F81" t="s">
         <v>30</v>
       </c>
       <c r="G81" t="s">
+        <v>844</v>
+      </c>
+      <c r="H81" t="s">
         <v>845</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>846</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>847</v>
-      </c>
-      <c r="J81" t="s">
-        <v>848</v>
       </c>
       <c r="K81" t="s">
         <v>34</v>
@@ -14125,13 +14129,13 @@
         <v>29</v>
       </c>
       <c r="Q81" t="s">
+        <v>848</v>
+      </c>
+      <c r="R81" t="s">
         <v>849</v>
       </c>
-      <c r="R81" t="s">
+      <c r="S81" s="1" t="s">
         <v>850</v>
-      </c>
-      <c r="S81" s="1" t="s">
-        <v>851</v>
       </c>
       <c r="T81" s="2">
         <v>42971</v>
@@ -14140,48 +14144,48 @@
         <v>29</v>
       </c>
       <c r="V81" t="s">
+        <v>851</v>
+      </c>
+      <c r="W81" t="s">
+        <v>29</v>
+      </c>
+      <c r="X81" t="s">
+        <v>651</v>
+      </c>
+      <c r="Y81" t="s">
         <v>852</v>
       </c>
-      <c r="W81" t="s">
-        <v>29</v>
-      </c>
-      <c r="X81" t="s">
-        <v>652</v>
-      </c>
-      <c r="Y81" t="s">
-        <v>853</v>
-      </c>
       <c r="Z81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:26" ht="409.6">
       <c r="A82" t="s">
+        <v>853</v>
+      </c>
+      <c r="B82" t="s">
         <v>854</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" s="1" t="s">
         <v>855</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>856</v>
       </c>
       <c r="D82" t="s">
         <v>28</v>
       </c>
       <c r="E82" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F82" t="s">
         <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H82" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="I82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J82" t="s">
         <v>29</v>
@@ -14205,13 +14209,13 @@
         <v>29</v>
       </c>
       <c r="Q82" t="s">
+        <v>858</v>
+      </c>
+      <c r="R82" t="s">
+        <v>130</v>
+      </c>
+      <c r="S82" s="1" t="s">
         <v>859</v>
-      </c>
-      <c r="R82" t="s">
-        <v>131</v>
-      </c>
-      <c r="S82" s="1" t="s">
-        <v>860</v>
       </c>
       <c r="T82" s="2">
         <v>42944</v>
@@ -14220,51 +14224,51 @@
         <v>29</v>
       </c>
       <c r="V82" t="s">
+        <v>860</v>
+      </c>
+      <c r="W82" t="s">
+        <v>29</v>
+      </c>
+      <c r="X82" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y82" t="s">
         <v>861</v>
       </c>
-      <c r="W82" t="s">
-        <v>29</v>
-      </c>
-      <c r="X82" t="s">
-        <v>227</v>
-      </c>
-      <c r="Y82" t="s">
-        <v>862</v>
-      </c>
       <c r="Z82" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="83" spans="1:26" ht="409.6">
       <c r="A83" t="s">
+        <v>862</v>
+      </c>
+      <c r="B83" t="s">
         <v>863</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" s="1" t="s">
         <v>864</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>865</v>
       </c>
       <c r="D83" t="s">
         <v>28</v>
       </c>
       <c r="E83" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F83" t="s">
         <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H83" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I83" t="s">
         <v>48</v>
       </c>
       <c r="J83" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K83" t="s">
         <v>34</v>
@@ -14273,16 +14277,16 @@
         <v>42895</v>
       </c>
       <c r="M83" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N83" t="s">
         <v>17</v>
       </c>
       <c r="O83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P83" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="Q83" t="s">
         <v>29</v>
@@ -14291,7 +14295,7 @@
         <v>50</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="T83" s="2">
         <v>42907</v>
@@ -14300,48 +14304,48 @@
         <v>29</v>
       </c>
       <c r="V83" t="s">
+        <v>867</v>
+      </c>
+      <c r="W83" t="s">
+        <v>29</v>
+      </c>
+      <c r="X83" t="s">
         <v>868</v>
       </c>
-      <c r="W83" t="s">
-        <v>29</v>
-      </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>869</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>870</v>
-      </c>
-      <c r="Z83" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="84" spans="1:26" ht="409.6">
       <c r="A84" t="s">
+        <v>871</v>
+      </c>
+      <c r="B84" t="s">
         <v>872</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" t="s">
+        <v>112</v>
+      </c>
+      <c r="E84" t="s">
         <v>874</v>
-      </c>
-      <c r="D84" t="s">
-        <v>113</v>
-      </c>
-      <c r="E84" t="s">
-        <v>875</v>
       </c>
       <c r="F84" t="s">
         <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H84" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="I84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J84" t="s">
         <v>29</v>
@@ -14365,13 +14369,13 @@
         <v>29</v>
       </c>
       <c r="Q84" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="R84" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="T84" s="2">
         <v>42909</v>
@@ -14380,19 +14384,19 @@
         <v>29</v>
       </c>
       <c r="V84" t="s">
+        <v>877</v>
+      </c>
+      <c r="W84" t="s">
+        <v>29</v>
+      </c>
+      <c r="X84" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y84" t="s">
         <v>878</v>
       </c>
-      <c r="W84" t="s">
-        <v>29</v>
-      </c>
-      <c r="X84" t="s">
-        <v>227</v>
-      </c>
-      <c r="Y84" t="s">
-        <v>879</v>
-      </c>
       <c r="Z84" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/uploadfolder/12_-_Copy.xlsx
+++ b/uploadfolder/12_-_Copy.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bullton/flask/firstflask/uploadfolder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\userdata\yxian\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
   </bookViews>
   <sheets>
     <sheet name="Pronto_Statistics_2017_09_25_04" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -285,6 +285,9 @@
 2017-03-06, SG: FL17_P7_VZEP added to Pronto Additional field, decision by FL17 PR review meeting. Not blocking FL17_P7 milestone. Restriction will be added to release note._x000D_
 2017-03-05 SG: IR send out, was just ready. Mail send to stackholder to check what we do with thsi for FL17 P7, OH or restriction or is it new feature and so VZEP; Will e soon counted _x000D_
 2017-03-03 JRegalado: logs requested, see IR</t>
+  </si>
+  <si>
+    <t>[Common],VzW_FOA,PREINV IR DE; FL17_P7_VZEP, No TL00 issue No TL17 issue No TL17SP issue</t>
   </si>
   <si>
     <t>FL00, FL17SP, TL00, FL17SP, FL17A, TRS_INTERNAL</t>
@@ -6706,10 +6709,6 @@
        Why fault is dispatched to selected Pronto Group? : It is accepted as a SW Bug._x000D_
 [7. Reproduction]_x000D_
         Were there any reproduction attempts at Nokia labs performed? NA</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Common],VzW_FOA,PREINV IR DE; FL17_P7_VZEP, No TL00 issue No TL17 issue No TL17SP issue optus</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -7315,48 +7314,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20%-个性色1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20%-个性色2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20%-个性色3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20%-个性色4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20%-个性色5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20%-个性色6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40%-个性色1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40%-个性色2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40%-个性色3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40%-个性色4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40%-个性色5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40%-个性色6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60%-个性色1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60%-个性色2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60%-个性色3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60%-个性色4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60%-个性色5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60%-个性色6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="个性色1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="个性色2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="个性色3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="个性色4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="个性色5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="个性色6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7372,7 +7371,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7670,14 +7669,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="61.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" t="s">
@@ -7764,7 +7760,7 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>27</v>
@@ -7904,30 +7900,30 @@
         <v>42844</v>
       </c>
       <c r="V3" t="s">
-        <v>882</v>
+        <v>52</v>
       </c>
       <c r="W3" t="s">
         <v>29</v>
       </c>
       <c r="X3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Z3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="409.6">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -7939,10 +7935,10 @@
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I4" t="s">
         <v>48</v>
@@ -7969,13 +7965,13 @@
         <v>29</v>
       </c>
       <c r="Q4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R4" t="s">
         <v>50</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T4" s="2">
         <v>42857</v>
@@ -7984,48 +7980,48 @@
         <v>29</v>
       </c>
       <c r="V4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W4" t="s">
         <v>29</v>
       </c>
       <c r="X4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Z4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="409.6">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
         <v>29</v>
@@ -8049,13 +8045,13 @@
         <v>29</v>
       </c>
       <c r="Q5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T5" s="2">
         <v>42908</v>
@@ -8064,51 +8060,51 @@
         <v>29</v>
       </c>
       <c r="V5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s">
         <v>29</v>
       </c>
       <c r="X5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="409.6">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
         <v>34</v>
@@ -8123,19 +8119,19 @@
         <v>17</v>
       </c>
       <c r="O6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P6" t="s">
         <v>29</v>
       </c>
       <c r="Q6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T6" t="s">
         <v>29</v>
@@ -8144,48 +8140,48 @@
         <v>29</v>
       </c>
       <c r="V6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="W6" t="s">
         <v>29</v>
       </c>
       <c r="X6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Z6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="409.6">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F7" t="s">
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J7" t="s">
         <v>29</v>
@@ -8209,13 +8205,13 @@
         <v>29</v>
       </c>
       <c r="Q7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="R7" t="s">
         <v>50</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="T7" s="2">
         <v>42899</v>
@@ -8230,42 +8226,42 @@
         <v>29</v>
       </c>
       <c r="X7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="409.6">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F8" t="s">
         <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J8" t="s">
         <v>29</v>
@@ -8289,13 +8285,13 @@
         <v>29</v>
       </c>
       <c r="Q8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="T8" s="2">
         <v>42937</v>
@@ -8304,48 +8300,48 @@
         <v>29</v>
       </c>
       <c r="V8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W8" t="s">
         <v>29</v>
       </c>
       <c r="X8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Y8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Z8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="409.6">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F9" t="s">
         <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J9" t="s">
         <v>29</v>
@@ -8363,19 +8359,19 @@
         <v>17</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P9" t="s">
         <v>29</v>
       </c>
       <c r="Q9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="R9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="T9" s="2">
         <v>42912</v>
@@ -8384,48 +8380,48 @@
         <v>29</v>
       </c>
       <c r="V9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="W9" t="s">
         <v>29</v>
       </c>
       <c r="X9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Z9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="409.6">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H10" t="s">
         <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J10" t="s">
         <v>29</v>
@@ -8449,13 +8445,13 @@
         <v>29</v>
       </c>
       <c r="Q10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="R10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="S10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="T10" s="2">
         <v>42901</v>
@@ -8470,42 +8466,42 @@
         <v>29</v>
       </c>
       <c r="X10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="409.6">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D11" t="s">
         <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F11" t="s">
         <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J11" t="s">
         <v>29</v>
@@ -8529,13 +8525,13 @@
         <v>29</v>
       </c>
       <c r="Q11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="R11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="T11" s="2">
         <v>42899</v>
@@ -8544,48 +8540,48 @@
         <v>29</v>
       </c>
       <c r="V11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="W11" t="s">
         <v>29</v>
       </c>
       <c r="X11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="409.6">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
         <v>29</v>
@@ -8609,13 +8605,13 @@
         <v>29</v>
       </c>
       <c r="Q12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="R12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="T12" t="s">
         <v>29</v>
@@ -8624,45 +8620,45 @@
         <v>42906</v>
       </c>
       <c r="V12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="W12" t="s">
         <v>29</v>
       </c>
       <c r="X12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="409.6">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F13" t="s">
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I13" t="s">
         <v>48</v>
@@ -8689,13 +8685,13 @@
         <v>29</v>
       </c>
       <c r="Q13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T13" s="2">
         <v>42833</v>
@@ -8710,42 +8706,42 @@
         <v>29</v>
       </c>
       <c r="X13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="409.6">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F14" t="s">
         <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J14" t="s">
         <v>29</v>
@@ -8769,13 +8765,13 @@
         <v>29</v>
       </c>
       <c r="Q14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="R14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="T14" s="2">
         <v>42928</v>
@@ -8784,30 +8780,30 @@
         <v>29</v>
       </c>
       <c r="V14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="W14" t="s">
         <v>29</v>
       </c>
       <c r="X14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="409.6">
       <c r="A15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D15" t="s">
         <v>28</v>
@@ -8819,16 +8815,16 @@
         <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K15" t="s">
         <v>34</v>
@@ -8849,13 +8845,13 @@
         <v>29</v>
       </c>
       <c r="Q15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="R15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="T15" s="2">
         <v>42970</v>
@@ -8864,51 +8860,51 @@
         <v>29</v>
       </c>
       <c r="V15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="W15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="X15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="409.6">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F16" t="s">
         <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K16" t="s">
         <v>34</v>
@@ -8929,13 +8925,13 @@
         <v>29</v>
       </c>
       <c r="Q16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R16" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="T16" s="2">
         <v>42913</v>
@@ -8944,33 +8940,33 @@
         <v>29</v>
       </c>
       <c r="V16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="W16" t="s">
         <v>29</v>
       </c>
       <c r="X16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Y16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Z16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="409.6">
       <c r="A17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E17" t="s">
         <v>29</v>
@@ -8979,10 +8975,10 @@
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H17" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I17" t="s">
         <v>48</v>
@@ -8997,13 +8993,13 @@
         <v>42833</v>
       </c>
       <c r="M17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N17" t="s">
         <v>17</v>
       </c>
       <c r="O17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P17" t="s">
         <v>29</v>
@@ -9015,7 +9011,7 @@
         <v>50</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="T17" s="2">
         <v>42886</v>
@@ -9030,27 +9026,27 @@
         <v>29</v>
       </c>
       <c r="X17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Z17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="409.6">
       <c r="A18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
@@ -9059,13 +9055,13 @@
         <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J18" t="s">
         <v>29</v>
@@ -9089,7 +9085,7 @@
         <v>29</v>
       </c>
       <c r="Q18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="R18" t="s">
         <v>37</v>
@@ -9110,27 +9106,27 @@
         <v>29</v>
       </c>
       <c r="X18" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Y18" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Z18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="409.6">
       <c r="A19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E19" t="s">
         <v>29</v>
@@ -9139,10 +9135,10 @@
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H19" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I19" t="s">
         <v>48</v>
@@ -9169,13 +9165,13 @@
         <v>29</v>
       </c>
       <c r="Q19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R19" t="s">
         <v>50</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="T19" s="2">
         <v>42880</v>
@@ -9184,33 +9180,33 @@
         <v>29</v>
       </c>
       <c r="V19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="W19" t="s">
         <v>29</v>
       </c>
       <c r="X19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y19" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="409.6">
       <c r="A20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B20" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E20" t="s">
         <v>29</v>
@@ -9219,16 +9215,16 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H20" t="s">
         <v>29</v>
       </c>
       <c r="I20" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J20" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K20" t="s">
         <v>34</v>
@@ -9243,19 +9239,19 @@
         <v>17</v>
       </c>
       <c r="O20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P20" t="s">
         <v>29</v>
       </c>
       <c r="Q20" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="T20" s="2">
         <v>42886</v>
@@ -9264,48 +9260,48 @@
         <v>29</v>
       </c>
       <c r="V20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="W20" t="s">
         <v>29</v>
       </c>
       <c r="X20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Y20" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z20" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="409.6">
       <c r="A21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D21" t="s">
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F21" t="s">
         <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H21" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J21" t="s">
         <v>29</v>
@@ -9326,16 +9322,16 @@
         <v>35</v>
       </c>
       <c r="P21" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q21" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="T21" s="2">
         <v>42934</v>
@@ -9344,30 +9340,30 @@
         <v>42849</v>
       </c>
       <c r="V21" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="W21" t="s">
         <v>29</v>
       </c>
       <c r="X21" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y21" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="409.6">
       <c r="A22" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B22" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -9379,13 +9375,13 @@
         <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I22" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J22" t="s">
         <v>29</v>
@@ -9409,13 +9405,13 @@
         <v>29</v>
       </c>
       <c r="Q22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="R22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="T22" s="2">
         <v>42934</v>
@@ -9424,48 +9420,48 @@
         <v>29</v>
       </c>
       <c r="V22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="W22" t="s">
         <v>29</v>
       </c>
       <c r="X22" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Y22" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Z22" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="409.6">
       <c r="A23" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B23" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F23" t="s">
         <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J23" t="s">
         <v>29</v>
@@ -9489,13 +9485,13 @@
         <v>29</v>
       </c>
       <c r="Q23" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="R23" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="T23" s="2">
         <v>42936</v>
@@ -9504,48 +9500,48 @@
         <v>29</v>
       </c>
       <c r="V23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="W23" t="s">
         <v>29</v>
       </c>
       <c r="X23" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Y23" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="409.6">
       <c r="A24" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E24" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F24" t="s">
         <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H24" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I24" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J24" t="s">
         <v>29</v>
@@ -9569,13 +9565,13 @@
         <v>29</v>
       </c>
       <c r="Q24" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R24" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="T24" s="2">
         <v>42944</v>
@@ -9584,30 +9580,30 @@
         <v>29</v>
       </c>
       <c r="V24" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="W24" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="X24" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Y24" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Z24" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="409.6">
       <c r="A25" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B25" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D25" t="s">
         <v>28</v>
@@ -9619,10 +9615,10 @@
         <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H25" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I25" t="s">
         <v>48</v>
@@ -9637,7 +9633,7 @@
         <v>42879</v>
       </c>
       <c r="M25" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N25" t="s">
         <v>17</v>
@@ -9649,13 +9645,13 @@
         <v>29</v>
       </c>
       <c r="Q25" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R25" t="s">
         <v>50</v>
       </c>
       <c r="S25" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T25" s="2">
         <v>42887</v>
@@ -9664,45 +9660,45 @@
         <v>29</v>
       </c>
       <c r="V25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="W25" t="s">
         <v>29</v>
       </c>
       <c r="X25" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y25" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Z25" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="409.6">
       <c r="A26" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F26" t="s">
         <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I26" t="s">
         <v>48</v>
@@ -9717,7 +9713,7 @@
         <v>42872</v>
       </c>
       <c r="M26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N26" t="s">
         <v>17</v>
@@ -9735,7 +9731,7 @@
         <v>50</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="T26" s="2">
         <v>42899</v>
@@ -9750,42 +9746,42 @@
         <v>29</v>
       </c>
       <c r="X26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="409.6">
       <c r="A27" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B27" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E27" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F27" t="s">
         <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J27" t="s">
         <v>29</v>
@@ -9803,19 +9799,19 @@
         <v>17</v>
       </c>
       <c r="O27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P27" t="s">
         <v>29</v>
       </c>
       <c r="Q27" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="R27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="T27" s="2">
         <v>42950</v>
@@ -9824,48 +9820,48 @@
         <v>29</v>
       </c>
       <c r="V27" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W27" t="s">
         <v>29</v>
       </c>
       <c r="X27" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Y27" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z27" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="409.6">
       <c r="A28" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B28" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F28" t="s">
         <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H28" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I28" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J28" t="s">
         <v>29</v>
@@ -9889,13 +9885,13 @@
         <v>29</v>
       </c>
       <c r="Q28" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T28" s="2">
         <v>42905</v>
@@ -9904,51 +9900,51 @@
         <v>29</v>
       </c>
       <c r="V28" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="W28" t="s">
         <v>29</v>
       </c>
       <c r="X28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Y28" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="409.6">
       <c r="A29" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B29" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D29" t="s">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s">
         <v>34</v>
@@ -9963,19 +9959,19 @@
         <v>17</v>
       </c>
       <c r="O29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P29" t="s">
         <v>29</v>
       </c>
       <c r="Q29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R29" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="T29" t="s">
         <v>29</v>
@@ -9984,48 +9980,48 @@
         <v>29</v>
       </c>
       <c r="V29" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="W29" t="s">
         <v>29</v>
       </c>
       <c r="X29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Z29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="409.6">
       <c r="A30" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B30" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F30" t="s">
         <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H30" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J30" t="s">
         <v>29</v>
@@ -10049,13 +10045,13 @@
         <v>29</v>
       </c>
       <c r="Q30" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="R30" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="T30" s="2">
         <v>42934</v>
@@ -10064,48 +10060,48 @@
         <v>29</v>
       </c>
       <c r="V30" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="W30" t="s">
         <v>29</v>
       </c>
       <c r="X30" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Y30" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z30" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="409.6">
       <c r="A31" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B31" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D31" t="s">
         <v>28</v>
       </c>
       <c r="E31" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F31" t="s">
         <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J31" t="s">
         <v>29</v>
@@ -10126,16 +10122,16 @@
         <v>35</v>
       </c>
       <c r="P31" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q31" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="T31" s="2">
         <v>42888</v>
@@ -10144,48 +10140,48 @@
         <v>29</v>
       </c>
       <c r="V31" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="W31" t="s">
         <v>29</v>
       </c>
       <c r="X31" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Y31" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z31" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="409.6">
       <c r="A32" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B32" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F32" t="s">
         <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H32" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I32" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J32" t="s">
         <v>29</v>
@@ -10203,19 +10199,19 @@
         <v>17</v>
       </c>
       <c r="O32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P32" t="s">
         <v>29</v>
       </c>
       <c r="Q32" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="R32" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="T32" s="2">
         <v>42888</v>
@@ -10224,48 +10220,48 @@
         <v>29</v>
       </c>
       <c r="V32" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="W32" t="s">
         <v>29</v>
       </c>
       <c r="X32" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Y32" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Z32" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="409.6">
       <c r="A33" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B33" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E33" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F33" t="s">
         <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J33" t="s">
         <v>29</v>
@@ -10289,13 +10285,13 @@
         <v>29</v>
       </c>
       <c r="Q33" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="R33" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="T33" s="2">
         <v>42935</v>
@@ -10304,48 +10300,48 @@
         <v>42920</v>
       </c>
       <c r="V33" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="W33" t="s">
         <v>29</v>
       </c>
       <c r="X33" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Y33" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z33" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="409.6">
       <c r="A34" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B34" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D34" t="s">
         <v>28</v>
       </c>
       <c r="E34" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F34" t="s">
         <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J34" t="s">
         <v>29</v>
@@ -10369,13 +10365,13 @@
         <v>29</v>
       </c>
       <c r="Q34" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="R34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="T34" s="2">
         <v>42907</v>
@@ -10384,51 +10380,51 @@
         <v>29</v>
       </c>
       <c r="V34" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="W34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="X34" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Y34" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Z34" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="409.6">
       <c r="A35" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B35" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D35" t="s">
         <v>28</v>
       </c>
       <c r="E35" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F35" t="s">
         <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H35" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I35" t="s">
         <v>48</v>
       </c>
       <c r="J35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K35" t="s">
         <v>34</v>
@@ -10437,25 +10433,25 @@
         <v>42872</v>
       </c>
       <c r="M35" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N35" t="s">
         <v>17</v>
       </c>
       <c r="O35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P35" t="s">
         <v>29</v>
       </c>
       <c r="Q35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R35" t="s">
         <v>50</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="T35" s="2">
         <v>42879</v>
@@ -10470,42 +10466,42 @@
         <v>29</v>
       </c>
       <c r="X35" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Y35" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Z35" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="409.6">
       <c r="A36" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B36" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E36" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F36" t="s">
         <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H36" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I36" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J36" t="s">
         <v>29</v>
@@ -10529,13 +10525,13 @@
         <v>29</v>
       </c>
       <c r="Q36" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="R36" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="T36" s="2">
         <v>42899</v>
@@ -10544,48 +10540,48 @@
         <v>29</v>
       </c>
       <c r="V36" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="W36" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="X36" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Y36" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Z36" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="409.6">
       <c r="A37" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B37" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E37" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F37" t="s">
         <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H37" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I37" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J37" t="s">
         <v>29</v>
@@ -10603,19 +10599,19 @@
         <v>17</v>
       </c>
       <c r="O37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P37" t="s">
         <v>29</v>
       </c>
       <c r="Q37" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="T37" s="2">
         <v>42936</v>
@@ -10624,48 +10620,48 @@
         <v>29</v>
       </c>
       <c r="V37" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="W37" t="s">
         <v>29</v>
       </c>
       <c r="X37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Y37" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z37" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="409.6">
       <c r="A38" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B38" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E38" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F38" t="s">
         <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H38" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J38" t="s">
         <v>29</v>
@@ -10689,13 +10685,13 @@
         <v>29</v>
       </c>
       <c r="Q38" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="R38" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="T38" s="2">
         <v>42968</v>
@@ -10704,45 +10700,45 @@
         <v>29</v>
       </c>
       <c r="V38" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="W38" t="s">
         <v>29</v>
       </c>
       <c r="X38" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Y38" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Z38" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="409.6">
       <c r="A39" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B39" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E39" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F39" t="s">
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H39" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I39" t="s">
         <v>48</v>
@@ -10757,7 +10753,7 @@
         <v>42873</v>
       </c>
       <c r="M39" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N39" t="s">
         <v>17</v>
@@ -10775,7 +10771,7 @@
         <v>50</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="T39" s="2">
         <v>42933</v>
@@ -10784,48 +10780,48 @@
         <v>29</v>
       </c>
       <c r="V39" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="W39" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="X39" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Y39" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Z39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="409.6">
       <c r="A40" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B40" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E40" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F40" t="s">
         <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H40" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I40" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J40" t="s">
         <v>29</v>
@@ -10843,19 +10839,19 @@
         <v>17</v>
       </c>
       <c r="O40" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P40" t="s">
         <v>29</v>
       </c>
       <c r="Q40" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="R40" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="T40" s="2">
         <v>42938</v>
@@ -10864,48 +10860,48 @@
         <v>29</v>
       </c>
       <c r="V40" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="W40" t="s">
         <v>29</v>
       </c>
       <c r="X40" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Y40" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Z40" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="409.6">
       <c r="A41" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B41" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D41" t="s">
         <v>28</v>
       </c>
       <c r="E41" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F41" t="s">
         <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J41" t="s">
         <v>29</v>
@@ -10929,10 +10925,10 @@
         <v>29</v>
       </c>
       <c r="Q41" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="R41" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="S41" t="s">
         <v>29</v>
@@ -10944,48 +10940,48 @@
         <v>29</v>
       </c>
       <c r="V41" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="W41" t="s">
         <v>29</v>
       </c>
       <c r="X41" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y41" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="409.6">
       <c r="A42" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B42" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D42" t="s">
         <v>28</v>
       </c>
       <c r="E42" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F42" t="s">
         <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I42" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J42" t="s">
         <v>29</v>
@@ -11003,19 +10999,19 @@
         <v>17</v>
       </c>
       <c r="O42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P42" t="s">
         <v>29</v>
       </c>
       <c r="Q42" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="R42" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="T42" s="2">
         <v>42948</v>
@@ -11024,48 +11020,48 @@
         <v>29</v>
       </c>
       <c r="V42" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="W42" t="s">
         <v>29</v>
       </c>
       <c r="X42" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Y42" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Z42" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="409.6">
       <c r="A43" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B43" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D43" t="s">
         <v>28</v>
       </c>
       <c r="E43" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F43" t="s">
         <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H43" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I43" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J43" t="s">
         <v>29</v>
@@ -11089,13 +11085,13 @@
         <v>29</v>
       </c>
       <c r="Q43" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="R43" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="T43" s="2">
         <v>42943</v>
@@ -11104,33 +11100,33 @@
         <v>29</v>
       </c>
       <c r="V43" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="W43" t="s">
         <v>29</v>
       </c>
       <c r="X43" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Y43" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Z43" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="409.6">
       <c r="A44" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B44" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s">
         <v>29</v>
@@ -11139,16 +11135,16 @@
         <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H44" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K44" t="s">
         <v>34</v>
@@ -11169,13 +11165,13 @@
         <v>29</v>
       </c>
       <c r="Q44" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="R44" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="T44" s="2">
         <v>42964</v>
@@ -11184,48 +11180,48 @@
         <v>29</v>
       </c>
       <c r="V44" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="W44" t="s">
         <v>29</v>
       </c>
       <c r="X44" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Y44" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Z44" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="409.6">
       <c r="A45" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B45" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D45" t="s">
         <v>28</v>
       </c>
       <c r="E45" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F45" t="s">
         <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H45" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I45" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="J45" t="s">
         <v>29</v>
@@ -11243,19 +11239,19 @@
         <v>17</v>
       </c>
       <c r="O45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P45" t="s">
         <v>29</v>
       </c>
       <c r="Q45" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="R45" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="T45" s="2">
         <v>42937</v>
@@ -11264,48 +11260,48 @@
         <v>29</v>
       </c>
       <c r="V45" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="W45" t="s">
         <v>29</v>
       </c>
       <c r="X45" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y45" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="Z45" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="409.6">
       <c r="A46" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B46" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D46" t="s">
         <v>28</v>
       </c>
       <c r="E46" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F46" t="s">
         <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H46" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="I46" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="J46" t="s">
         <v>29</v>
@@ -11329,13 +11325,13 @@
         <v>29</v>
       </c>
       <c r="Q46" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="R46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="T46" s="2">
         <v>42992</v>
@@ -11350,45 +11346,45 @@
         <v>29</v>
       </c>
       <c r="X46" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Y46" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Z46" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="409.6">
       <c r="A47" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B47" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D47" t="s">
         <v>28</v>
       </c>
       <c r="E47" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F47" t="s">
         <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H47" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I47" t="s">
         <v>48</v>
       </c>
       <c r="J47" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K47" t="s">
         <v>34</v>
@@ -11397,25 +11393,25 @@
         <v>42874</v>
       </c>
       <c r="M47" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N47" t="s">
         <v>17</v>
       </c>
       <c r="O47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P47" t="s">
         <v>29</v>
       </c>
       <c r="Q47" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="R47" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="T47" s="2">
         <v>42885</v>
@@ -11427,48 +11423,48 @@
         <v>29</v>
       </c>
       <c r="W47" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="X47" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Y47" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Z47" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="409.6">
       <c r="A48" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B48" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D48" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E48" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F48" t="s">
         <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H48" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I48" t="s">
         <v>48</v>
       </c>
       <c r="J48" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K48" t="s">
         <v>34</v>
@@ -11477,7 +11473,7 @@
         <v>42879</v>
       </c>
       <c r="M48" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N48" t="s">
         <v>17</v>
@@ -11489,13 +11485,13 @@
         <v>29</v>
       </c>
       <c r="Q48" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R48" t="s">
         <v>50</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="T48" s="2">
         <v>42891</v>
@@ -11504,48 +11500,48 @@
         <v>29</v>
       </c>
       <c r="V48" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="W48" t="s">
         <v>29</v>
       </c>
       <c r="X48" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="Y48" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="Z48" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="49" spans="1:26" ht="409.6">
       <c r="A49" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B49" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D49" t="s">
         <v>28</v>
       </c>
       <c r="E49" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F49" t="s">
         <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H49" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I49" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J49" t="s">
         <v>29</v>
@@ -11563,19 +11559,19 @@
         <v>17</v>
       </c>
       <c r="O49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P49" t="s">
         <v>29</v>
       </c>
       <c r="Q49" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="R49" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="T49" s="2">
         <v>42891</v>
@@ -11584,48 +11580,48 @@
         <v>29</v>
       </c>
       <c r="V49" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="W49" t="s">
         <v>29</v>
       </c>
       <c r="X49" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Y49" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Z49" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="50" spans="1:26" ht="409.6">
       <c r="A50" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B50" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D50" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E50" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F50" t="s">
         <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H50" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I50" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J50" t="s">
         <v>29</v>
@@ -11643,19 +11639,19 @@
         <v>17</v>
       </c>
       <c r="O50" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P50" t="s">
         <v>29</v>
       </c>
       <c r="Q50" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="R50" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="T50" s="2">
         <v>42888</v>
@@ -11664,45 +11660,45 @@
         <v>29</v>
       </c>
       <c r="V50" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="W50" t="s">
         <v>29</v>
       </c>
       <c r="X50" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Y50" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Z50" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="409.6">
       <c r="A51" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B51" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D51" t="s">
         <v>28</v>
       </c>
       <c r="E51" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F51" t="s">
         <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H51" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I51" t="s">
         <v>48</v>
@@ -11729,13 +11725,13 @@
         <v>29</v>
       </c>
       <c r="Q51" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R51" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="T51" s="2">
         <v>42885</v>
@@ -11744,45 +11740,45 @@
         <v>29</v>
       </c>
       <c r="V51" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="W51" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="X51" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Y51" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="Z51" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="409.6">
       <c r="A52" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B52" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D52" t="s">
         <v>28</v>
       </c>
       <c r="E52" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F52" t="s">
         <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H52" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I52" t="s">
         <v>48</v>
@@ -11803,19 +11799,19 @@
         <v>17</v>
       </c>
       <c r="O52" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P52" t="s">
         <v>29</v>
       </c>
       <c r="Q52" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="R52" t="s">
         <v>50</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="T52" s="2">
         <v>42900</v>
@@ -11824,48 +11820,48 @@
         <v>29</v>
       </c>
       <c r="V52" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="W52" t="s">
         <v>29</v>
       </c>
       <c r="X52" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y52" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Z52" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:26" ht="409.6">
       <c r="A53" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B53" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D53" t="s">
         <v>28</v>
       </c>
       <c r="E53" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F53" t="s">
         <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H53" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I53" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J53" t="s">
         <v>29</v>
@@ -11883,19 +11879,19 @@
         <v>17</v>
       </c>
       <c r="O53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P53" t="s">
         <v>29</v>
       </c>
       <c r="Q53" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="T53" s="2">
         <v>42906</v>
@@ -11904,48 +11900,48 @@
         <v>29</v>
       </c>
       <c r="V53" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="W53" t="s">
         <v>29</v>
       </c>
       <c r="X53" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y53" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="Z53" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="409.6">
       <c r="A54" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B54" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D54" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F54" t="s">
         <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H54" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I54" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J54" t="s">
         <v>29</v>
@@ -11969,13 +11965,13 @@
         <v>29</v>
       </c>
       <c r="Q54" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="R54" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="T54" s="2">
         <v>42975</v>
@@ -11984,48 +11980,48 @@
         <v>29</v>
       </c>
       <c r="V54" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="W54" t="s">
         <v>29</v>
       </c>
       <c r="X54" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Y54" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Z54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:26" ht="409.6">
       <c r="A55" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B55" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D55" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E55" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F55" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G55" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H55" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I55" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J55" t="s">
         <v>29</v>
@@ -12043,19 +12039,19 @@
         <v>17</v>
       </c>
       <c r="O55" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P55" t="s">
         <v>29</v>
       </c>
       <c r="Q55" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="R55" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="T55" t="s">
         <v>29</v>
@@ -12064,48 +12060,48 @@
         <v>29</v>
       </c>
       <c r="V55" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="W55" t="s">
         <v>29</v>
       </c>
       <c r="X55" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="Y55" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="Z55" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="409.6">
       <c r="A56" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B56" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D56" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E56" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F56" t="s">
         <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H56" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="I56" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J56" t="s">
         <v>29</v>
@@ -12129,13 +12125,13 @@
         <v>29</v>
       </c>
       <c r="Q56" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="R56" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="T56" s="2">
         <v>42894</v>
@@ -12150,42 +12146,42 @@
         <v>29</v>
       </c>
       <c r="X56" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="Y56" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="Z56" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="409.6">
       <c r="A57" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B57" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D57" t="s">
         <v>28</v>
       </c>
       <c r="E57" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F57" t="s">
         <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H57" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="I57" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J57" t="s">
         <v>29</v>
@@ -12203,19 +12199,19 @@
         <v>17</v>
       </c>
       <c r="O57" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P57" t="s">
         <v>29</v>
       </c>
       <c r="Q57" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="R57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="T57" s="2">
         <v>42936</v>
@@ -12224,51 +12220,51 @@
         <v>29</v>
       </c>
       <c r="V57" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="W57" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="X57" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Y57" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Z57" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="58" spans="1:26" ht="409.6">
       <c r="A58" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B58" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D58" t="s">
         <v>28</v>
       </c>
       <c r="E58" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F58" t="s">
         <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H58" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I58" t="s">
         <v>48</v>
       </c>
       <c r="J58" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K58" t="s">
         <v>34</v>
@@ -12283,19 +12279,19 @@
         <v>17</v>
       </c>
       <c r="O58" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P58" t="s">
         <v>29</v>
       </c>
       <c r="Q58" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="R58" t="s">
         <v>50</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="T58" s="2">
         <v>42921</v>
@@ -12304,48 +12300,48 @@
         <v>29</v>
       </c>
       <c r="V58" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="W58" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="X58" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="Y58" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="Z58" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="409.6">
       <c r="A59" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B59" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E59" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F59" t="s">
         <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I59" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="J59" t="s">
         <v>29</v>
@@ -12363,19 +12359,19 @@
         <v>17</v>
       </c>
       <c r="O59" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P59" t="s">
         <v>29</v>
       </c>
       <c r="Q59" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="R59" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="T59" s="2">
         <v>42975</v>
@@ -12390,42 +12386,42 @@
         <v>29</v>
       </c>
       <c r="X59" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="Y59" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="Z59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="409.6">
       <c r="A60" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B60" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F60" t="s">
         <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H60" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I60" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J60" t="s">
         <v>29</v>
@@ -12449,13 +12445,13 @@
         <v>29</v>
       </c>
       <c r="Q60" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R60" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="T60" s="2">
         <v>42963</v>
@@ -12464,33 +12460,33 @@
         <v>29</v>
       </c>
       <c r="V60" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="W60" t="s">
         <v>29</v>
       </c>
       <c r="X60" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="Y60" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="Z60" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:26" ht="409.6">
       <c r="A61" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B61" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D61" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E61" t="s">
         <v>29</v>
@@ -12499,16 +12495,16 @@
         <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H61" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I61" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J61" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="K61" t="s">
         <v>34</v>
@@ -12529,10 +12525,10 @@
         <v>29</v>
       </c>
       <c r="Q61" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="R61" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S61" t="s">
         <v>29</v>
@@ -12550,39 +12546,39 @@
         <v>29</v>
       </c>
       <c r="X61" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y61" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Z61" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:26" ht="409.6">
       <c r="A62" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B62" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D62" t="s">
         <v>28</v>
       </c>
       <c r="E62" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F62" t="s">
         <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H62" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I62" t="s">
         <v>48</v>
@@ -12609,13 +12605,13 @@
         <v>29</v>
       </c>
       <c r="Q62" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="R62" t="s">
         <v>50</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="T62" s="2">
         <v>42936</v>
@@ -12624,51 +12620,51 @@
         <v>29</v>
       </c>
       <c r="V62" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="W62" t="s">
         <v>29</v>
       </c>
       <c r="X62" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Y62" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z62" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="63" spans="1:26" ht="409.6">
       <c r="A63" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B63" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D63" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E63" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F63" t="s">
         <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H63" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="I63" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="J63" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="K63" t="s">
         <v>34</v>
@@ -12689,10 +12685,10 @@
         <v>29</v>
       </c>
       <c r="Q63" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="R63" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="S63" t="s">
         <v>29</v>
@@ -12704,51 +12700,51 @@
         <v>29</v>
       </c>
       <c r="V63" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="W63" t="s">
         <v>29</v>
       </c>
       <c r="X63" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Y63" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Z63" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="64" spans="1:26" ht="409.6">
       <c r="A64" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B64" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D64" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E64" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F64" t="s">
         <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H64" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="I64" t="s">
         <v>48</v>
       </c>
       <c r="J64" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K64" t="s">
         <v>34</v>
@@ -12757,25 +12753,25 @@
         <v>42879</v>
       </c>
       <c r="M64" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N64" t="s">
         <v>17</v>
       </c>
       <c r="O64" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P64" t="s">
         <v>29</v>
       </c>
       <c r="Q64" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="R64" t="s">
         <v>50</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="T64" s="2">
         <v>42901</v>
@@ -12784,45 +12780,45 @@
         <v>29</v>
       </c>
       <c r="V64" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="W64" t="s">
         <v>29</v>
       </c>
       <c r="X64" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="Y64" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="Z64" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="65" spans="1:26" ht="409.6">
       <c r="A65" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B65" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D65" t="s">
         <v>28</v>
       </c>
       <c r="E65" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F65" t="s">
         <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H65" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="I65" t="s">
         <v>48</v>
@@ -12843,19 +12839,19 @@
         <v>17</v>
       </c>
       <c r="O65" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P65" t="s">
         <v>29</v>
       </c>
       <c r="Q65" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="R65" t="s">
         <v>50</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="T65" s="2">
         <v>42895</v>
@@ -12864,48 +12860,48 @@
         <v>29</v>
       </c>
       <c r="V65" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="W65" t="s">
         <v>29</v>
       </c>
       <c r="X65" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="Y65" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="Z65" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="66" spans="1:26" ht="409.6">
       <c r="A66" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B66" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D66" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E66" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F66" t="s">
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H66" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I66" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J66" t="s">
         <v>29</v>
@@ -12929,13 +12925,13 @@
         <v>29</v>
       </c>
       <c r="Q66" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="R66" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="T66" s="2">
         <v>42923</v>
@@ -12944,51 +12940,51 @@
         <v>29</v>
       </c>
       <c r="V66" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="W66" t="s">
         <v>29</v>
       </c>
       <c r="X66" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="Y66" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="Z66" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="67" spans="1:26" ht="409.6">
       <c r="A67" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B67" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D67" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E67" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F67" t="s">
         <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H67" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I67" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J67" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="K67" t="s">
         <v>34</v>
@@ -13009,13 +13005,13 @@
         <v>29</v>
       </c>
       <c r="Q67" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="R67" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="T67" s="2">
         <v>42921</v>
@@ -13024,48 +13020,48 @@
         <v>29</v>
       </c>
       <c r="V67" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="W67" t="s">
         <v>29</v>
       </c>
       <c r="X67" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Y67" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="Z67" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="68" spans="1:26" ht="409.6">
       <c r="A68" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B68" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D68" t="s">
         <v>28</v>
       </c>
       <c r="E68" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F68" t="s">
         <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H68" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="I68" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="J68" t="s">
         <v>29</v>
@@ -13089,13 +13085,13 @@
         <v>29</v>
       </c>
       <c r="Q68" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="R68" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="T68" s="2">
         <v>42920</v>
@@ -13104,51 +13100,51 @@
         <v>29</v>
       </c>
       <c r="V68" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="W68" t="s">
         <v>29</v>
       </c>
       <c r="X68" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Y68" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="Z68" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:26" ht="409.6">
       <c r="A69" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B69" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D69" t="s">
         <v>28</v>
       </c>
       <c r="E69" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F69" t="s">
         <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H69" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="I69" t="s">
         <v>48</v>
       </c>
       <c r="J69" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="K69" t="s">
         <v>34</v>
@@ -13157,25 +13153,25 @@
         <v>42894</v>
       </c>
       <c r="M69" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N69" t="s">
         <v>17</v>
       </c>
       <c r="O69" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P69" t="s">
         <v>29</v>
       </c>
       <c r="Q69" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="R69" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="T69" s="2">
         <v>42938</v>
@@ -13184,48 +13180,48 @@
         <v>29</v>
       </c>
       <c r="V69" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="W69" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="X69" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="Y69" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="Z69" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="70" spans="1:26" ht="409.6">
       <c r="A70" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B70" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D70" t="s">
         <v>28</v>
       </c>
       <c r="E70" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F70" t="s">
         <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H70" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="I70" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="J70" t="s">
         <v>29</v>
@@ -13243,19 +13239,19 @@
         <v>17</v>
       </c>
       <c r="O70" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P70" t="s">
         <v>29</v>
       </c>
       <c r="Q70" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="R70" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="T70" s="2">
         <v>42916</v>
@@ -13264,30 +13260,30 @@
         <v>29</v>
       </c>
       <c r="V70" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="W70" t="s">
         <v>29</v>
       </c>
       <c r="X70" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="Y70" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="Z70" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="409.6">
       <c r="A71" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B71" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D71" t="s">
         <v>28</v>
@@ -13299,10 +13295,10 @@
         <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H71" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="I71" t="s">
         <v>48</v>
@@ -13329,13 +13325,13 @@
         <v>29</v>
       </c>
       <c r="Q71" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="R71" t="s">
         <v>50</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="T71" s="2">
         <v>42950</v>
@@ -13344,48 +13340,48 @@
         <v>29</v>
       </c>
       <c r="V71" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="W71" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="X71" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="Y71" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="Z71" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:26" ht="409.6">
       <c r="A72" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B72" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D72" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E72" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F72" t="s">
         <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H72" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I72" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J72" t="s">
         <v>29</v>
@@ -13409,13 +13405,13 @@
         <v>29</v>
       </c>
       <c r="Q72" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="R72" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="T72" s="2">
         <v>42964</v>
@@ -13424,48 +13420,48 @@
         <v>29</v>
       </c>
       <c r="V72" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="W72" t="s">
         <v>29</v>
       </c>
       <c r="X72" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="Y72" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="Z72" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="73" spans="1:26" ht="409.6">
       <c r="A73" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B73" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D73" t="s">
         <v>28</v>
       </c>
       <c r="E73" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F73" t="s">
         <v>30</v>
       </c>
       <c r="G73" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H73" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I73" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J73" t="s">
         <v>29</v>
@@ -13489,13 +13485,13 @@
         <v>29</v>
       </c>
       <c r="Q73" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="R73" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="T73" s="2">
         <v>42923</v>
@@ -13504,48 +13500,48 @@
         <v>29</v>
       </c>
       <c r="V73" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="W73" t="s">
         <v>29</v>
       </c>
       <c r="X73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Y73" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="Z73" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:26" ht="409.6">
       <c r="A74" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B74" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D74" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E74" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F74" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G74" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H74" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="I74" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J74" t="s">
         <v>29</v>
@@ -13569,13 +13565,13 @@
         <v>29</v>
       </c>
       <c r="Q74" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="R74" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="T74" t="s">
         <v>29</v>
@@ -13584,33 +13580,33 @@
         <v>29</v>
       </c>
       <c r="V74" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="W74" t="s">
         <v>29</v>
       </c>
       <c r="X74" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="Y74" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="Z74" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="75" spans="1:26" ht="409.6">
       <c r="A75" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B75" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D75" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E75" t="s">
         <v>29</v>
@@ -13619,13 +13615,13 @@
         <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H75" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="I75" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J75" t="s">
         <v>29</v>
@@ -13643,19 +13639,19 @@
         <v>17</v>
       </c>
       <c r="O75" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P75" t="s">
         <v>29</v>
       </c>
       <c r="Q75" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="R75" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="T75" s="2">
         <v>42905</v>
@@ -13664,48 +13660,48 @@
         <v>29</v>
       </c>
       <c r="V75" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="W75" t="s">
         <v>29</v>
       </c>
       <c r="X75" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y75" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="Z75" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="76" spans="1:26" ht="409.6">
       <c r="A76" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B76" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D76" t="s">
         <v>28</v>
       </c>
       <c r="E76" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F76" t="s">
         <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H76" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="I76" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="J76" t="s">
         <v>29</v>
@@ -13729,13 +13725,13 @@
         <v>29</v>
       </c>
       <c r="Q76" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="R76" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="T76" s="2">
         <v>42937</v>
@@ -13744,45 +13740,45 @@
         <v>29</v>
       </c>
       <c r="V76" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="W76" t="s">
         <v>29</v>
       </c>
       <c r="X76" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="Y76" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="Z76" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:26" ht="409.6">
       <c r="A77" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B77" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D77" t="s">
         <v>28</v>
       </c>
       <c r="E77" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F77" t="s">
         <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H77" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I77" t="s">
         <v>48</v>
@@ -13809,13 +13805,13 @@
         <v>29</v>
       </c>
       <c r="Q77" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="R77" t="s">
         <v>50</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="T77" s="2">
         <v>42955</v>
@@ -13824,48 +13820,48 @@
         <v>29</v>
       </c>
       <c r="V77" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="W77" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="X77" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="Y77" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="Z77" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="78" spans="1:26" ht="409.6">
       <c r="A78" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B78" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D78" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E78" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F78" t="s">
         <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H78" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="I78" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J78" t="s">
         <v>29</v>
@@ -13889,13 +13885,13 @@
         <v>29</v>
       </c>
       <c r="Q78" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="R78" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="T78" s="2">
         <v>42908</v>
@@ -13904,48 +13900,48 @@
         <v>29</v>
       </c>
       <c r="V78" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="W78" t="s">
         <v>29</v>
       </c>
       <c r="X78" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y78" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="Z78" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="79" spans="1:26" ht="409.6">
       <c r="A79" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B79" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D79" t="s">
         <v>28</v>
       </c>
       <c r="E79" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F79" t="s">
         <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H79" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="I79" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J79" t="s">
         <v>29</v>
@@ -13969,13 +13965,13 @@
         <v>29</v>
       </c>
       <c r="Q79" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R79" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="T79" s="2">
         <v>42908</v>
@@ -13984,48 +13980,48 @@
         <v>29</v>
       </c>
       <c r="V79" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="W79" t="s">
         <v>29</v>
       </c>
       <c r="X79" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y79" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="Z79" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="80" spans="1:26" ht="409.6">
       <c r="A80" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B80" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D80" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E80" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F80" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G80" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H80" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="I80" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="J80" t="s">
         <v>29</v>
@@ -14049,13 +14045,13 @@
         <v>29</v>
       </c>
       <c r="Q80" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="R80" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="T80" t="s">
         <v>29</v>
@@ -14064,51 +14060,51 @@
         <v>29</v>
       </c>
       <c r="V80" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="W80" t="s">
         <v>29</v>
       </c>
       <c r="X80" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="Y80" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="Z80" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="81" spans="1:26" ht="409.6">
       <c r="A81" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B81" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D81" t="s">
         <v>28</v>
       </c>
       <c r="E81" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F81" t="s">
         <v>30</v>
       </c>
       <c r="G81" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H81" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="I81" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="J81" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="K81" t="s">
         <v>34</v>
@@ -14129,13 +14125,13 @@
         <v>29</v>
       </c>
       <c r="Q81" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="R81" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="T81" s="2">
         <v>42971</v>
@@ -14144,48 +14140,48 @@
         <v>29</v>
       </c>
       <c r="V81" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="W81" t="s">
         <v>29</v>
       </c>
       <c r="X81" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="Y81" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="Z81" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:26" ht="409.6">
       <c r="A82" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B82" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D82" t="s">
         <v>28</v>
       </c>
       <c r="E82" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="F82" t="s">
         <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H82" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="I82" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J82" t="s">
         <v>29</v>
@@ -14209,13 +14205,13 @@
         <v>29</v>
       </c>
       <c r="Q82" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="R82" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="T82" s="2">
         <v>42944</v>
@@ -14224,51 +14220,51 @@
         <v>29</v>
       </c>
       <c r="V82" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="W82" t="s">
         <v>29</v>
       </c>
       <c r="X82" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y82" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="Z82" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="83" spans="1:26" ht="409.6">
       <c r="A83" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B83" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D83" t="s">
         <v>28</v>
       </c>
       <c r="E83" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F83" t="s">
         <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H83" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I83" t="s">
         <v>48</v>
       </c>
       <c r="J83" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K83" t="s">
         <v>34</v>
@@ -14277,16 +14273,16 @@
         <v>42895</v>
       </c>
       <c r="M83" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N83" t="s">
         <v>17</v>
       </c>
       <c r="O83" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="Q83" t="s">
         <v>29</v>
@@ -14295,7 +14291,7 @@
         <v>50</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="T83" s="2">
         <v>42907</v>
@@ -14304,48 +14300,48 @@
         <v>29</v>
       </c>
       <c r="V83" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="W83" t="s">
         <v>29</v>
       </c>
       <c r="X83" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="Y83" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="Z83" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="84" spans="1:26" ht="409.6">
       <c r="A84" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B84" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D84" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E84" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F84" t="s">
         <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H84" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="I84" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J84" t="s">
         <v>29</v>
@@ -14369,13 +14365,13 @@
         <v>29</v>
       </c>
       <c r="Q84" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="R84" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="T84" s="2">
         <v>42909</v>
@@ -14384,19 +14380,19 @@
         <v>29</v>
       </c>
       <c r="V84" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="W84" t="s">
         <v>29</v>
       </c>
       <c r="X84" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y84" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="Z84" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
